--- a/5/9/Índice de stress local 2009 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2009 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6434</v>
+        <v>0.6382</v>
       </c>
       <c r="C2">
-        <v>0.2451</v>
+        <v>0.2565</v>
       </c>
       <c r="D2">
-        <v>0.3984</v>
+        <v>0.3817</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6375</v>
+        <v>0.6296</v>
       </c>
       <c r="C3">
-        <v>0.2363</v>
+        <v>0.2473</v>
       </c>
       <c r="D3">
-        <v>0.4012</v>
+        <v>0.3823</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.637</v>
+        <v>0.6267</v>
       </c>
       <c r="C4">
-        <v>0.2329</v>
+        <v>0.2436</v>
       </c>
       <c r="D4">
-        <v>0.4041</v>
+        <v>0.3831</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6304999999999999</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C5">
-        <v>0.2236</v>
+        <v>0.2337</v>
       </c>
       <c r="D5">
-        <v>0.4069</v>
+        <v>0.3837</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.633</v>
+        <v>0.6173</v>
       </c>
       <c r="C6">
-        <v>0.2219</v>
+        <v>0.2319</v>
       </c>
       <c r="D6">
-        <v>0.411</v>
+        <v>0.3854</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6334</v>
+        <v>0.6152</v>
       </c>
       <c r="C7">
-        <v>0.2187</v>
+        <v>0.2285</v>
       </c>
       <c r="D7">
-        <v>0.4147</v>
+        <v>0.3867</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6348</v>
+        <v>0.6139</v>
       </c>
       <c r="C8">
-        <v>0.2157</v>
+        <v>0.2253</v>
       </c>
       <c r="D8">
-        <v>0.4191</v>
+        <v>0.3887</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.6394</v>
+        <v>0.6158</v>
       </c>
       <c r="C9">
-        <v>0.2151</v>
+        <v>0.2246</v>
       </c>
       <c r="D9">
-        <v>0.4243</v>
+        <v>0.3912</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6442</v>
+        <v>0.6181</v>
       </c>
       <c r="C10">
-        <v>0.2153</v>
+        <v>0.2248</v>
       </c>
       <c r="D10">
-        <v>0.4289</v>
+        <v>0.3933</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.6486</v>
+        <v>0.6199</v>
       </c>
       <c r="C11">
-        <v>0.2151</v>
+        <v>0.2246</v>
       </c>
       <c r="D11">
-        <v>0.4335</v>
+        <v>0.3953</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.6533</v>
+        <v>0.6222</v>
       </c>
       <c r="C12">
-        <v>0.2158</v>
+        <v>0.2253</v>
       </c>
       <c r="D12">
-        <v>0.4375</v>
+        <v>0.3969</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.6589</v>
+        <v>0.626</v>
       </c>
       <c r="C13">
-        <v>0.219</v>
+        <v>0.2286</v>
       </c>
       <c r="D13">
-        <v>0.4399</v>
+        <v>0.3973</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6647999999999999</v>
+        <v>0.6298</v>
       </c>
       <c r="C14">
-        <v>0.2217</v>
+        <v>0.2314</v>
       </c>
       <c r="D14">
-        <v>0.4431</v>
+        <v>0.3984</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.6687</v>
+        <v>0.6315</v>
       </c>
       <c r="C15">
-        <v>0.2226</v>
+        <v>0.2323</v>
       </c>
       <c r="D15">
-        <v>0.4462</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.6705</v>
+        <v>0.6312</v>
       </c>
       <c r="C16">
-        <v>0.2222</v>
+        <v>0.2319</v>
       </c>
       <c r="D16">
-        <v>0.4483</v>
+        <v>0.3993</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.6732</v>
+        <v>0.6319</v>
       </c>
       <c r="C17">
-        <v>0.223</v>
+        <v>0.2327</v>
       </c>
       <c r="D17">
-        <v>0.4502</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.6765</v>
+        <v>0.6334</v>
       </c>
       <c r="C18">
-        <v>0.2245</v>
+        <v>0.2343</v>
       </c>
       <c r="D18">
-        <v>0.452</v>
+        <v>0.3991</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.6778</v>
+        <v>0.6327</v>
       </c>
       <c r="C19">
-        <v>0.2238</v>
+        <v>0.2335</v>
       </c>
       <c r="D19">
-        <v>0.4541</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.6805</v>
+        <v>0.6334</v>
       </c>
       <c r="C20">
-        <v>0.2244</v>
+        <v>0.2341</v>
       </c>
       <c r="D20">
-        <v>0.4561</v>
+        <v>0.3993</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.6844</v>
+        <v>0.6356000000000001</v>
       </c>
       <c r="C21">
-        <v>0.2265</v>
+        <v>0.2363</v>
       </c>
       <c r="D21">
-        <v>0.4579</v>
+        <v>0.3994</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.6881</v>
+        <v>0.6379</v>
       </c>
       <c r="C22">
-        <v>0.2288</v>
+        <v>0.2387</v>
       </c>
       <c r="D22">
-        <v>0.4593</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.6909999999999999</v>
+        <v>0.6394</v>
       </c>
       <c r="C23">
-        <v>0.231</v>
+        <v>0.241</v>
       </c>
       <c r="D23">
-        <v>0.46</v>
+        <v>0.3984</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.6913</v>
+        <v>0.6377</v>
       </c>
       <c r="C24">
-        <v>0.2292</v>
+        <v>0.239</v>
       </c>
       <c r="D24">
-        <v>0.4621</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.6983</v>
+        <v>0.6427</v>
       </c>
       <c r="C25">
-        <v>0.2322</v>
+        <v>0.2422</v>
       </c>
       <c r="D25">
-        <v>0.4661</v>
+        <v>0.4005</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.6979</v>
+        <v>0.6402</v>
       </c>
       <c r="C26">
-        <v>0.2294</v>
+        <v>0.2392</v>
       </c>
       <c r="D26">
-        <v>0.4685</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6985</v>
+        <v>0.6389</v>
       </c>
       <c r="C27">
-        <v>0.2278</v>
+        <v>0.2375</v>
       </c>
       <c r="D27">
-        <v>0.4707</v>
+        <v>0.4014</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.6967</v>
+        <v>0.6352</v>
       </c>
       <c r="C28">
-        <v>0.2248</v>
+        <v>0.2343</v>
       </c>
       <c r="D28">
-        <v>0.4718</v>
+        <v>0.4009</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.6925</v>
+        <v>0.6294999999999999</v>
       </c>
       <c r="C29">
-        <v>0.2208</v>
+        <v>0.23</v>
       </c>
       <c r="D29">
-        <v>0.4718</v>
+        <v>0.3995</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.6860000000000001</v>
+        <v>0.6213</v>
       </c>
       <c r="C30">
-        <v>0.2145</v>
+        <v>0.2234</v>
       </c>
       <c r="D30">
-        <v>0.4715</v>
+        <v>0.3979</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.68</v>
+        <v>0.6138</v>
       </c>
       <c r="C31">
-        <v>0.209</v>
+        <v>0.2175</v>
       </c>
       <c r="D31">
-        <v>0.471</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.6695</v>
+        <v>0.6027</v>
       </c>
       <c r="C32">
-        <v>0.203</v>
+        <v>0.2111</v>
       </c>
       <c r="D32">
-        <v>0.4665</v>
+        <v>0.3916</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.664</v>
+        <v>0.5966</v>
       </c>
       <c r="C33">
-        <v>0.1999</v>
+        <v>0.2078</v>
       </c>
       <c r="D33">
-        <v>0.4641</v>
+        <v>0.3888</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.6563</v>
+        <v>0.5884</v>
       </c>
       <c r="C34">
-        <v>0.1955</v>
+        <v>0.2031</v>
       </c>
       <c r="D34">
-        <v>0.4608</v>
+        <v>0.3853</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.6499</v>
+        <v>0.582</v>
       </c>
       <c r="C35">
-        <v>0.1929</v>
+        <v>0.2004</v>
       </c>
       <c r="D35">
-        <v>0.457</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.6449</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="C36">
-        <v>0.1916</v>
+        <v>0.199</v>
       </c>
       <c r="D36">
-        <v>0.4533</v>
+        <v>0.3781</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.6401</v>
+        <v>0.5725</v>
       </c>
       <c r="C37">
-        <v>0.1907</v>
+        <v>0.198</v>
       </c>
       <c r="D37">
-        <v>0.4493</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.6391</v>
+        <v>0.572</v>
       </c>
       <c r="C38">
-        <v>0.1932</v>
+        <v>0.2006</v>
       </c>
       <c r="D38">
-        <v>0.4459</v>
+        <v>0.3714</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.6337</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C39">
-        <v>0.1918</v>
+        <v>0.1992</v>
       </c>
       <c r="D39">
-        <v>0.4418</v>
+        <v>0.3678</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.6333</v>
+        <v>0.5668</v>
       </c>
       <c r="C40">
-        <v>0.1937</v>
+        <v>0.201</v>
       </c>
       <c r="D40">
-        <v>0.4396</v>
+        <v>0.3657</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.6287</v>
+        <v>0.5625</v>
       </c>
       <c r="C41">
-        <v>0.1925</v>
+        <v>0.1998</v>
       </c>
       <c r="D41">
-        <v>0.4362</v>
+        <v>0.3627</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.6225000000000001</v>
+        <v>0.5564</v>
       </c>
       <c r="C42">
-        <v>0.1899</v>
+        <v>0.197</v>
       </c>
       <c r="D42">
-        <v>0.4326</v>
+        <v>0.3594</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.6193</v>
+        <v>0.5537</v>
       </c>
       <c r="C43">
-        <v>0.1906</v>
+        <v>0.1977</v>
       </c>
       <c r="D43">
-        <v>0.4287</v>
+        <v>0.3559</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.607</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="C44">
-        <v>0.1848</v>
+        <v>0.1916</v>
       </c>
       <c r="D44">
-        <v>0.4222</v>
+        <v>0.3502</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.5927</v>
+        <v>0.5285</v>
       </c>
       <c r="C45">
-        <v>0.1793</v>
+        <v>0.1858</v>
       </c>
       <c r="D45">
-        <v>0.4134</v>
+        <v>0.3427</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.5799</v>
+        <v>0.517</v>
       </c>
       <c r="C46">
-        <v>0.1759</v>
+        <v>0.1821</v>
       </c>
       <c r="D46">
-        <v>0.404</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.5676</v>
+        <v>0.5057</v>
       </c>
       <c r="C47">
-        <v>0.1726</v>
+        <v>0.1785</v>
       </c>
       <c r="D47">
-        <v>0.395</v>
+        <v>0.3272</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.5546</v>
+        <v>0.4937</v>
       </c>
       <c r="C48">
-        <v>0.1688</v>
+        <v>0.1745</v>
       </c>
       <c r="D48">
-        <v>0.3859</v>
+        <v>0.3193</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.542</v>
+        <v>0.4818</v>
       </c>
       <c r="C49">
-        <v>0.1648</v>
+        <v>0.1702</v>
       </c>
       <c r="D49">
-        <v>0.3772</v>
+        <v>0.3116</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.531</v>
+        <v>0.4714</v>
       </c>
       <c r="C50">
-        <v>0.162</v>
+        <v>0.1672</v>
       </c>
       <c r="D50">
-        <v>0.369</v>
+        <v>0.3042</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.5171</v>
+        <v>0.458</v>
       </c>
       <c r="C51">
-        <v>0.1571</v>
+        <v>0.1619</v>
       </c>
       <c r="D51">
-        <v>0.36</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.5062</v>
+        <v>0.4466</v>
       </c>
       <c r="C52">
-        <v>0.1524</v>
+        <v>0.157</v>
       </c>
       <c r="D52">
-        <v>0.3538</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4894</v>
+        <v>0.4294</v>
       </c>
       <c r="C53">
-        <v>0.1439</v>
+        <v>0.1479</v>
       </c>
       <c r="D53">
-        <v>0.3456</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4789</v>
+        <v>0.4174</v>
       </c>
       <c r="C54">
-        <v>0.1374</v>
+        <v>0.141</v>
       </c>
       <c r="D54">
-        <v>0.3415</v>
+        <v>0.2763</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4738</v>
+        <v>0.4086</v>
       </c>
       <c r="C55">
-        <v>0.1291</v>
+        <v>0.1325</v>
       </c>
       <c r="D55">
-        <v>0.3447</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.4733</v>
+        <v>0.4043</v>
       </c>
       <c r="C56">
-        <v>0.124</v>
+        <v>0.1271</v>
       </c>
       <c r="D56">
-        <v>0.3493</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.472</v>
+        <v>0.3991</v>
       </c>
       <c r="C57">
-        <v>0.119</v>
+        <v>0.1218</v>
       </c>
       <c r="D57">
-        <v>0.353</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.4685</v>
+        <v>0.3913</v>
       </c>
       <c r="C58">
-        <v>0.1117</v>
+        <v>0.114</v>
       </c>
       <c r="D58">
-        <v>0.3568</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.4671</v>
+        <v>0.3859</v>
       </c>
       <c r="C59">
-        <v>0.1071</v>
+        <v>0.1092</v>
       </c>
       <c r="D59">
-        <v>0.3599</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.4613</v>
+        <v>0.3765</v>
       </c>
       <c r="C60">
-        <v>0.1009</v>
+        <v>0.1026</v>
       </c>
       <c r="D60">
-        <v>0.3604</v>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.458</v>
+        <v>0.3696</v>
       </c>
       <c r="C61">
-        <v>0.09719999999999999</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="D61">
-        <v>0.3608</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.4547</v>
+        <v>0.3626</v>
       </c>
       <c r="C62">
-        <v>0.0939</v>
+        <v>0.095</v>
       </c>
       <c r="D62">
-        <v>0.3608</v>
+        <v>0.2676</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.449</v>
+        <v>0.3531</v>
       </c>
       <c r="C63">
-        <v>0.0886</v>
+        <v>0.0893</v>
       </c>
       <c r="D63">
-        <v>0.3604</v>
+        <v>0.2638</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.4452</v>
+        <v>0.3458</v>
       </c>
       <c r="C64">
-        <v>0.0854</v>
+        <v>0.0861</v>
       </c>
       <c r="D64">
-        <v>0.3598</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.4391</v>
+        <v>0.336</v>
       </c>
       <c r="C65">
-        <v>0.0806</v>
+        <v>0.081</v>
       </c>
       <c r="D65">
-        <v>0.3586</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4312</v>
+        <v>0.3246</v>
       </c>
       <c r="C66">
-        <v>0.07480000000000001</v>
+        <v>0.0751</v>
       </c>
       <c r="D66">
-        <v>0.3563</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4229</v>
+        <v>0.313</v>
       </c>
       <c r="C67">
         <v>0.0692</v>
       </c>
       <c r="D67">
-        <v>0.3537</v>
+        <v>0.2438</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.416</v>
+        <v>0.3027</v>
       </c>
       <c r="C68">
-        <v>0.064</v>
+        <v>0.0639</v>
       </c>
       <c r="D68">
-        <v>0.352</v>
+        <v>0.2388</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4071</v>
+        <v>0.2908</v>
       </c>
       <c r="C69">
-        <v>0.0579</v>
+        <v>0.0578</v>
       </c>
       <c r="D69">
-        <v>0.3492</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4012</v>
+        <v>0.2821</v>
       </c>
       <c r="C70">
-        <v>0.0543</v>
+        <v>0.0539</v>
       </c>
       <c r="D70">
-        <v>0.3469</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.3952</v>
+        <v>0.2733</v>
       </c>
       <c r="C71">
-        <v>0.0503</v>
+        <v>0.0498</v>
       </c>
       <c r="D71">
-        <v>0.345</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.3916</v>
+        <v>0.267</v>
       </c>
       <c r="C72">
-        <v>0.048</v>
+        <v>0.0474</v>
       </c>
       <c r="D72">
-        <v>0.3436</v>
+        <v>0.2196</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.3865</v>
+        <v>0.2598</v>
       </c>
       <c r="C73">
-        <v>0.0455</v>
+        <v>0.045</v>
       </c>
       <c r="D73">
-        <v>0.3409</v>
+        <v>0.2148</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.3777</v>
+        <v>0.2499</v>
       </c>
       <c r="C74">
-        <v>0.0431</v>
+        <v>0.0425</v>
       </c>
       <c r="D74">
-        <v>0.3346</v>
+        <v>0.2073</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.3636</v>
+        <v>0.2368</v>
       </c>
       <c r="C75">
-        <v>0.0426</v>
+        <v>0.042</v>
       </c>
       <c r="D75">
-        <v>0.3209</v>
+        <v>0.1948</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.3438</v>
+        <v>0.2184</v>
       </c>
       <c r="C76">
-        <v>0.0384</v>
+        <v>0.0378</v>
       </c>
       <c r="D76">
-        <v>0.3054</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.3253</v>
+        <v>0.2012</v>
       </c>
       <c r="C77">
-        <v>0.0343</v>
+        <v>0.0335</v>
       </c>
       <c r="D77">
-        <v>0.291</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.3042</v>
+        <v>0.1816</v>
       </c>
       <c r="C78">
-        <v>0.0286</v>
+        <v>0.0276</v>
       </c>
       <c r="D78">
-        <v>0.2757</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.2864</v>
+        <v>0.1655</v>
       </c>
       <c r="C79">
-        <v>0.0252</v>
+        <v>0.0242</v>
       </c>
       <c r="D79">
-        <v>0.2612</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.2681</v>
+        <v>0.1488</v>
       </c>
       <c r="C80">
-        <v>0.021</v>
+        <v>0.0198</v>
       </c>
       <c r="D80">
-        <v>0.2471</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.2503</v>
+        <v>0.1327</v>
       </c>
       <c r="C81">
-        <v>0.0168</v>
+        <v>0.0153</v>
       </c>
       <c r="D81">
-        <v>0.2335</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.2344</v>
+        <v>0.1188</v>
       </c>
       <c r="C82">
-        <v>0.014</v>
+        <v>0.0123</v>
       </c>
       <c r="D82">
-        <v>0.2204</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.2195</v>
+        <v>0.1057</v>
       </c>
       <c r="C83">
-        <v>0.0111</v>
+        <v>0.0089</v>
       </c>
       <c r="D83">
-        <v>0.2083</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.2093</v>
+        <v>0.0975</v>
       </c>
       <c r="C84">
-        <v>0.0118</v>
+        <v>0.0091</v>
       </c>
       <c r="D84">
-        <v>0.1974</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.2012</v>
+        <v>0.0917</v>
       </c>
       <c r="C85">
-        <v>0.0139</v>
+        <v>0.0106</v>
       </c>
       <c r="D85">
-        <v>0.1873</v>
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.1943</v>
+        <v>0.0867</v>
       </c>
       <c r="C86">
-        <v>0.0158</v>
+        <v>0.0118</v>
       </c>
       <c r="D86">
-        <v>0.1785</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.1885</v>
+        <v>0.0828</v>
       </c>
       <c r="C87">
-        <v>0.0179</v>
+        <v>0.0132</v>
       </c>
       <c r="D87">
-        <v>0.1707</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.1844</v>
+        <v>0.0801</v>
       </c>
       <c r="C88">
-        <v>0.0202</v>
+        <v>0.0151</v>
       </c>
       <c r="D88">
-        <v>0.1642</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.1811</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="C89">
-        <v>0.0225</v>
+        <v>0.0168</v>
       </c>
       <c r="D89">
-        <v>0.1586</v>
+        <v>0.0613</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.1746</v>
+        <v>0.073</v>
       </c>
       <c r="C90">
-        <v>0.0226</v>
+        <v>0.0165</v>
       </c>
       <c r="D90">
-        <v>0.152</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.1691</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="C91">
-        <v>0.0238</v>
+        <v>0.0171</v>
       </c>
       <c r="D91">
-        <v>0.1453</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.1637</v>
+        <v>0.0653</v>
       </c>
       <c r="C92">
-        <v>0.0257</v>
+        <v>0.0183</v>
       </c>
       <c r="D92">
-        <v>0.1379</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.1587</v>
+        <v>0.0621</v>
       </c>
       <c r="C93">
-        <v>0.0278</v>
+        <v>0.0195</v>
       </c>
       <c r="D93">
-        <v>0.131</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.1537</v>
+        <v>0.0586</v>
       </c>
       <c r="C94">
-        <v>0.0296</v>
+        <v>0.0204</v>
       </c>
       <c r="D94">
-        <v>0.1241</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1503</v>
+        <v>0.0568</v>
       </c>
       <c r="C95">
-        <v>0.0322</v>
+        <v>0.022</v>
       </c>
       <c r="D95">
-        <v>0.1181</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1485</v>
+        <v>0.0561</v>
       </c>
       <c r="C96">
-        <v>0.0347</v>
+        <v>0.0238</v>
       </c>
       <c r="D96">
-        <v>0.1138</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1481</v>
+        <v>0.0565</v>
       </c>
       <c r="C97">
-        <v>0.0374</v>
+        <v>0.0259</v>
       </c>
       <c r="D97">
-        <v>0.1107</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.1485</v>
+        <v>0.0578</v>
       </c>
       <c r="C98">
-        <v>0.0408</v>
+        <v>0.0285</v>
       </c>
       <c r="D98">
-        <v>0.1076</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.1495</v>
+        <v>0.0598</v>
       </c>
       <c r="C99">
-        <v>0.0447</v>
+        <v>0.0316</v>
       </c>
       <c r="D99">
-        <v>0.1048</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.1506</v>
+        <v>0.062</v>
       </c>
       <c r="C100">
-        <v>0.0486</v>
+        <v>0.0349</v>
       </c>
       <c r="D100">
-        <v>0.102</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.15</v>
+        <v>0.0625</v>
       </c>
       <c r="C101">
-        <v>0.0512</v>
+        <v>0.0367</v>
       </c>
       <c r="D101">
-        <v>0.0989</v>
+        <v>0.0258</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.1487</v>
+        <v>0.0623</v>
       </c>
       <c r="C102">
-        <v>0.0531</v>
+        <v>0.0378</v>
       </c>
       <c r="D102">
-        <v>0.0955</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.1473</v>
+        <v>0.062</v>
       </c>
       <c r="C103">
-        <v>0.0546</v>
+        <v>0.0387</v>
       </c>
       <c r="D103">
-        <v>0.0927</v>
+        <v>0.0233</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.1461</v>
+        <v>0.0623</v>
       </c>
       <c r="C104">
-        <v>0.0565</v>
+        <v>0.0401</v>
       </c>
       <c r="D104">
-        <v>0.0897</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.143</v>
+        <v>0.0606</v>
       </c>
       <c r="C105">
-        <v>0.0567</v>
+        <v>0.0399</v>
       </c>
       <c r="D105">
-        <v>0.0863</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.1408</v>
+        <v>0.0602</v>
       </c>
       <c r="C106">
-        <v>0.0578</v>
+        <v>0.0407</v>
       </c>
       <c r="D106">
-        <v>0.083</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.1374</v>
+        <v>0.0588</v>
       </c>
       <c r="C107">
-        <v>0.058</v>
+        <v>0.0406</v>
       </c>
       <c r="D107">
-        <v>0.0794</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.1326</v>
+        <v>0.0571</v>
       </c>
       <c r="C108">
-        <v>0.059</v>
+        <v>0.0414</v>
       </c>
       <c r="D108">
-        <v>0.0736</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.1261</v>
+        <v>0.0539</v>
       </c>
       <c r="C109">
-        <v>0.0584</v>
+        <v>0.0404</v>
       </c>
       <c r="D109">
-        <v>0.0677</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.1203</v>
+        <v>0.0515</v>
       </c>
       <c r="C110">
-        <v>0.0576</v>
+        <v>0.0395</v>
       </c>
       <c r="D110">
-        <v>0.06270000000000001</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.1144</v>
+        <v>0.0493</v>
       </c>
       <c r="C111">
-        <v>0.0565</v>
+        <v>0.0385</v>
       </c>
       <c r="D111">
-        <v>0.0579</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.1081</v>
+        <v>0.0471</v>
       </c>
       <c r="C112">
-        <v>0.0549</v>
+        <v>0.0373</v>
       </c>
       <c r="D112">
-        <v>0.0532</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.1015</v>
+        <v>0.0448</v>
       </c>
       <c r="C113">
-        <v>0.0527</v>
+        <v>0.036</v>
       </c>
       <c r="D113">
-        <v>0.0488</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.0978</v>
+        <v>0.0456</v>
       </c>
       <c r="C114">
-        <v>0.0524</v>
+        <v>0.0366</v>
       </c>
       <c r="D114">
-        <v>0.0454</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.0919</v>
+        <v>0.0444</v>
       </c>
       <c r="C115">
-        <v>0.0502</v>
+        <v>0.0356</v>
       </c>
       <c r="D115">
-        <v>0.0417</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.0852</v>
+        <v>0.043</v>
       </c>
       <c r="C116">
-        <v>0.048</v>
+        <v>0.0347</v>
       </c>
       <c r="D116">
-        <v>0.0372</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.0781</v>
+        <v>0.0417</v>
       </c>
       <c r="C117">
-        <v>0.0461</v>
+        <v>0.0339</v>
       </c>
       <c r="D117">
-        <v>0.0321</v>
+        <v>0.0078</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.074</v>
+        <v>0.0434</v>
       </c>
       <c r="C118">
-        <v>0.0462</v>
+        <v>0.0351</v>
       </c>
       <c r="D118">
-        <v>0.0278</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.0701</v>
+        <v>0.0456</v>
       </c>
       <c r="C119">
-        <v>0.0462</v>
+        <v>0.0363</v>
       </c>
       <c r="D119">
-        <v>0.0239</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.0659</v>
+        <v>0.0474</v>
       </c>
       <c r="C120">
-        <v>0.0456</v>
+        <v>0.037</v>
       </c>
       <c r="D120">
-        <v>0.0203</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.0633</v>
+        <v>0.051</v>
       </c>
       <c r="C121">
-        <v>0.046</v>
+        <v>0.039</v>
       </c>
       <c r="D121">
-        <v>0.0173</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.0621</v>
+        <v>0.056</v>
       </c>
       <c r="C122">
-        <v>0.0472</v>
+        <v>0.042</v>
       </c>
       <c r="D122">
-        <v>0.0149</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.0593</v>
+        <v>0.0594</v>
       </c>
       <c r="C123">
-        <v>0.0473</v>
+        <v>0.0438</v>
       </c>
       <c r="D123">
-        <v>0.012</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.058</v>
+        <v>0.0639</v>
       </c>
       <c r="C124">
-        <v>0.048</v>
+        <v>0.0461</v>
       </c>
       <c r="D124">
-        <v>0.01</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.0561</v>
+        <v>0.0674</v>
       </c>
       <c r="C125">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
       <c r="D125">
-        <v>0.008500000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.0539</v>
+        <v>0.0703</v>
       </c>
       <c r="C126">
-        <v>0.0467</v>
+        <v>0.0482</v>
       </c>
       <c r="D126">
-        <v>0.0073</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.0523</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="C127">
-        <v>0.046</v>
+        <v>0.0492</v>
       </c>
       <c r="D127">
-        <v>0.0062</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.0488</v>
+        <v>0.0741</v>
       </c>
       <c r="C128">
-        <v>0.0433</v>
+        <v>0.048</v>
       </c>
       <c r="D128">
-        <v>0.0055</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.0496</v>
+        <v>0.0788</v>
       </c>
       <c r="C129">
-        <v>0.0441</v>
+        <v>0.0504</v>
       </c>
       <c r="D129">
-        <v>0.0055</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.0509</v>
+        <v>0.0837</v>
       </c>
       <c r="C130">
-        <v>0.0453</v>
+        <v>0.0528</v>
       </c>
       <c r="D130">
-        <v>0.0056</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.0536</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="C131">
-        <v>0.0471</v>
+        <v>0.0556</v>
       </c>
       <c r="D131">
-        <v>0.0065</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.0567</v>
+        <v>0.0948</v>
       </c>
       <c r="C132">
-        <v>0.0487</v>
+        <v>0.0578</v>
       </c>
       <c r="D132">
-        <v>0.008</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.0612</v>
+        <v>0.1013</v>
       </c>
       <c r="C133">
-        <v>0.0513</v>
+        <v>0.0607</v>
       </c>
       <c r="D133">
-        <v>0.009900000000000001</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.06370000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="C134">
-        <v>0.051</v>
+        <v>0.0605</v>
       </c>
       <c r="D134">
-        <v>0.0127</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.06660000000000001</v>
+        <v>0.1089</v>
       </c>
       <c r="C135">
-        <v>0.0515</v>
+        <v>0.0609</v>
       </c>
       <c r="D135">
-        <v>0.0151</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.0693</v>
+        <v>0.1124</v>
       </c>
       <c r="C136">
-        <v>0.0521</v>
+        <v>0.0613</v>
       </c>
       <c r="D136">
-        <v>0.0171</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.07190000000000001</v>
+        <v>0.1159</v>
       </c>
       <c r="C137">
-        <v>0.0529</v>
+        <v>0.0619</v>
       </c>
       <c r="D137">
-        <v>0.019</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.0711</v>
+        <v>0.1159</v>
       </c>
       <c r="C138">
-        <v>0.0512</v>
+        <v>0.0602</v>
       </c>
       <c r="D138">
-        <v>0.0199</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.0702</v>
+        <v>0.1152</v>
       </c>
       <c r="C139">
-        <v>0.0487</v>
+        <v>0.0575</v>
       </c>
       <c r="D139">
-        <v>0.0215</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.0704</v>
+        <v>0.1155</v>
       </c>
       <c r="C140">
-        <v>0.0471</v>
+        <v>0.0557</v>
       </c>
       <c r="D140">
-        <v>0.0233</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.0706</v>
+        <v>0.1157</v>
       </c>
       <c r="C141">
-        <v>0.0455</v>
+        <v>0.0538</v>
       </c>
       <c r="D141">
-        <v>0.0252</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.0708</v>
+        <v>0.1155</v>
       </c>
       <c r="C142">
-        <v>0.0436</v>
+        <v>0.0516</v>
       </c>
       <c r="D142">
-        <v>0.0273</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.07049999999999999</v>
+        <v>0.1145</v>
       </c>
       <c r="C143">
-        <v>0.0415</v>
+        <v>0.049</v>
       </c>
       <c r="D143">
-        <v>0.029</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.07049999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="C144">
-        <v>0.0397</v>
+        <v>0.0469</v>
       </c>
       <c r="D144">
-        <v>0.0308</v>
+        <v>0.06710000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.0717</v>
+        <v>0.1146</v>
       </c>
       <c r="C145">
-        <v>0.0391</v>
+        <v>0.0459</v>
       </c>
       <c r="D145">
-        <v>0.0326</v>
+        <v>0.0687</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.0727</v>
+        <v>0.115</v>
       </c>
       <c r="C146">
-        <v>0.0385</v>
+        <v>0.045</v>
       </c>
       <c r="D146">
-        <v>0.0342</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.07480000000000001</v>
+        <v>0.1164</v>
       </c>
       <c r="C147">
-        <v>0.039</v>
+        <v>0.0451</v>
       </c>
       <c r="D147">
-        <v>0.0358</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.0779</v>
+        <v>0.1188</v>
       </c>
       <c r="C148">
-        <v>0.0405</v>
+        <v>0.046</v>
       </c>
       <c r="D148">
-        <v>0.0374</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.0784</v>
+        <v>0.1183</v>
       </c>
       <c r="C149">
-        <v>0.0399</v>
+        <v>0.0451</v>
       </c>
       <c r="D149">
-        <v>0.0385</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.0786</v>
+        <v>0.1175</v>
       </c>
       <c r="C150">
-        <v>0.0393</v>
+        <v>0.0442</v>
       </c>
       <c r="D150">
-        <v>0.0393</v>
+        <v>0.0733</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.0786</v>
+        <v>0.1163</v>
       </c>
       <c r="C151">
-        <v>0.0388</v>
+        <v>0.0434</v>
       </c>
       <c r="D151">
-        <v>0.0399</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.0829</v>
+        <v>0.118</v>
       </c>
       <c r="C152">
-        <v>0.0385</v>
+        <v>0.0428</v>
       </c>
       <c r="D152">
-        <v>0.0444</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.0867</v>
+        <v>0.119</v>
       </c>
       <c r="C153">
-        <v>0.0379</v>
+        <v>0.0419</v>
       </c>
       <c r="D153">
-        <v>0.0488</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.09080000000000001</v>
+        <v>0.1205</v>
       </c>
       <c r="C154">
-        <v>0.0392</v>
+        <v>0.043</v>
       </c>
       <c r="D154">
-        <v>0.0516</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.0951</v>
+        <v>0.1219</v>
       </c>
       <c r="C155">
-        <v>0.0405</v>
+        <v>0.044</v>
       </c>
       <c r="D155">
-        <v>0.0546</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.0994</v>
+        <v>0.1227</v>
       </c>
       <c r="C156">
-        <v>0.0417</v>
+        <v>0.0449</v>
       </c>
       <c r="D156">
-        <v>0.0577</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1031</v>
+        <v>0.1223</v>
       </c>
       <c r="C157">
-        <v>0.0423</v>
+        <v>0.045</v>
       </c>
       <c r="D157">
-        <v>0.0609</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1072</v>
+        <v>0.1217</v>
       </c>
       <c r="C158">
-        <v>0.0429</v>
+        <v>0.0449</v>
       </c>
       <c r="D158">
-        <v>0.0644</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1113</v>
+        <v>0.1209</v>
       </c>
       <c r="C159">
-        <v>0.0441</v>
+        <v>0.0456</v>
       </c>
       <c r="D159">
-        <v>0.0672</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1148</v>
+        <v>0.1192</v>
       </c>
       <c r="C160">
-        <v>0.0449</v>
+        <v>0.0457</v>
       </c>
       <c r="D160">
-        <v>0.0698</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1193</v>
+        <v>0.1181</v>
       </c>
       <c r="C161">
-        <v>0.0461</v>
+        <v>0.0462</v>
       </c>
       <c r="D161">
-        <v>0.0732</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1253</v>
+        <v>0.1183</v>
       </c>
       <c r="C162">
-        <v>0.0487</v>
+        <v>0.0481</v>
       </c>
       <c r="D162">
-        <v>0.0766</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1327</v>
+        <v>0.1196</v>
       </c>
       <c r="C163">
-        <v>0.0524</v>
+        <v>0.051</v>
       </c>
       <c r="D163">
-        <v>0.0803</v>
+        <v>0.06859999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1378</v>
+        <v>0.1184</v>
       </c>
       <c r="C164">
-        <v>0.0543</v>
+        <v>0.052</v>
       </c>
       <c r="D164">
-        <v>0.0835</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1431</v>
+        <v>0.1171</v>
       </c>
       <c r="C165">
-        <v>0.0563</v>
+        <v>0.0531</v>
       </c>
       <c r="D165">
-        <v>0.0868</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1487</v>
+        <v>0.1158</v>
       </c>
       <c r="C166">
-        <v>0.0583</v>
+        <v>0.054</v>
       </c>
       <c r="D166">
-        <v>0.09039999999999999</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.1541</v>
+        <v>0.1142</v>
       </c>
       <c r="C167">
-        <v>0.0602</v>
+        <v>0.0548</v>
       </c>
       <c r="D167">
-        <v>0.0939</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.1601</v>
+        <v>0.113</v>
       </c>
       <c r="C168">
-        <v>0.0626</v>
+        <v>0.0559</v>
       </c>
       <c r="D168">
-        <v>0.0975</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.1672</v>
+        <v>0.1127</v>
       </c>
       <c r="C169">
-        <v>0.06560000000000001</v>
+        <v>0.0577</v>
       </c>
       <c r="D169">
-        <v>0.1016</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.1745</v>
+        <v>0.1125</v>
       </c>
       <c r="C170">
-        <v>0.06850000000000001</v>
+        <v>0.0594</v>
       </c>
       <c r="D170">
-        <v>0.1059</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.1821</v>
+        <v>0.1128</v>
       </c>
       <c r="C171">
-        <v>0.0721</v>
+        <v>0.0617</v>
       </c>
       <c r="D171">
-        <v>0.11</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1847</v>
+        <v>0.1097</v>
       </c>
       <c r="C172">
-        <v>0.07539999999999999</v>
+        <v>0.0639</v>
       </c>
       <c r="D172">
-        <v>0.1093</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.1863</v>
+        <v>0.1056</v>
       </c>
       <c r="C173">
-        <v>0.07779999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="D173">
-        <v>0.1085</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.1886</v>
+        <v>0.1025</v>
       </c>
       <c r="C174">
-        <v>0.0806</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="D174">
-        <v>0.108</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1942</v>
+        <v>0.1028</v>
       </c>
       <c r="C175">
-        <v>0.0853</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="D175">
-        <v>0.1088</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1999</v>
+        <v>0.1036</v>
       </c>
       <c r="C176">
-        <v>0.09</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D176">
-        <v>0.1099</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.2055</v>
+        <v>0.1043</v>
       </c>
       <c r="C177">
-        <v>0.09329999999999999</v>
+        <v>0.0771</v>
       </c>
       <c r="D177">
-        <v>0.1122</v>
+        <v>0.0272</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.2123</v>
+        <v>0.1063</v>
       </c>
       <c r="C178">
-        <v>0.09710000000000001</v>
+        <v>0.0803</v>
       </c>
       <c r="D178">
-        <v>0.1152</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.2187</v>
+        <v>0.1085</v>
       </c>
       <c r="C179">
-        <v>0.1007</v>
+        <v>0.0835</v>
       </c>
       <c r="D179">
-        <v>0.118</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.2255</v>
+        <v>0.1114</v>
       </c>
       <c r="C180">
-        <v>0.1043</v>
+        <v>0.0868</v>
       </c>
       <c r="D180">
-        <v>0.1212</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.2303</v>
+        <v>0.1129</v>
       </c>
       <c r="C181">
-        <v>0.1069</v>
+        <v>0.0891</v>
       </c>
       <c r="D181">
-        <v>0.1234</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.2347</v>
+        <v>0.1145</v>
       </c>
       <c r="C182">
-        <v>0.1096</v>
+        <v>0.0916</v>
       </c>
       <c r="D182">
-        <v>0.1251</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.239</v>
+        <v>0.1165</v>
       </c>
       <c r="C183">
-        <v>0.1122</v>
+        <v>0.0941</v>
       </c>
       <c r="D183">
-        <v>0.1268</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.244</v>
+        <v>0.1196</v>
       </c>
       <c r="C184">
-        <v>0.1154</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="D184">
-        <v>0.1286</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.2491</v>
+        <v>0.1236</v>
       </c>
       <c r="C185">
-        <v>0.1191</v>
+        <v>0.1011</v>
       </c>
       <c r="D185">
-        <v>0.1301</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.2551</v>
+        <v>0.1287</v>
       </c>
       <c r="C186">
-        <v>0.1229</v>
+        <v>0.1052</v>
       </c>
       <c r="D186">
-        <v>0.1322</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.26</v>
+        <v>0.1336</v>
       </c>
       <c r="C187">
-        <v>0.1258</v>
+        <v>0.1085</v>
       </c>
       <c r="D187">
-        <v>0.1343</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.2647</v>
+        <v>0.1387</v>
       </c>
       <c r="C188">
-        <v>0.1284</v>
+        <v>0.1118</v>
       </c>
       <c r="D188">
-        <v>0.1363</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.2685</v>
+        <v>0.1435</v>
       </c>
       <c r="C189">
-        <v>0.131</v>
+        <v>0.1149</v>
       </c>
       <c r="D189">
-        <v>0.1375</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.272</v>
+        <v>0.1486</v>
       </c>
       <c r="C190">
-        <v>0.1335</v>
+        <v>0.1181</v>
       </c>
       <c r="D190">
-        <v>0.1385</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.2744</v>
+        <v>0.1527</v>
       </c>
       <c r="C191">
-        <v>0.135</v>
+        <v>0.1202</v>
       </c>
       <c r="D191">
-        <v>0.1394</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.2767</v>
+        <v>0.157</v>
       </c>
       <c r="C192">
-        <v>0.1364</v>
+        <v>0.1225</v>
       </c>
       <c r="D192">
-        <v>0.1403</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.2795</v>
+        <v>0.162</v>
       </c>
       <c r="C193">
-        <v>0.1384</v>
+        <v>0.1254</v>
       </c>
       <c r="D193">
-        <v>0.1411</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.2809</v>
+        <v>0.1656</v>
       </c>
       <c r="C194">
-        <v>0.1391</v>
+        <v>0.1268</v>
       </c>
       <c r="D194">
-        <v>0.1418</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.2795</v>
+        <v>0.1665</v>
       </c>
       <c r="C195">
-        <v>0.1381</v>
+        <v>0.1263</v>
       </c>
       <c r="D195">
-        <v>0.1414</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.2761</v>
+        <v>0.1654</v>
       </c>
       <c r="C196">
-        <v>0.1354</v>
+        <v>0.1239</v>
       </c>
       <c r="D196">
-        <v>0.1408</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.2717</v>
+        <v>0.1635</v>
       </c>
       <c r="C197">
-        <v>0.133</v>
+        <v>0.1217</v>
       </c>
       <c r="D197">
-        <v>0.1387</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.2679</v>
+        <v>0.1625</v>
       </c>
       <c r="C198">
-        <v>0.1318</v>
+        <v>0.1206</v>
       </c>
       <c r="D198">
-        <v>0.1361</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.264</v>
+        <v>0.1612</v>
       </c>
       <c r="C199">
-        <v>0.1304</v>
+        <v>0.1194</v>
       </c>
       <c r="D199">
-        <v>0.1336</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.2598</v>
+        <v>0.1598</v>
       </c>
       <c r="C200">
-        <v>0.1293</v>
+        <v>0.1183</v>
       </c>
       <c r="D200">
-        <v>0.1305</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.2582</v>
+        <v>0.1604</v>
       </c>
       <c r="C201">
-        <v>0.1287</v>
+        <v>0.1181</v>
       </c>
       <c r="D201">
-        <v>0.1294</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.2557</v>
+        <v>0.16</v>
       </c>
       <c r="C202">
-        <v>0.1274</v>
+        <v>0.1169</v>
       </c>
       <c r="D202">
-        <v>0.1283</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.2534</v>
+        <v>0.1597</v>
       </c>
       <c r="C203">
-        <v>0.1262</v>
+        <v>0.116</v>
       </c>
       <c r="D203">
-        <v>0.1271</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.2511</v>
+        <v>0.1592</v>
       </c>
       <c r="C204">
-        <v>0.125</v>
+        <v>0.1149</v>
       </c>
       <c r="D204">
-        <v>0.1261</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.2486</v>
+        <v>0.1583</v>
       </c>
       <c r="C205">
-        <v>0.1235</v>
+        <v>0.1135</v>
       </c>
       <c r="D205">
-        <v>0.1251</v>
+        <v>0.0448</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.2452</v>
+        <v>0.1565</v>
       </c>
       <c r="C206">
-        <v>0.1219</v>
+        <v>0.112</v>
       </c>
       <c r="D206">
-        <v>0.1232</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.2418</v>
+        <v>0.1545</v>
       </c>
       <c r="C207">
-        <v>0.1205</v>
+        <v>0.1105</v>
       </c>
       <c r="D207">
-        <v>0.1212</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.2385</v>
+        <v>0.1525</v>
       </c>
       <c r="C208">
-        <v>0.1192</v>
+        <v>0.1092</v>
       </c>
       <c r="D208">
-        <v>0.1193</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.2339</v>
+        <v>0.1488</v>
       </c>
       <c r="C209">
-        <v>0.1163</v>
+        <v>0.1061</v>
       </c>
       <c r="D209">
-        <v>0.1175</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.229</v>
+        <v>0.1449</v>
       </c>
       <c r="C210">
-        <v>0.1132</v>
+        <v>0.1029</v>
       </c>
       <c r="D210">
-        <v>0.1157</v>
+        <v>0.0421</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.2242</v>
+        <v>0.1413</v>
       </c>
       <c r="C211">
-        <v>0.1104</v>
+        <v>0.0999</v>
       </c>
       <c r="D211">
-        <v>0.1139</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.2208</v>
+        <v>0.1389</v>
       </c>
       <c r="C212">
-        <v>0.108</v>
+        <v>0.0975</v>
       </c>
       <c r="D212">
-        <v>0.1128</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.2182</v>
+        <v>0.1377</v>
       </c>
       <c r="C213">
-        <v>0.1063</v>
+        <v>0.0959</v>
       </c>
       <c r="D213">
-        <v>0.1119</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.2149</v>
+        <v>0.1358</v>
       </c>
       <c r="C214">
-        <v>0.1039</v>
+        <v>0.0936</v>
       </c>
       <c r="D214">
-        <v>0.1109</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.2124</v>
+        <v>0.1352</v>
       </c>
       <c r="C215">
-        <v>0.1023</v>
+        <v>0.0922</v>
       </c>
       <c r="D215">
-        <v>0.1101</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.2127</v>
+        <v>0.1378</v>
       </c>
       <c r="C216">
-        <v>0.103</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D216">
-        <v>0.1097</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.2153</v>
+        <v>0.1432</v>
       </c>
       <c r="C217">
-        <v>0.1052</v>
+        <v>0.0961</v>
       </c>
       <c r="D217">
-        <v>0.1101</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.2169</v>
+        <v>0.1475</v>
       </c>
       <c r="C218">
-        <v>0.106</v>
+        <v>0.0975</v>
       </c>
       <c r="D218">
-        <v>0.1109</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.2184</v>
+        <v>0.1522</v>
       </c>
       <c r="C219">
-        <v>0.1069</v>
+        <v>0.099</v>
       </c>
       <c r="D219">
-        <v>0.1116</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.2196</v>
+        <v>0.1566</v>
       </c>
       <c r="C220">
-        <v>0.1071</v>
+        <v>0.0999</v>
       </c>
       <c r="D220">
-        <v>0.1125</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.2193</v>
+        <v>0.1603</v>
       </c>
       <c r="C221">
-        <v>0.1075</v>
+        <v>0.1009</v>
       </c>
       <c r="D221">
-        <v>0.1118</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.2205</v>
+        <v>0.1653</v>
       </c>
       <c r="C222">
-        <v>0.1081</v>
+        <v>0.102</v>
       </c>
       <c r="D222">
-        <v>0.1124</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.222</v>
+        <v>0.1708</v>
       </c>
       <c r="C223">
-        <v>0.1089</v>
+        <v>0.1034</v>
       </c>
       <c r="D223">
-        <v>0.1132</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.2233</v>
+        <v>0.1759</v>
       </c>
       <c r="C224">
-        <v>0.1086</v>
+        <v>0.1037</v>
       </c>
       <c r="D224">
-        <v>0.1147</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.2268</v>
+        <v>0.1833</v>
       </c>
       <c r="C225">
-        <v>0.1097</v>
+        <v>0.1055</v>
       </c>
       <c r="D225">
-        <v>0.1171</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.2305</v>
+        <v>0.191</v>
       </c>
       <c r="C226">
-        <v>0.1109</v>
+        <v>0.1074</v>
       </c>
       <c r="D226">
-        <v>0.1196</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2356</v>
+        <v>0.2001</v>
       </c>
       <c r="C227">
-        <v>0.1132</v>
+        <v>0.1105</v>
       </c>
       <c r="D227">
-        <v>0.1224</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2408</v>
+        <v>0.2094</v>
       </c>
       <c r="C228">
-        <v>0.1159</v>
+        <v>0.114</v>
       </c>
       <c r="D228">
-        <v>0.1248</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2467</v>
+        <v>0.2193</v>
       </c>
       <c r="C229">
-        <v>0.1193</v>
+        <v>0.1182</v>
       </c>
       <c r="D229">
-        <v>0.1274</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2531</v>
+        <v>0.2296</v>
       </c>
       <c r="C230">
-        <v>0.1232</v>
+        <v>0.1229</v>
       </c>
       <c r="D230">
-        <v>0.1299</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2608</v>
+        <v>0.241</v>
       </c>
       <c r="C231">
-        <v>0.1284</v>
+        <v>0.1289</v>
       </c>
       <c r="D231">
-        <v>0.1324</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2677</v>
+        <v>0.2514</v>
       </c>
       <c r="C232">
-        <v>0.1335</v>
+        <v>0.1348</v>
       </c>
       <c r="D232">
-        <v>0.1342</v>
+        <v>0.1166</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2746</v>
+        <v>0.2616</v>
       </c>
       <c r="C233">
-        <v>0.1387</v>
+        <v>0.1407</v>
       </c>
       <c r="D233">
-        <v>0.1358</v>
+        <v>0.1208</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2812</v>
+        <v>0.2711</v>
       </c>
       <c r="C234">
-        <v>0.1438</v>
+        <v>0.1465</v>
       </c>
       <c r="D234">
-        <v>0.1374</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2879</v>
+        <v>0.2802</v>
       </c>
       <c r="C235">
-        <v>0.149</v>
+        <v>0.1522</v>
       </c>
       <c r="D235">
-        <v>0.1389</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2949</v>
+        <v>0.2888</v>
       </c>
       <c r="C236">
-        <v>0.1535</v>
+        <v>0.1572</v>
       </c>
       <c r="D236">
-        <v>0.1414</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.3002</v>
+        <v>0.2954</v>
       </c>
       <c r="C237">
-        <v>0.1571</v>
+        <v>0.1612</v>
       </c>
       <c r="D237">
-        <v>0.1431</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3058</v>
+        <v>0.3021</v>
       </c>
       <c r="C238">
-        <v>0.1616</v>
+        <v>0.166</v>
       </c>
       <c r="D238">
-        <v>0.1442</v>
+        <v>0.1361</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3111</v>
+        <v>0.3079</v>
       </c>
       <c r="C239">
-        <v>0.1653</v>
+        <v>0.17</v>
       </c>
       <c r="D239">
-        <v>0.1458</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3213</v>
+        <v>0.3174</v>
       </c>
       <c r="C240">
-        <v>0.1703</v>
+        <v>0.1752</v>
       </c>
       <c r="D240">
-        <v>0.151</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3308</v>
+        <v>0.3261</v>
       </c>
       <c r="C241">
-        <v>0.1749</v>
+        <v>0.1801</v>
       </c>
       <c r="D241">
-        <v>0.1559</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3381</v>
+        <v>0.3324</v>
       </c>
       <c r="C242">
-        <v>0.1787</v>
+        <v>0.1841</v>
       </c>
       <c r="D242">
-        <v>0.1595</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3455</v>
+        <v>0.3386</v>
       </c>
       <c r="C243">
-        <v>0.1826</v>
+        <v>0.1881</v>
       </c>
       <c r="D243">
-        <v>0.1629</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3526</v>
+        <v>0.3446</v>
       </c>
       <c r="C244">
-        <v>0.1869</v>
+        <v>0.1926</v>
       </c>
       <c r="D244">
-        <v>0.1658</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.357</v>
+        <v>0.3477</v>
       </c>
       <c r="C245">
-        <v>0.1893</v>
+        <v>0.1951</v>
       </c>
       <c r="D245">
-        <v>0.1677</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3608</v>
+        <v>0.3498</v>
       </c>
       <c r="C246">
-        <v>0.191</v>
+        <v>0.1968</v>
       </c>
       <c r="D246">
-        <v>0.1698</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3636</v>
+        <v>0.3507</v>
       </c>
       <c r="C247">
-        <v>0.1916</v>
+        <v>0.1973</v>
       </c>
       <c r="D247">
-        <v>0.172</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3654</v>
+        <v>0.3503</v>
       </c>
       <c r="C248">
-        <v>0.191</v>
+        <v>0.1965</v>
       </c>
       <c r="D248">
-        <v>0.1744</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3677</v>
+        <v>0.3505</v>
       </c>
       <c r="C249">
-        <v>0.1909</v>
+        <v>0.1963</v>
       </c>
       <c r="D249">
-        <v>0.1768</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3699</v>
+        <v>0.3506</v>
       </c>
       <c r="C250">
-        <v>0.1907</v>
+        <v>0.1959</v>
       </c>
       <c r="D250">
-        <v>0.1792</v>
+        <v>0.1547</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3731</v>
+        <v>0.3514</v>
       </c>
       <c r="C251">
-        <v>0.1894</v>
+        <v>0.1945</v>
       </c>
       <c r="D251">
-        <v>0.1837</v>
+        <v>0.1568</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3761</v>
+        <v>0.3521</v>
       </c>
       <c r="C252">
-        <v>0.188</v>
+        <v>0.1929</v>
       </c>
       <c r="D252">
-        <v>0.1881</v>
+        <v>0.1591</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2009 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2009 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6382</v>
+        <v>0.6377</v>
       </c>
       <c r="C2">
-        <v>0.2565</v>
+        <v>0.2563</v>
       </c>
       <c r="D2">
-        <v>0.3817</v>
+        <v>0.3814</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6296</v>
+        <v>0.629</v>
       </c>
       <c r="C3">
-        <v>0.2473</v>
+        <v>0.2471</v>
       </c>
       <c r="D3">
-        <v>0.3823</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6267</v>
+        <v>0.6261</v>
       </c>
       <c r="C4">
-        <v>0.2436</v>
+        <v>0.2434</v>
       </c>
       <c r="D4">
-        <v>0.3831</v>
+        <v>0.3827</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6173999999999999</v>
+        <v>0.6168</v>
       </c>
       <c r="C5">
-        <v>0.2337</v>
+        <v>0.2335</v>
       </c>
       <c r="D5">
-        <v>0.3837</v>
+        <v>0.3832</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6173</v>
+        <v>0.6166</v>
       </c>
       <c r="C6">
-        <v>0.2319</v>
+        <v>0.2317</v>
       </c>
       <c r="D6">
-        <v>0.3854</v>
+        <v>0.3849</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6152</v>
+        <v>0.6145</v>
       </c>
       <c r="C7">
-        <v>0.2285</v>
+        <v>0.2283</v>
       </c>
       <c r="D7">
-        <v>0.3867</v>
+        <v>0.3862</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6139</v>
+        <v>0.6132</v>
       </c>
       <c r="C8">
-        <v>0.2253</v>
+        <v>0.2251</v>
       </c>
       <c r="D8">
-        <v>0.3887</v>
+        <v>0.3881</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.6158</v>
+        <v>0.615</v>
       </c>
       <c r="C9">
-        <v>0.2246</v>
+        <v>0.2244</v>
       </c>
       <c r="D9">
-        <v>0.3912</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6181</v>
+        <v>0.6172</v>
       </c>
       <c r="C10">
-        <v>0.2248</v>
+        <v>0.2246</v>
       </c>
       <c r="D10">
-        <v>0.3933</v>
+        <v>0.3926</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.6199</v>
+        <v>0.619</v>
       </c>
       <c r="C11">
-        <v>0.2246</v>
+        <v>0.2244</v>
       </c>
       <c r="D11">
-        <v>0.3953</v>
+        <v>0.3946</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.6222</v>
+        <v>0.6213</v>
       </c>
       <c r="C12">
-        <v>0.2253</v>
+        <v>0.2251</v>
       </c>
       <c r="D12">
-        <v>0.3969</v>
+        <v>0.3962</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.626</v>
+        <v>0.6251</v>
       </c>
       <c r="C13">
-        <v>0.2286</v>
+        <v>0.2284</v>
       </c>
       <c r="D13">
-        <v>0.3973</v>
+        <v>0.3966</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6298</v>
+        <v>0.6289</v>
       </c>
       <c r="C14">
-        <v>0.2314</v>
+        <v>0.2312</v>
       </c>
       <c r="D14">
-        <v>0.3984</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.6315</v>
+        <v>0.6307</v>
       </c>
       <c r="C15">
-        <v>0.2323</v>
+        <v>0.2322</v>
       </c>
       <c r="D15">
-        <v>0.3992</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.6312</v>
+        <v>0.6304</v>
       </c>
       <c r="C16">
-        <v>0.2319</v>
+        <v>0.2317</v>
       </c>
       <c r="D16">
-        <v>0.3993</v>
+        <v>0.3986</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.6319</v>
+        <v>0.6312</v>
       </c>
       <c r="C17">
-        <v>0.2327</v>
+        <v>0.2326</v>
       </c>
       <c r="D17">
-        <v>0.3992</v>
+        <v>0.3986</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.6334</v>
+        <v>0.6327</v>
       </c>
       <c r="C18">
-        <v>0.2343</v>
+        <v>0.2341</v>
       </c>
       <c r="D18">
-        <v>0.3991</v>
+        <v>0.3986</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.6327</v>
+        <v>0.632</v>
       </c>
       <c r="C19">
-        <v>0.2335</v>
+        <v>0.2334</v>
       </c>
       <c r="D19">
-        <v>0.3992</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.6334</v>
+        <v>0.6328</v>
       </c>
       <c r="C20">
-        <v>0.2341</v>
+        <v>0.234</v>
       </c>
       <c r="D20">
-        <v>0.3993</v>
+        <v>0.3988</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.6356000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="C21">
-        <v>0.2363</v>
+        <v>0.2361</v>
       </c>
       <c r="D21">
-        <v>0.3994</v>
+        <v>0.3989</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.6379</v>
+        <v>0.6373</v>
       </c>
       <c r="C22">
-        <v>0.2387</v>
+        <v>0.2386</v>
       </c>
       <c r="D22">
-        <v>0.3992</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.6394</v>
+        <v>0.6389</v>
       </c>
       <c r="C23">
-        <v>0.241</v>
+        <v>0.2409</v>
       </c>
       <c r="D23">
-        <v>0.3984</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.6377</v>
+        <v>0.6372</v>
       </c>
       <c r="C24">
-        <v>0.239</v>
+        <v>0.2389</v>
       </c>
       <c r="D24">
-        <v>0.3987</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.6427</v>
+        <v>0.6421</v>
       </c>
       <c r="C25">
-        <v>0.2422</v>
+        <v>0.2421</v>
       </c>
       <c r="D25">
-        <v>0.4005</v>
+        <v>0.4001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.6402</v>
+        <v>0.6395999999999999</v>
       </c>
       <c r="C26">
-        <v>0.2392</v>
+        <v>0.2391</v>
       </c>
       <c r="D26">
-        <v>0.401</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6389</v>
+        <v>0.6383</v>
       </c>
       <c r="C27">
-        <v>0.2375</v>
+        <v>0.2374</v>
       </c>
       <c r="D27">
-        <v>0.4014</v>
+        <v>0.4009</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.6352</v>
+        <v>0.6347</v>
       </c>
       <c r="C28">
-        <v>0.2343</v>
+        <v>0.2342</v>
       </c>
       <c r="D28">
-        <v>0.4009</v>
+        <v>0.4004</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.6294999999999999</v>
+        <v>0.629</v>
       </c>
       <c r="C29">
-        <v>0.23</v>
+        <v>0.2299</v>
       </c>
       <c r="D29">
-        <v>0.3995</v>
+        <v>0.3991</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.6213</v>
+        <v>0.6209</v>
       </c>
       <c r="C30">
-        <v>0.2234</v>
+        <v>0.2233</v>
       </c>
       <c r="D30">
-        <v>0.3979</v>
+        <v>0.3976</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.6138</v>
+        <v>0.6133999999999999</v>
       </c>
       <c r="C31">
-        <v>0.2175</v>
+        <v>0.2174</v>
       </c>
       <c r="D31">
-        <v>0.3963</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.6027</v>
+        <v>0.6025</v>
       </c>
       <c r="C32">
-        <v>0.2111</v>
+        <v>0.211</v>
       </c>
       <c r="D32">
-        <v>0.3916</v>
+        <v>0.3915</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.5966</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="C33">
-        <v>0.2078</v>
+        <v>0.2077</v>
       </c>
       <c r="D33">
-        <v>0.3888</v>
+        <v>0.3886</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.5884</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="C34">
-        <v>0.2031</v>
+        <v>0.203</v>
       </c>
       <c r="D34">
-        <v>0.3853</v>
+        <v>0.3851</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.582</v>
+        <v>0.5818</v>
       </c>
       <c r="C35">
-        <v>0.2004</v>
+        <v>0.2003</v>
       </c>
       <c r="D35">
-        <v>0.3816</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.5770999999999999</v>
+        <v>0.5769</v>
       </c>
       <c r="C36">
-        <v>0.199</v>
+        <v>0.1989</v>
       </c>
       <c r="D36">
-        <v>0.3781</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.5725</v>
+        <v>0.5724</v>
       </c>
       <c r="C37">
         <v>0.198</v>
       </c>
       <c r="D37">
-        <v>0.3745</v>
+        <v>0.3744</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,10 +1665,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.572</v>
+        <v>0.5719</v>
       </c>
       <c r="C38">
-        <v>0.2006</v>
+        <v>0.2005</v>
       </c>
       <c r="D38">
         <v>0.3714</v>
@@ -1679,10 +1679,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.5669999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="C39">
-        <v>0.1992</v>
+        <v>0.1991</v>
       </c>
       <c r="D39">
         <v>0.3678</v>
@@ -1693,10 +1693,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.5668</v>
+        <v>0.5666</v>
       </c>
       <c r="C40">
-        <v>0.201</v>
+        <v>0.2009</v>
       </c>
       <c r="D40">
         <v>0.3657</v>
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.5625</v>
+        <v>0.5623</v>
       </c>
       <c r="C41">
-        <v>0.1998</v>
+        <v>0.1997</v>
       </c>
       <c r="D41">
-        <v>0.3627</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.5564</v>
+        <v>0.5562</v>
       </c>
       <c r="C42">
-        <v>0.197</v>
+        <v>0.1969</v>
       </c>
       <c r="D42">
-        <v>0.3594</v>
+        <v>0.3593</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,10 +1735,10 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.5537</v>
+        <v>0.5535</v>
       </c>
       <c r="C43">
-        <v>0.1977</v>
+        <v>0.1976</v>
       </c>
       <c r="D43">
         <v>0.3559</v>
@@ -1749,10 +1749,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.5417999999999999</v>
+        <v>0.5417</v>
       </c>
       <c r="C44">
-        <v>0.1916</v>
+        <v>0.1915</v>
       </c>
       <c r="D44">
         <v>0.3502</v>
@@ -1766,10 +1766,10 @@
         <v>0.5285</v>
       </c>
       <c r="C45">
-        <v>0.1858</v>
+        <v>0.1857</v>
       </c>
       <c r="D45">
-        <v>0.3427</v>
+        <v>0.3429</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.517</v>
+        <v>0.5171</v>
       </c>
       <c r="C46">
-        <v>0.1821</v>
+        <v>0.182</v>
       </c>
       <c r="D46">
-        <v>0.3348</v>
+        <v>0.3351</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.5057</v>
+        <v>0.5059</v>
       </c>
       <c r="C47">
-        <v>0.1785</v>
+        <v>0.1784</v>
       </c>
       <c r="D47">
-        <v>0.3272</v>
+        <v>0.3275</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4937</v>
+        <v>0.494</v>
       </c>
       <c r="C48">
-        <v>0.1745</v>
+        <v>0.1744</v>
       </c>
       <c r="D48">
-        <v>0.3193</v>
+        <v>0.3197</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4818</v>
+        <v>0.4821</v>
       </c>
       <c r="C49">
-        <v>0.1702</v>
+        <v>0.1701</v>
       </c>
       <c r="D49">
-        <v>0.3116</v>
+        <v>0.3121</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4714</v>
+        <v>0.4717</v>
       </c>
       <c r="C50">
-        <v>0.1672</v>
+        <v>0.1671</v>
       </c>
       <c r="D50">
-        <v>0.3042</v>
+        <v>0.3047</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.458</v>
+        <v>0.4583</v>
       </c>
       <c r="C51">
-        <v>0.1619</v>
+        <v>0.1618</v>
       </c>
       <c r="D51">
-        <v>0.296</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4466</v>
+        <v>0.447</v>
       </c>
       <c r="C52">
-        <v>0.157</v>
+        <v>0.1569</v>
       </c>
       <c r="D52">
-        <v>0.2897</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4294</v>
+        <v>0.4297</v>
       </c>
       <c r="C53">
-        <v>0.1479</v>
+        <v>0.1478</v>
       </c>
       <c r="D53">
-        <v>0.2815</v>
+        <v>0.2819</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4174</v>
+        <v>0.4176</v>
       </c>
       <c r="C54">
-        <v>0.141</v>
+        <v>0.1409</v>
       </c>
       <c r="D54">
-        <v>0.2763</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4086</v>
+        <v>0.4088</v>
       </c>
       <c r="C55">
-        <v>0.1325</v>
+        <v>0.1324</v>
       </c>
       <c r="D55">
-        <v>0.2762</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>0.4043</v>
       </c>
       <c r="C56">
-        <v>0.1271</v>
+        <v>0.127</v>
       </c>
       <c r="D56">
-        <v>0.2772</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1931,10 +1931,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.3991</v>
+        <v>0.399</v>
       </c>
       <c r="C57">
-        <v>0.1218</v>
+        <v>0.1217</v>
       </c>
       <c r="D57">
         <v>0.2773</v>
@@ -1945,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3913</v>
+        <v>0.3912</v>
       </c>
       <c r="C58">
-        <v>0.114</v>
+        <v>0.1139</v>
       </c>
       <c r="D58">
-        <v>0.2774</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3859</v>
+        <v>0.3857</v>
       </c>
       <c r="C59">
-        <v>0.1092</v>
+        <v>0.1091</v>
       </c>
       <c r="D59">
-        <v>0.2767</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3765</v>
+        <v>0.3764</v>
       </c>
       <c r="C60">
-        <v>0.1026</v>
+        <v>0.1025</v>
       </c>
       <c r="D60">
-        <v>0.2739</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3696</v>
+        <v>0.3695</v>
       </c>
       <c r="C61">
-        <v>0.09859999999999999</v>
+        <v>0.0985</v>
       </c>
       <c r="D61">
         <v>0.271</v>
@@ -2007,7 +2007,7 @@
         <v>0.095</v>
       </c>
       <c r="D62">
-        <v>0.2676</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3531</v>
+        <v>0.3533</v>
       </c>
       <c r="C63">
         <v>0.0893</v>
       </c>
       <c r="D63">
-        <v>0.2638</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3458</v>
+        <v>0.346</v>
       </c>
       <c r="C64">
-        <v>0.0861</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D64">
-        <v>0.2597</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.336</v>
+        <v>0.3364</v>
       </c>
       <c r="C65">
         <v>0.081</v>
       </c>
       <c r="D65">
-        <v>0.255</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3246</v>
+        <v>0.3251</v>
       </c>
       <c r="C66">
         <v>0.0751</v>
       </c>
       <c r="D66">
-        <v>0.2495</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.313</v>
+        <v>0.3136</v>
       </c>
       <c r="C67">
         <v>0.0692</v>
       </c>
       <c r="D67">
-        <v>0.2438</v>
+        <v>0.2444</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3027</v>
+        <v>0.3034</v>
       </c>
       <c r="C68">
         <v>0.0639</v>
       </c>
       <c r="D68">
-        <v>0.2388</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2908</v>
+        <v>0.2917</v>
       </c>
       <c r="C69">
         <v>0.0578</v>
       </c>
       <c r="D69">
-        <v>0.233</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2821</v>
+        <v>0.2831</v>
       </c>
       <c r="C70">
         <v>0.0539</v>
       </c>
       <c r="D70">
-        <v>0.2282</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2733</v>
+        <v>0.2744</v>
       </c>
       <c r="C71">
         <v>0.0498</v>
       </c>
       <c r="D71">
-        <v>0.2236</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.267</v>
+        <v>0.2683</v>
       </c>
       <c r="C72">
         <v>0.0474</v>
       </c>
       <c r="D72">
-        <v>0.2196</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2598</v>
+        <v>0.2612</v>
       </c>
       <c r="C73">
         <v>0.045</v>
       </c>
       <c r="D73">
-        <v>0.2148</v>
+        <v>0.2162</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.2499</v>
+        <v>0.2515</v>
       </c>
       <c r="C74">
-        <v>0.0425</v>
+        <v>0.0426</v>
       </c>
       <c r="D74">
-        <v>0.2073</v>
+        <v>0.2089</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2368</v>
+        <v>0.2387</v>
       </c>
       <c r="C75">
-        <v>0.042</v>
+        <v>0.0421</v>
       </c>
       <c r="D75">
-        <v>0.1948</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2184</v>
+        <v>0.2206</v>
       </c>
       <c r="C76">
         <v>0.0378</v>
       </c>
       <c r="D76">
-        <v>0.1806</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2012</v>
+        <v>0.2036</v>
       </c>
       <c r="C77">
         <v>0.0335</v>
       </c>
       <c r="D77">
-        <v>0.1677</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1816</v>
+        <v>0.1842</v>
       </c>
       <c r="C78">
-        <v>0.0276</v>
+        <v>0.0277</v>
       </c>
       <c r="D78">
-        <v>0.154</v>
+        <v>0.1565</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1655</v>
+        <v>0.1682</v>
       </c>
       <c r="C79">
-        <v>0.0242</v>
+        <v>0.0243</v>
       </c>
       <c r="D79">
-        <v>0.1413</v>
+        <v>0.1439</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1488</v>
+        <v>0.1517</v>
       </c>
       <c r="C80">
-        <v>0.0198</v>
+        <v>0.0199</v>
       </c>
       <c r="D80">
-        <v>0.129</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1327</v>
+        <v>0.1357</v>
       </c>
       <c r="C81">
-        <v>0.0153</v>
+        <v>0.0154</v>
       </c>
       <c r="D81">
-        <v>0.1174</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1188</v>
+        <v>0.1218</v>
       </c>
       <c r="C82">
-        <v>0.0123</v>
+        <v>0.0124</v>
       </c>
       <c r="D82">
-        <v>0.1065</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1057</v>
+        <v>0.1087</v>
       </c>
       <c r="C83">
-        <v>0.0089</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D83">
-        <v>0.09669999999999999</v>
+        <v>0.09959999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.0975</v>
+        <v>0.1005</v>
       </c>
       <c r="C84">
-        <v>0.0091</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D84">
-        <v>0.08840000000000001</v>
+        <v>0.09130000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.0917</v>
+        <v>0.0946</v>
       </c>
       <c r="C85">
-        <v>0.0106</v>
+        <v>0.0107</v>
       </c>
       <c r="D85">
-        <v>0.08110000000000001</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0867</v>
+        <v>0.0896</v>
       </c>
       <c r="C86">
-        <v>0.0118</v>
+        <v>0.012</v>
       </c>
       <c r="D86">
-        <v>0.07489999999999999</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0828</v>
+        <v>0.0856</v>
       </c>
       <c r="C87">
-        <v>0.0132</v>
+        <v>0.0135</v>
       </c>
       <c r="D87">
-        <v>0.0696</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0801</v>
+        <v>0.0828</v>
       </c>
       <c r="C88">
-        <v>0.0151</v>
+        <v>0.0153</v>
       </c>
       <c r="D88">
-        <v>0.06510000000000001</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.07820000000000001</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="C89">
-        <v>0.0168</v>
+        <v>0.0171</v>
       </c>
       <c r="D89">
-        <v>0.0613</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.073</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="C90">
-        <v>0.0165</v>
+        <v>0.0167</v>
       </c>
       <c r="D90">
-        <v>0.0565</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.06900000000000001</v>
+        <v>0.0713</v>
       </c>
       <c r="C91">
-        <v>0.0171</v>
+        <v>0.0174</v>
       </c>
       <c r="D91">
-        <v>0.0519</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0653</v>
+        <v>0.0675</v>
       </c>
       <c r="C92">
-        <v>0.0183</v>
+        <v>0.0186</v>
       </c>
       <c r="D92">
-        <v>0.047</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.0621</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="C93">
-        <v>0.0195</v>
+        <v>0.0198</v>
       </c>
       <c r="D93">
-        <v>0.0425</v>
+        <v>0.0443</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.0586</v>
+        <v>0.0606</v>
       </c>
       <c r="C94">
-        <v>0.0204</v>
+        <v>0.0207</v>
       </c>
       <c r="D94">
-        <v>0.0382</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0568</v>
+        <v>0.0586</v>
       </c>
       <c r="C95">
-        <v>0.022</v>
+        <v>0.0223</v>
       </c>
       <c r="D95">
-        <v>0.0347</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0561</v>
+        <v>0.0578</v>
       </c>
       <c r="C96">
-        <v>0.0238</v>
+        <v>0.024</v>
       </c>
       <c r="D96">
-        <v>0.0324</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0565</v>
+        <v>0.058</v>
       </c>
       <c r="C97">
-        <v>0.0259</v>
+        <v>0.0261</v>
       </c>
       <c r="D97">
-        <v>0.0307</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.0578</v>
+        <v>0.0591</v>
       </c>
       <c r="C98">
-        <v>0.0285</v>
+        <v>0.0288</v>
       </c>
       <c r="D98">
-        <v>0.0293</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0598</v>
+        <v>0.0609</v>
       </c>
       <c r="C99">
-        <v>0.0316</v>
+        <v>0.0318</v>
       </c>
       <c r="D99">
-        <v>0.0282</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="C100">
-        <v>0.0349</v>
+        <v>0.0351</v>
       </c>
       <c r="D100">
-        <v>0.0271</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.0625</v>
+        <v>0.0633</v>
       </c>
       <c r="C101">
-        <v>0.0367</v>
+        <v>0.0369</v>
       </c>
       <c r="D101">
-        <v>0.0258</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0623</v>
+        <v>0.063</v>
       </c>
       <c r="C102">
-        <v>0.0378</v>
+        <v>0.038</v>
       </c>
       <c r="D102">
-        <v>0.0245</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.062</v>
+        <v>0.0626</v>
       </c>
       <c r="C103">
-        <v>0.0387</v>
+        <v>0.0389</v>
       </c>
       <c r="D103">
-        <v>0.0233</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.0623</v>
+        <v>0.0626</v>
       </c>
       <c r="C104">
-        <v>0.0401</v>
+        <v>0.0403</v>
       </c>
       <c r="D104">
-        <v>0.0222</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.0606</v>
+        <v>0.0609</v>
       </c>
       <c r="C105">
-        <v>0.0399</v>
+        <v>0.04</v>
       </c>
       <c r="D105">
-        <v>0.0207</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.0602</v>
+        <v>0.0603</v>
       </c>
       <c r="C106">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
       <c r="D106">
         <v>0.0195</v>
@@ -2634,7 +2634,7 @@
         <v>0.0588</v>
       </c>
       <c r="C107">
-        <v>0.0406</v>
+        <v>0.0407</v>
       </c>
       <c r="D107">
         <v>0.0182</v>
@@ -2648,7 +2648,7 @@
         <v>0.0571</v>
       </c>
       <c r="C108">
-        <v>0.0414</v>
+        <v>0.0415</v>
       </c>
       <c r="D108">
         <v>0.0157</v>
@@ -2662,7 +2662,7 @@
         <v>0.0539</v>
       </c>
       <c r="C109">
-        <v>0.0404</v>
+        <v>0.0405</v>
       </c>
       <c r="D109">
         <v>0.0135</v>
@@ -2676,7 +2676,7 @@
         <v>0.0515</v>
       </c>
       <c r="C110">
-        <v>0.0395</v>
+        <v>0.0396</v>
       </c>
       <c r="D110">
         <v>0.012</v>
@@ -2690,10 +2690,10 @@
         <v>0.0493</v>
       </c>
       <c r="C111">
-        <v>0.0385</v>
+        <v>0.0386</v>
       </c>
       <c r="D111">
-        <v>0.0109</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2704,10 +2704,10 @@
         <v>0.0471</v>
       </c>
       <c r="C112">
-        <v>0.0373</v>
+        <v>0.0374</v>
       </c>
       <c r="D112">
-        <v>0.0098</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2721,7 +2721,7 @@
         <v>0.036</v>
       </c>
       <c r="D113">
-        <v>0.0089</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.0456</v>
+        <v>0.0455</v>
       </c>
       <c r="C114">
-        <v>0.0366</v>
+        <v>0.0367</v>
       </c>
       <c r="D114">
-        <v>0.008999999999999999</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.0444</v>
+        <v>0.0443</v>
       </c>
       <c r="C115">
         <v>0.0356</v>
       </c>
       <c r="D115">
-        <v>0.008800000000000001</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
       <c r="C116">
         <v>0.0347</v>
       </c>
       <c r="D116">
-        <v>0.0083</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.0417</v>
+        <v>0.0416</v>
       </c>
       <c r="C117">
         <v>0.0339</v>
       </c>
       <c r="D117">
-        <v>0.0078</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.0434</v>
+        <v>0.0433</v>
       </c>
       <c r="C118">
         <v>0.0351</v>
       </c>
       <c r="D118">
-        <v>0.0083</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.0456</v>
+        <v>0.0454</v>
       </c>
       <c r="C119">
-        <v>0.0363</v>
+        <v>0.0364</v>
       </c>
       <c r="D119">
-        <v>0.0092</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.0474</v>
+        <v>0.0473</v>
       </c>
       <c r="C120">
         <v>0.037</v>
       </c>
       <c r="D120">
-        <v>0.0104</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.051</v>
+        <v>0.0508</v>
       </c>
       <c r="C121">
-        <v>0.039</v>
+        <v>0.0391</v>
       </c>
       <c r="D121">
-        <v>0.012</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.056</v>
+        <v>0.0557</v>
       </c>
       <c r="C122">
         <v>0.042</v>
       </c>
       <c r="D122">
-        <v>0.014</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.0594</v>
+        <v>0.0591</v>
       </c>
       <c r="C123">
         <v>0.0438</v>
       </c>
       <c r="D123">
-        <v>0.0156</v>
+        <v>0.0153</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.0639</v>
+        <v>0.0636</v>
       </c>
       <c r="C124">
         <v>0.0461</v>
       </c>
       <c r="D124">
-        <v>0.0178</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.0674</v>
+        <v>0.067</v>
       </c>
       <c r="C125">
         <v>0.0474</v>
       </c>
       <c r="D125">
-        <v>0.02</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.0703</v>
+        <v>0.0698</v>
       </c>
       <c r="C126">
-        <v>0.0482</v>
+        <v>0.0481</v>
       </c>
       <c r="D126">
-        <v>0.0221</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.07340000000000001</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="C127">
         <v>0.0492</v>
       </c>
       <c r="D127">
-        <v>0.0242</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.0741</v>
+        <v>0.0735</v>
       </c>
       <c r="C128">
-        <v>0.048</v>
+        <v>0.0479</v>
       </c>
       <c r="D128">
-        <v>0.026</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.0788</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="C129">
-        <v>0.0504</v>
+        <v>0.0503</v>
       </c>
       <c r="D129">
-        <v>0.0285</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.0837</v>
+        <v>0.083</v>
       </c>
       <c r="C130">
-        <v>0.0528</v>
+        <v>0.0527</v>
       </c>
       <c r="D130">
-        <v>0.0308</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.08939999999999999</v>
+        <v>0.0886</v>
       </c>
       <c r="C131">
-        <v>0.0556</v>
+        <v>0.0555</v>
       </c>
       <c r="D131">
-        <v>0.0338</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.0948</v>
+        <v>0.094</v>
       </c>
       <c r="C132">
-        <v>0.0578</v>
+        <v>0.0576</v>
       </c>
       <c r="D132">
-        <v>0.037</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1013</v>
+        <v>0.1004</v>
       </c>
       <c r="C133">
-        <v>0.0607</v>
+        <v>0.0605</v>
       </c>
       <c r="D133">
-        <v>0.0406</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="C134">
-        <v>0.0605</v>
+        <v>0.0603</v>
       </c>
       <c r="D134">
-        <v>0.0445</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1089</v>
+        <v>0.1079</v>
       </c>
       <c r="C135">
-        <v>0.0609</v>
+        <v>0.0608</v>
       </c>
       <c r="D135">
-        <v>0.048</v>
+        <v>0.0471</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1124</v>
+        <v>0.1113</v>
       </c>
       <c r="C136">
-        <v>0.0613</v>
+        <v>0.0611</v>
       </c>
       <c r="D136">
-        <v>0.0512</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1159</v>
+        <v>0.1148</v>
       </c>
       <c r="C137">
-        <v>0.0619</v>
+        <v>0.0617</v>
       </c>
       <c r="D137">
-        <v>0.054</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1159</v>
+        <v>0.1147</v>
       </c>
       <c r="C138">
-        <v>0.0602</v>
+        <v>0.06</v>
       </c>
       <c r="D138">
-        <v>0.0557</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1152</v>
+        <v>0.1141</v>
       </c>
       <c r="C139">
-        <v>0.0575</v>
+        <v>0.0574</v>
       </c>
       <c r="D139">
-        <v>0.0577</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1155</v>
+        <v>0.1144</v>
       </c>
       <c r="C140">
-        <v>0.0557</v>
+        <v>0.0555</v>
       </c>
       <c r="D140">
-        <v>0.0598</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1157</v>
+        <v>0.1145</v>
       </c>
       <c r="C141">
-        <v>0.0538</v>
+        <v>0.0537</v>
       </c>
       <c r="D141">
-        <v>0.0618</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1155</v>
+        <v>0.1144</v>
       </c>
       <c r="C142">
-        <v>0.0516</v>
+        <v>0.0515</v>
       </c>
       <c r="D142">
-        <v>0.0639</v>
+        <v>0.0629</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1145</v>
+        <v>0.1134</v>
       </c>
       <c r="C143">
-        <v>0.049</v>
+        <v>0.0489</v>
       </c>
       <c r="D143">
-        <v>0.0655</v>
+        <v>0.0645</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.114</v>
+        <v>0.1129</v>
       </c>
       <c r="C144">
-        <v>0.0469</v>
+        <v>0.0468</v>
       </c>
       <c r="D144">
-        <v>0.06710000000000001</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1146</v>
+        <v>0.1135</v>
       </c>
       <c r="C145">
-        <v>0.0459</v>
+        <v>0.0458</v>
       </c>
       <c r="D145">
-        <v>0.0687</v>
+        <v>0.0677</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.115</v>
+        <v>0.1139</v>
       </c>
       <c r="C146">
-        <v>0.045</v>
+        <v>0.0448</v>
       </c>
       <c r="D146">
-        <v>0.07000000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1164</v>
+        <v>0.1154</v>
       </c>
       <c r="C147">
-        <v>0.0451</v>
+        <v>0.045</v>
       </c>
       <c r="D147">
-        <v>0.07140000000000001</v>
+        <v>0.07049999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1188</v>
+        <v>0.1178</v>
       </c>
       <c r="C148">
-        <v>0.046</v>
+        <v>0.0459</v>
       </c>
       <c r="D148">
-        <v>0.0727</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1183</v>
+        <v>0.1174</v>
       </c>
       <c r="C149">
-        <v>0.0451</v>
+        <v>0.045</v>
       </c>
       <c r="D149">
-        <v>0.0732</v>
+        <v>0.07240000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1175</v>
+        <v>0.1166</v>
       </c>
       <c r="C150">
-        <v>0.0442</v>
+        <v>0.0441</v>
       </c>
       <c r="D150">
-        <v>0.0733</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1163</v>
+        <v>0.1156</v>
       </c>
       <c r="C151">
         <v>0.0434</v>
       </c>
       <c r="D151">
-        <v>0.07290000000000001</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.118</v>
+        <v>0.1172</v>
       </c>
       <c r="C152">
-        <v>0.0428</v>
+        <v>0.0427</v>
       </c>
       <c r="D152">
-        <v>0.07530000000000001</v>
+        <v>0.0745</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.119</v>
+        <v>0.1181</v>
       </c>
       <c r="C153">
-        <v>0.0419</v>
+        <v>0.0418</v>
       </c>
       <c r="D153">
-        <v>0.0771</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1205</v>
+        <v>0.1198</v>
       </c>
       <c r="C154">
-        <v>0.043</v>
+        <v>0.0429</v>
       </c>
       <c r="D154">
-        <v>0.0776</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1219</v>
+        <v>0.1211</v>
       </c>
       <c r="C155">
         <v>0.044</v>
       </c>
       <c r="D155">
-        <v>0.0779</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1227</v>
+        <v>0.122</v>
       </c>
       <c r="C156">
-        <v>0.0449</v>
+        <v>0.0448</v>
       </c>
       <c r="D156">
-        <v>0.07779999999999999</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1223</v>
+        <v>0.1217</v>
       </c>
       <c r="C157">
         <v>0.045</v>
       </c>
       <c r="D157">
-        <v>0.07729999999999999</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1217</v>
+        <v>0.1211</v>
       </c>
       <c r="C158">
         <v>0.0449</v>
       </c>
       <c r="D158">
-        <v>0.07679999999999999</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1209</v>
+        <v>0.1204</v>
       </c>
       <c r="C159">
-        <v>0.0456</v>
+        <v>0.0455</v>
       </c>
       <c r="D159">
-        <v>0.07539999999999999</v>
+        <v>0.07489999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1192</v>
+        <v>0.1187</v>
       </c>
       <c r="C160">
         <v>0.0457</v>
       </c>
       <c r="D160">
-        <v>0.0735</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1181</v>
+        <v>0.1176</v>
       </c>
       <c r="C161">
         <v>0.0462</v>
       </c>
       <c r="D161">
-        <v>0.07190000000000001</v>
+        <v>0.07149999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1183</v>
+        <v>0.1179</v>
       </c>
       <c r="C162">
         <v>0.0481</v>
       </c>
       <c r="D162">
-        <v>0.0702</v>
+        <v>0.0698</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1196</v>
+        <v>0.1193</v>
       </c>
       <c r="C163">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
       <c r="D163">
-        <v>0.06859999999999999</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1184</v>
+        <v>0.1181</v>
       </c>
       <c r="C164">
         <v>0.052</v>
       </c>
       <c r="D164">
-        <v>0.0664</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1171</v>
+        <v>0.1169</v>
       </c>
       <c r="C165">
         <v>0.0531</v>
       </c>
       <c r="D165">
-        <v>0.064</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1158</v>
+        <v>0.1157</v>
       </c>
       <c r="C166">
-        <v>0.054</v>
+        <v>0.0541</v>
       </c>
       <c r="D166">
-        <v>0.0619</v>
+        <v>0.0616</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.1142</v>
+        <v>0.1141</v>
       </c>
       <c r="C167">
         <v>0.0548</v>
       </c>
       <c r="D167">
-        <v>0.0594</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.113</v>
+        <v>0.1129</v>
       </c>
       <c r="C168">
-        <v>0.0559</v>
+        <v>0.056</v>
       </c>
       <c r="D168">
-        <v>0.0571</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,10 +3502,10 @@
         <v>0.1127</v>
       </c>
       <c r="C169">
-        <v>0.0577</v>
+        <v>0.0578</v>
       </c>
       <c r="D169">
-        <v>0.055</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,10 +3516,10 @@
         <v>0.1125</v>
       </c>
       <c r="C170">
-        <v>0.0594</v>
+        <v>0.0595</v>
       </c>
       <c r="D170">
-        <v>0.0531</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3527,13 +3527,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.1128</v>
+        <v>0.1129</v>
       </c>
       <c r="C171">
-        <v>0.0617</v>
+        <v>0.0619</v>
       </c>
       <c r="D171">
-        <v>0.0511</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,10 +3541,10 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1097</v>
+        <v>0.1098</v>
       </c>
       <c r="C172">
-        <v>0.0639</v>
+        <v>0.064</v>
       </c>
       <c r="D172">
         <v>0.0458</v>
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.1056</v>
+        <v>0.1059</v>
       </c>
       <c r="C173">
-        <v>0.065</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="D173">
-        <v>0.0406</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.1025</v>
+        <v>0.1028</v>
       </c>
       <c r="C174">
-        <v>0.06660000000000001</v>
+        <v>0.0668</v>
       </c>
       <c r="D174">
-        <v>0.0359</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1028</v>
+        <v>0.1031</v>
       </c>
       <c r="C175">
-        <v>0.07049999999999999</v>
+        <v>0.0707</v>
       </c>
       <c r="D175">
-        <v>0.0323</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1036</v>
+        <v>0.1039</v>
       </c>
       <c r="C176">
-        <v>0.07439999999999999</v>
+        <v>0.0746</v>
       </c>
       <c r="D176">
-        <v>0.0292</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.1043</v>
+        <v>0.1045</v>
       </c>
       <c r="C177">
-        <v>0.0771</v>
+        <v>0.0772</v>
       </c>
       <c r="D177">
-        <v>0.0272</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,10 +3625,10 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.1063</v>
+        <v>0.1065</v>
       </c>
       <c r="C178">
-        <v>0.0803</v>
+        <v>0.0805</v>
       </c>
       <c r="D178">
         <v>0.026</v>
@@ -3639,10 +3639,10 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1085</v>
+        <v>0.1087</v>
       </c>
       <c r="C179">
-        <v>0.0835</v>
+        <v>0.0837</v>
       </c>
       <c r="D179">
         <v>0.025</v>
@@ -3656,7 +3656,7 @@
         <v>0.1114</v>
       </c>
       <c r="C180">
-        <v>0.0868</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="D180">
         <v>0.0245</v>
@@ -3667,13 +3667,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.1129</v>
+        <v>0.1128</v>
       </c>
       <c r="C181">
-        <v>0.0891</v>
+        <v>0.0892</v>
       </c>
       <c r="D181">
-        <v>0.0237</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.1145</v>
+        <v>0.1144</v>
       </c>
       <c r="C182">
-        <v>0.0916</v>
+        <v>0.0917</v>
       </c>
       <c r="D182">
-        <v>0.0229</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.1165</v>
+        <v>0.1163</v>
       </c>
       <c r="C183">
-        <v>0.0941</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D183">
-        <v>0.0224</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1196</v>
+        <v>0.1194</v>
       </c>
       <c r="C184">
-        <v>0.09719999999999999</v>
+        <v>0.0973</v>
       </c>
       <c r="D184">
-        <v>0.0223</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.1236</v>
+        <v>0.1233</v>
       </c>
       <c r="C185">
         <v>0.1011</v>
       </c>
       <c r="D185">
-        <v>0.0225</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.1287</v>
+        <v>0.1284</v>
       </c>
       <c r="C186">
-        <v>0.1052</v>
+        <v>0.1053</v>
       </c>
       <c r="D186">
-        <v>0.0235</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1336</v>
+        <v>0.1332</v>
       </c>
       <c r="C187">
-        <v>0.1085</v>
+        <v>0.1086</v>
       </c>
       <c r="D187">
-        <v>0.025</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.1387</v>
+        <v>0.1382</v>
       </c>
       <c r="C188">
         <v>0.1118</v>
       </c>
       <c r="D188">
-        <v>0.0269</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.1435</v>
+        <v>0.143</v>
       </c>
       <c r="C189">
         <v>0.1149</v>
       </c>
       <c r="D189">
-        <v>0.0286</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.1486</v>
+        <v>0.148</v>
       </c>
       <c r="C190">
         <v>0.1181</v>
       </c>
       <c r="D190">
-        <v>0.0305</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.1527</v>
+        <v>0.152</v>
       </c>
       <c r="C191">
         <v>0.1202</v>
       </c>
       <c r="D191">
-        <v>0.0324</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.157</v>
+        <v>0.1563</v>
       </c>
       <c r="C192">
-        <v>0.1225</v>
+        <v>0.1224</v>
       </c>
       <c r="D192">
-        <v>0.0345</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.162</v>
+        <v>0.1613</v>
       </c>
       <c r="C193">
-        <v>0.1254</v>
+        <v>0.1253</v>
       </c>
       <c r="D193">
-        <v>0.0366</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.1656</v>
+        <v>0.1648</v>
       </c>
       <c r="C194">
-        <v>0.1268</v>
+        <v>0.1267</v>
       </c>
       <c r="D194">
-        <v>0.0388</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.1665</v>
+        <v>0.1657</v>
       </c>
       <c r="C195">
-        <v>0.1263</v>
+        <v>0.1262</v>
       </c>
       <c r="D195">
-        <v>0.0403</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.1654</v>
+        <v>0.1646</v>
       </c>
       <c r="C196">
-        <v>0.1239</v>
+        <v>0.1238</v>
       </c>
       <c r="D196">
-        <v>0.0415</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1635</v>
+        <v>0.1628</v>
       </c>
       <c r="C197">
-        <v>0.1217</v>
+        <v>0.1216</v>
       </c>
       <c r="D197">
-        <v>0.0418</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1625</v>
+        <v>0.1618</v>
       </c>
       <c r="C198">
         <v>0.1206</v>
       </c>
       <c r="D198">
-        <v>0.0418</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1612</v>
+        <v>0.1606</v>
       </c>
       <c r="C199">
         <v>0.1194</v>
       </c>
       <c r="D199">
-        <v>0.0419</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1598</v>
+        <v>0.1591</v>
       </c>
       <c r="C200">
         <v>0.1183</v>
       </c>
       <c r="D200">
-        <v>0.0414</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.1604</v>
+        <v>0.1597</v>
       </c>
       <c r="C201">
         <v>0.1181</v>
       </c>
       <c r="D201">
-        <v>0.0423</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.16</v>
+        <v>0.1593</v>
       </c>
       <c r="C202">
         <v>0.1169</v>
       </c>
       <c r="D202">
-        <v>0.0431</v>
+        <v>0.0424</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.1597</v>
+        <v>0.1589</v>
       </c>
       <c r="C203">
-        <v>0.116</v>
+        <v>0.1159</v>
       </c>
       <c r="D203">
-        <v>0.0437</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.1592</v>
+        <v>0.1583</v>
       </c>
       <c r="C204">
-        <v>0.1149</v>
+        <v>0.1148</v>
       </c>
       <c r="D204">
-        <v>0.0443</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.1583</v>
+        <v>0.1574</v>
       </c>
       <c r="C205">
         <v>0.1135</v>
       </c>
       <c r="D205">
-        <v>0.0448</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.1565</v>
+        <v>0.1556</v>
       </c>
       <c r="C206">
-        <v>0.112</v>
+        <v>0.1119</v>
       </c>
       <c r="D206">
-        <v>0.0446</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.1545</v>
+        <v>0.1536</v>
       </c>
       <c r="C207">
-        <v>0.1105</v>
+        <v>0.1104</v>
       </c>
       <c r="D207">
-        <v>0.044</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.1525</v>
+        <v>0.1516</v>
       </c>
       <c r="C208">
-        <v>0.1092</v>
+        <v>0.1091</v>
       </c>
       <c r="D208">
-        <v>0.0433</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.1488</v>
+        <v>0.1479</v>
       </c>
       <c r="C209">
-        <v>0.1061</v>
+        <v>0.106</v>
       </c>
       <c r="D209">
-        <v>0.0427</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.1449</v>
+        <v>0.144</v>
       </c>
       <c r="C210">
-        <v>0.1029</v>
+        <v>0.1028</v>
       </c>
       <c r="D210">
-        <v>0.0421</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.1413</v>
+        <v>0.1403</v>
       </c>
       <c r="C211">
-        <v>0.0999</v>
+        <v>0.0998</v>
       </c>
       <c r="D211">
-        <v>0.0414</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.1389</v>
+        <v>0.1379</v>
       </c>
       <c r="C212">
-        <v>0.0975</v>
+        <v>0.0974</v>
       </c>
       <c r="D212">
-        <v>0.0414</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.1377</v>
+        <v>0.1366</v>
       </c>
       <c r="C213">
-        <v>0.0959</v>
+        <v>0.0958</v>
       </c>
       <c r="D213">
-        <v>0.0417</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.1358</v>
+        <v>0.1347</v>
       </c>
       <c r="C214">
-        <v>0.0936</v>
+        <v>0.0935</v>
       </c>
       <c r="D214">
-        <v>0.0422</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.1352</v>
+        <v>0.134</v>
       </c>
       <c r="C215">
-        <v>0.0922</v>
+        <v>0.0921</v>
       </c>
       <c r="D215">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.1378</v>
+        <v>0.1367</v>
       </c>
       <c r="C216">
-        <v>0.09329999999999999</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D216">
-        <v>0.0445</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.1432</v>
+        <v>0.1419</v>
       </c>
       <c r="C217">
-        <v>0.0961</v>
+        <v>0.096</v>
       </c>
       <c r="D217">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.1475</v>
+        <v>0.1462</v>
       </c>
       <c r="C218">
-        <v>0.0975</v>
+        <v>0.0973</v>
       </c>
       <c r="D218">
-        <v>0.05</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.1522</v>
+        <v>0.1509</v>
       </c>
       <c r="C219">
-        <v>0.099</v>
+        <v>0.0988</v>
       </c>
       <c r="D219">
-        <v>0.0532</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.1566</v>
+        <v>0.1553</v>
       </c>
       <c r="C220">
-        <v>0.0999</v>
+        <v>0.0997</v>
       </c>
       <c r="D220">
-        <v>0.0568</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.1603</v>
+        <v>0.1589</v>
       </c>
       <c r="C221">
-        <v>0.1009</v>
+        <v>0.1007</v>
       </c>
       <c r="D221">
-        <v>0.0594</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.1653</v>
+        <v>0.164</v>
       </c>
       <c r="C222">
-        <v>0.102</v>
+        <v>0.1019</v>
       </c>
       <c r="D222">
-        <v>0.0633</v>
+        <v>0.0621</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.1708</v>
+        <v>0.1694</v>
       </c>
       <c r="C223">
-        <v>0.1034</v>
+        <v>0.1032</v>
       </c>
       <c r="D223">
-        <v>0.0674</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.1759</v>
+        <v>0.1745</v>
       </c>
       <c r="C224">
-        <v>0.1037</v>
+        <v>0.1036</v>
       </c>
       <c r="D224">
-        <v>0.0721</v>
+        <v>0.0709</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.1833</v>
+        <v>0.1819</v>
       </c>
       <c r="C225">
-        <v>0.1055</v>
+        <v>0.1053</v>
       </c>
       <c r="D225">
-        <v>0.07779999999999999</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.191</v>
+        <v>0.1896</v>
       </c>
       <c r="C226">
-        <v>0.1074</v>
+        <v>0.1073</v>
       </c>
       <c r="D226">
-        <v>0.08359999999999999</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.2001</v>
+        <v>0.1986</v>
       </c>
       <c r="C227">
-        <v>0.1105</v>
+        <v>0.1103</v>
       </c>
       <c r="D227">
-        <v>0.0896</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2094</v>
+        <v>0.2079</v>
       </c>
       <c r="C228">
-        <v>0.114</v>
+        <v>0.1138</v>
       </c>
       <c r="D228">
-        <v>0.0954</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2193</v>
+        <v>0.2179</v>
       </c>
       <c r="C229">
-        <v>0.1182</v>
+        <v>0.118</v>
       </c>
       <c r="D229">
-        <v>0.1011</v>
+        <v>0.0998</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2296</v>
+        <v>0.2281</v>
       </c>
       <c r="C230">
-        <v>0.1229</v>
+        <v>0.1227</v>
       </c>
       <c r="D230">
-        <v>0.1067</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.241</v>
+        <v>0.2396</v>
       </c>
       <c r="C231">
-        <v>0.1289</v>
+        <v>0.1288</v>
       </c>
       <c r="D231">
-        <v>0.1121</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2514</v>
+        <v>0.25</v>
       </c>
       <c r="C232">
-        <v>0.1348</v>
+        <v>0.1346</v>
       </c>
       <c r="D232">
-        <v>0.1166</v>
+        <v>0.1154</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2616</v>
+        <v>0.2602</v>
       </c>
       <c r="C233">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D233">
-        <v>0.1208</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2711</v>
+        <v>0.2697</v>
       </c>
       <c r="C234">
-        <v>0.1465</v>
+        <v>0.1463</v>
       </c>
       <c r="D234">
-        <v>0.1246</v>
+        <v>0.1234</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2802</v>
+        <v>0.2789</v>
       </c>
       <c r="C235">
-        <v>0.1522</v>
+        <v>0.1521</v>
       </c>
       <c r="D235">
-        <v>0.128</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2888</v>
+        <v>0.2875</v>
       </c>
       <c r="C236">
-        <v>0.1572</v>
+        <v>0.1571</v>
       </c>
       <c r="D236">
-        <v>0.1316</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2954</v>
+        <v>0.2941</v>
       </c>
       <c r="C237">
-        <v>0.1612</v>
+        <v>0.161</v>
       </c>
       <c r="D237">
-        <v>0.1342</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3021</v>
+        <v>0.3009</v>
       </c>
       <c r="C238">
-        <v>0.166</v>
+        <v>0.1659</v>
       </c>
       <c r="D238">
-        <v>0.1361</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3079</v>
+        <v>0.3067</v>
       </c>
       <c r="C239">
-        <v>0.17</v>
+        <v>0.1698</v>
       </c>
       <c r="D239">
-        <v>0.138</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3174</v>
+        <v>0.3161</v>
       </c>
       <c r="C240">
-        <v>0.1752</v>
+        <v>0.1751</v>
       </c>
       <c r="D240">
-        <v>0.1422</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3261</v>
+        <v>0.3247</v>
       </c>
       <c r="C241">
-        <v>0.1801</v>
+        <v>0.18</v>
       </c>
       <c r="D241">
-        <v>0.146</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3324</v>
+        <v>0.3311</v>
       </c>
       <c r="C242">
-        <v>0.1841</v>
+        <v>0.184</v>
       </c>
       <c r="D242">
-        <v>0.1484</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3386</v>
+        <v>0.3373</v>
       </c>
       <c r="C243">
-        <v>0.1881</v>
+        <v>0.188</v>
       </c>
       <c r="D243">
-        <v>0.1505</v>
+        <v>0.1493</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3446</v>
+        <v>0.3434</v>
       </c>
       <c r="C244">
-        <v>0.1926</v>
+        <v>0.1925</v>
       </c>
       <c r="D244">
-        <v>0.152</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3477</v>
+        <v>0.3464</v>
       </c>
       <c r="C245">
-        <v>0.1951</v>
+        <v>0.195</v>
       </c>
       <c r="D245">
-        <v>0.1526</v>
+        <v>0.1514</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3498</v>
+        <v>0.3486</v>
       </c>
       <c r="C246">
-        <v>0.1968</v>
+        <v>0.1967</v>
       </c>
       <c r="D246">
-        <v>0.153</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3507</v>
+        <v>0.3495</v>
       </c>
       <c r="C247">
-        <v>0.1973</v>
+        <v>0.1972</v>
       </c>
       <c r="D247">
-        <v>0.1534</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3503</v>
+        <v>0.3492</v>
       </c>
       <c r="C248">
-        <v>0.1965</v>
+        <v>0.1964</v>
       </c>
       <c r="D248">
-        <v>0.1538</v>
+        <v>0.1527</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3505</v>
+        <v>0.3494</v>
       </c>
       <c r="C249">
-        <v>0.1963</v>
+        <v>0.1962</v>
       </c>
       <c r="D249">
-        <v>0.1542</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3506</v>
+        <v>0.3496</v>
       </c>
       <c r="C250">
         <v>0.1959</v>
       </c>
       <c r="D250">
-        <v>0.1547</v>
+        <v>0.1537</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3514</v>
+        <v>0.3503</v>
       </c>
       <c r="C251">
         <v>0.1945</v>
       </c>
       <c r="D251">
-        <v>0.1568</v>
+        <v>0.1558</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3521</v>
+        <v>0.351</v>
       </c>
       <c r="C252">
-        <v>0.1929</v>
+        <v>0.1928</v>
       </c>
       <c r="D252">
-        <v>0.1591</v>
+        <v>0.1581</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2009 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2009 - Diaria.xlsx
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6377</v>
+        <v>0.6382</v>
       </c>
       <c r="C2">
-        <v>0.2563</v>
+        <v>0.2567</v>
       </c>
       <c r="D2">
-        <v>0.3814</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.629</v>
+        <v>0.6294999999999999</v>
       </c>
       <c r="C3">
-        <v>0.2471</v>
+        <v>0.2474</v>
       </c>
       <c r="D3">
-        <v>0.3819</v>
+        <v>0.3821</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6261</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="C4">
-        <v>0.2434</v>
+        <v>0.2437</v>
       </c>
       <c r="D4">
-        <v>0.3827</v>
+        <v>0.3828</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6168</v>
+        <v>0.6172</v>
       </c>
       <c r="C5">
-        <v>0.2335</v>
+        <v>0.2338</v>
       </c>
       <c r="D5">
-        <v>0.3832</v>
+        <v>0.3834</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6166</v>
+        <v>0.6171</v>
       </c>
       <c r="C6">
-        <v>0.2317</v>
+        <v>0.232</v>
       </c>
       <c r="D6">
-        <v>0.3849</v>
+        <v>0.3851</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6145</v>
+        <v>0.615</v>
       </c>
       <c r="C7">
-        <v>0.2283</v>
+        <v>0.2286</v>
       </c>
       <c r="D7">
-        <v>0.3862</v>
+        <v>0.3864</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6132</v>
+        <v>0.6136</v>
       </c>
       <c r="C8">
-        <v>0.2251</v>
+        <v>0.2253</v>
       </c>
       <c r="D8">
-        <v>0.3881</v>
+        <v>0.3883</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.615</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C9">
-        <v>0.2244</v>
+        <v>0.2247</v>
       </c>
       <c r="D9">
-        <v>0.3905</v>
+        <v>0.3908</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6172</v>
+        <v>0.6176</v>
       </c>
       <c r="C10">
-        <v>0.2246</v>
+        <v>0.2248</v>
       </c>
       <c r="D10">
-        <v>0.3926</v>
+        <v>0.3928</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.619</v>
+        <v>0.6194</v>
       </c>
       <c r="C11">
-        <v>0.2244</v>
+        <v>0.2246</v>
       </c>
       <c r="D11">
-        <v>0.3946</v>
+        <v>0.3948</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.6213</v>
+        <v>0.6217</v>
       </c>
       <c r="C12">
-        <v>0.2251</v>
+        <v>0.2253</v>
       </c>
       <c r="D12">
-        <v>0.3962</v>
+        <v>0.3964</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.6251</v>
+        <v>0.6254999999999999</v>
       </c>
       <c r="C13">
-        <v>0.2284</v>
+        <v>0.2286</v>
       </c>
       <c r="D13">
-        <v>0.3966</v>
+        <v>0.3969</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6289</v>
+        <v>0.6293</v>
       </c>
       <c r="C14">
-        <v>0.2312</v>
+        <v>0.2314</v>
       </c>
       <c r="D14">
-        <v>0.3977</v>
+        <v>0.3979</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.6307</v>
+        <v>0.631</v>
       </c>
       <c r="C15">
-        <v>0.2322</v>
+        <v>0.2323</v>
       </c>
       <c r="D15">
-        <v>0.3985</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.6304</v>
+        <v>0.6307</v>
       </c>
       <c r="C16">
-        <v>0.2317</v>
+        <v>0.2318</v>
       </c>
       <c r="D16">
-        <v>0.3986</v>
+        <v>0.3989</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.6312</v>
+        <v>0.6315</v>
       </c>
       <c r="C17">
         <v>0.2326</v>
       </c>
       <c r="D17">
-        <v>0.3986</v>
+        <v>0.3988</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.6327</v>
+        <v>0.633</v>
       </c>
       <c r="C18">
-        <v>0.2341</v>
+        <v>0.2342</v>
       </c>
       <c r="D18">
-        <v>0.3986</v>
+        <v>0.3988</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.632</v>
+        <v>0.6323</v>
       </c>
       <c r="C19">
         <v>0.2334</v>
       </c>
       <c r="D19">
-        <v>0.3987</v>
+        <v>0.3989</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.6328</v>
+        <v>0.6331</v>
       </c>
       <c r="C20">
         <v>0.234</v>
       </c>
       <c r="D20">
-        <v>0.3988</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.635</v>
+        <v>0.6353</v>
       </c>
       <c r="C21">
-        <v>0.2361</v>
+        <v>0.2362</v>
       </c>
       <c r="D21">
-        <v>0.3989</v>
+        <v>0.3991</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.6373</v>
+        <v>0.6375999999999999</v>
       </c>
       <c r="C22">
         <v>0.2386</v>
       </c>
       <c r="D22">
-        <v>0.3987</v>
+        <v>0.3989</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.6389</v>
+        <v>0.6391</v>
       </c>
       <c r="C23">
         <v>0.2409</v>
       </c>
       <c r="D23">
-        <v>0.398</v>
+        <v>0.3982</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.6372</v>
+        <v>0.6374</v>
       </c>
       <c r="C24">
         <v>0.2389</v>
       </c>
       <c r="D24">
-        <v>0.3983</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.6421</v>
+        <v>0.6424</v>
       </c>
       <c r="C25">
         <v>0.2421</v>
       </c>
       <c r="D25">
-        <v>0.4001</v>
+        <v>0.4003</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.6395999999999999</v>
+        <v>0.6398</v>
       </c>
       <c r="C26">
         <v>0.2391</v>
       </c>
       <c r="D26">
-        <v>0.4006</v>
+        <v>0.4007</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6383</v>
+        <v>0.6385</v>
       </c>
       <c r="C27">
         <v>0.2374</v>
       </c>
       <c r="D27">
-        <v>0.4009</v>
+        <v>0.4011</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.6347</v>
+        <v>0.6348</v>
       </c>
       <c r="C28">
         <v>0.2342</v>
       </c>
       <c r="D28">
-        <v>0.4004</v>
+        <v>0.4006</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.629</v>
+        <v>0.6292</v>
       </c>
       <c r="C29">
         <v>0.2299</v>
       </c>
       <c r="D29">
-        <v>0.3991</v>
+        <v>0.3993</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.6209</v>
+        <v>0.621</v>
       </c>
       <c r="C30">
         <v>0.2233</v>
       </c>
       <c r="D30">
-        <v>0.3976</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.6133999999999999</v>
+        <v>0.6135</v>
       </c>
       <c r="C31">
         <v>0.2174</v>
       </c>
       <c r="D31">
-        <v>0.396</v>
+        <v>0.3961</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.6025</v>
+        <v>0.6026</v>
       </c>
       <c r="C32">
         <v>0.211</v>
       </c>
       <c r="D32">
-        <v>0.3915</v>
+        <v>0.3916</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.5963000000000001</v>
+        <v>0.5964</v>
       </c>
       <c r="C33">
         <v>0.2077</v>
       </c>
       <c r="D33">
-        <v>0.3886</v>
+        <v>0.3887</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1615,7 +1615,7 @@
         <v>0.203</v>
       </c>
       <c r="D34">
-        <v>0.3851</v>
+        <v>0.3853</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>0.2003</v>
       </c>
       <c r="D35">
-        <v>0.3815</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1643,7 +1643,7 @@
         <v>0.1989</v>
       </c>
       <c r="D36">
-        <v>0.378</v>
+        <v>0.3781</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1654,10 +1654,10 @@
         <v>0.5724</v>
       </c>
       <c r="C37">
-        <v>0.198</v>
+        <v>0.1979</v>
       </c>
       <c r="D37">
-        <v>0.3744</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1668,10 +1668,10 @@
         <v>0.5719</v>
       </c>
       <c r="C38">
-        <v>0.2005</v>
+        <v>0.2004</v>
       </c>
       <c r="D38">
-        <v>0.3714</v>
+        <v>0.3715</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1682,10 +1682,10 @@
         <v>0.5669</v>
       </c>
       <c r="C39">
-        <v>0.1991</v>
+        <v>0.199</v>
       </c>
       <c r="D39">
-        <v>0.3678</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1696,10 +1696,10 @@
         <v>0.5666</v>
       </c>
       <c r="C40">
-        <v>0.2009</v>
+        <v>0.2008</v>
       </c>
       <c r="D40">
-        <v>0.3657</v>
+        <v>0.3658</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1710,10 +1710,10 @@
         <v>0.5623</v>
       </c>
       <c r="C41">
-        <v>0.1997</v>
+        <v>0.1996</v>
       </c>
       <c r="D41">
-        <v>0.3626</v>
+        <v>0.3627</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1724,10 +1724,10 @@
         <v>0.5562</v>
       </c>
       <c r="C42">
-        <v>0.1969</v>
+        <v>0.1968</v>
       </c>
       <c r="D42">
-        <v>0.3593</v>
+        <v>0.3594</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1738,10 +1738,10 @@
         <v>0.5535</v>
       </c>
       <c r="C43">
-        <v>0.1976</v>
+        <v>0.1975</v>
       </c>
       <c r="D43">
-        <v>0.3559</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1752,10 +1752,10 @@
         <v>0.5417</v>
       </c>
       <c r="C44">
-        <v>0.1915</v>
+        <v>0.1914</v>
       </c>
       <c r="D44">
-        <v>0.3502</v>
+        <v>0.3503</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1766,7 +1766,7 @@
         <v>0.5285</v>
       </c>
       <c r="C45">
-        <v>0.1857</v>
+        <v>0.1855</v>
       </c>
       <c r="D45">
         <v>0.3429</v>
@@ -1780,7 +1780,7 @@
         <v>0.5171</v>
       </c>
       <c r="C46">
-        <v>0.182</v>
+        <v>0.1819</v>
       </c>
       <c r="D46">
         <v>0.3351</v>
@@ -1794,7 +1794,7 @@
         <v>0.5059</v>
       </c>
       <c r="C47">
-        <v>0.1784</v>
+        <v>0.1783</v>
       </c>
       <c r="D47">
         <v>0.3275</v>
@@ -1805,10 +1805,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.494</v>
+        <v>0.4939</v>
       </c>
       <c r="C48">
-        <v>0.1744</v>
+        <v>0.1743</v>
       </c>
       <c r="D48">
         <v>0.3197</v>
@@ -1822,7 +1822,7 @@
         <v>0.4821</v>
       </c>
       <c r="C49">
-        <v>0.1701</v>
+        <v>0.17</v>
       </c>
       <c r="D49">
         <v>0.3121</v>
@@ -1833,10 +1833,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4717</v>
+        <v>0.4716</v>
       </c>
       <c r="C50">
-        <v>0.1671</v>
+        <v>0.167</v>
       </c>
       <c r="D50">
         <v>0.3047</v>
@@ -1861,10 +1861,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.447</v>
+        <v>0.4469</v>
       </c>
       <c r="C52">
-        <v>0.1569</v>
+        <v>0.1568</v>
       </c>
       <c r="D52">
         <v>0.2901</v>
@@ -1937,7 +1937,7 @@
         <v>0.1217</v>
       </c>
       <c r="D57">
-        <v>0.2773</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1945,7 +1945,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3912</v>
+        <v>0.3913</v>
       </c>
       <c r="C58">
         <v>0.1139</v>
@@ -1959,10 +1959,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3857</v>
+        <v>0.3858</v>
       </c>
       <c r="C59">
-        <v>0.1091</v>
+        <v>0.1092</v>
       </c>
       <c r="D59">
         <v>0.2766</v>
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3764</v>
+        <v>0.3765</v>
       </c>
       <c r="C60">
-        <v>0.1025</v>
+        <v>0.1026</v>
       </c>
       <c r="D60">
-        <v>0.2738</v>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.3695</v>
+        <v>0.3696</v>
       </c>
       <c r="C61">
-        <v>0.0985</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="D61">
         <v>0.271</v>
@@ -2001,7 +2001,7 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3626</v>
+        <v>0.3627</v>
       </c>
       <c r="C62">
         <v>0.095</v>
@@ -2015,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3533</v>
+        <v>0.3534</v>
       </c>
       <c r="C63">
-        <v>0.0893</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D63">
         <v>0.264</v>
@@ -2029,10 +2029,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.346</v>
+        <v>0.3461</v>
       </c>
       <c r="C64">
-        <v>0.08599999999999999</v>
+        <v>0.0861</v>
       </c>
       <c r="D64">
         <v>0.26</v>
@@ -2043,10 +2043,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3364</v>
+        <v>0.3365</v>
       </c>
       <c r="C65">
-        <v>0.081</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="D65">
         <v>0.2554</v>
@@ -2060,7 +2060,7 @@
         <v>0.3251</v>
       </c>
       <c r="C66">
-        <v>0.0751</v>
+        <v>0.0752</v>
       </c>
       <c r="D66">
         <v>0.25</v>
@@ -2071,10 +2071,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3136</v>
+        <v>0.3137</v>
       </c>
       <c r="C67">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
       <c r="D67">
         <v>0.2444</v>
@@ -2085,10 +2085,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3034</v>
+        <v>0.3035</v>
       </c>
       <c r="C68">
-        <v>0.0639</v>
+        <v>0.064</v>
       </c>
       <c r="D68">
         <v>0.2395</v>
@@ -2105,7 +2105,7 @@
         <v>0.0578</v>
       </c>
       <c r="D69">
-        <v>0.2339</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.2831</v>
+        <v>0.283</v>
       </c>
       <c r="C70">
         <v>0.0539</v>
       </c>
       <c r="D70">
-        <v>0.2292</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2133,7 +2133,7 @@
         <v>0.0498</v>
       </c>
       <c r="D71">
-        <v>0.2247</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2683</v>
+        <v>0.2682</v>
       </c>
       <c r="C72">
-        <v>0.0474</v>
+        <v>0.0475</v>
       </c>
       <c r="D72">
-        <v>0.2208</v>
+        <v>0.2207</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2612</v>
+        <v>0.2611</v>
       </c>
       <c r="C73">
         <v>0.045</v>
       </c>
       <c r="D73">
-        <v>0.2162</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.2515</v>
+        <v>0.2514</v>
       </c>
       <c r="C74">
         <v>0.0426</v>
       </c>
       <c r="D74">
-        <v>0.2089</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2387</v>
+        <v>0.2386</v>
       </c>
       <c r="C75">
         <v>0.0421</v>
       </c>
       <c r="D75">
-        <v>0.1967</v>
+        <v>0.1965</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2206</v>
+        <v>0.2204</v>
       </c>
       <c r="C76">
         <v>0.0378</v>
       </c>
       <c r="D76">
-        <v>0.1828</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2036</v>
+        <v>0.2034</v>
       </c>
       <c r="C77">
-        <v>0.0335</v>
+        <v>0.0336</v>
       </c>
       <c r="D77">
-        <v>0.17</v>
+        <v>0.1698</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1842</v>
+        <v>0.184</v>
       </c>
       <c r="C78">
         <v>0.0277</v>
       </c>
       <c r="D78">
-        <v>0.1565</v>
+        <v>0.1563</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1682</v>
+        <v>0.1679</v>
       </c>
       <c r="C79">
         <v>0.0243</v>
       </c>
       <c r="D79">
-        <v>0.1439</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1517</v>
+        <v>0.1514</v>
       </c>
       <c r="C80">
         <v>0.0199</v>
       </c>
       <c r="D80">
-        <v>0.1318</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1357</v>
+        <v>0.1354</v>
       </c>
       <c r="C81">
         <v>0.0154</v>
       </c>
       <c r="D81">
-        <v>0.1203</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1218</v>
+        <v>0.1215</v>
       </c>
       <c r="C82">
         <v>0.0124</v>
       </c>
       <c r="D82">
-        <v>0.1094</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1087</v>
+        <v>0.1083</v>
       </c>
       <c r="C83">
         <v>0.008999999999999999</v>
       </c>
       <c r="D83">
-        <v>0.09959999999999999</v>
+        <v>0.0993</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1005</v>
+        <v>0.1002</v>
       </c>
       <c r="C84">
-        <v>0.009299999999999999</v>
+        <v>0.0092</v>
       </c>
       <c r="D84">
-        <v>0.09130000000000001</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.0946</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="C85">
         <v>0.0107</v>
       </c>
       <c r="D85">
-        <v>0.0839</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0896</v>
+        <v>0.0892</v>
       </c>
       <c r="C86">
-        <v>0.012</v>
+        <v>0.0119</v>
       </c>
       <c r="D86">
-        <v>0.0776</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0856</v>
+        <v>0.0852</v>
       </c>
       <c r="C87">
-        <v>0.0135</v>
+        <v>0.0134</v>
       </c>
       <c r="D87">
-        <v>0.0721</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0828</v>
+        <v>0.0824</v>
       </c>
       <c r="C88">
-        <v>0.0153</v>
+        <v>0.0152</v>
       </c>
       <c r="D88">
-        <v>0.0675</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.08069999999999999</v>
+        <v>0.0803</v>
       </c>
       <c r="C89">
-        <v>0.0171</v>
+        <v>0.017</v>
       </c>
       <c r="D89">
-        <v>0.0636</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.07539999999999999</v>
+        <v>0.0751</v>
       </c>
       <c r="C90">
         <v>0.0167</v>
       </c>
       <c r="D90">
-        <v>0.0587</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.0713</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C91">
-        <v>0.0174</v>
+        <v>0.0173</v>
       </c>
       <c r="D91">
-        <v>0.054</v>
+        <v>0.0537</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0675</v>
+        <v>0.0672</v>
       </c>
       <c r="C92">
-        <v>0.0186</v>
+        <v>0.0185</v>
       </c>
       <c r="D92">
-        <v>0.0489</v>
+        <v>0.0487</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.06419999999999999</v>
+        <v>0.0638</v>
       </c>
       <c r="C93">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
       <c r="D93">
-        <v>0.0443</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.0606</v>
+        <v>0.0603</v>
       </c>
       <c r="C94">
-        <v>0.0207</v>
+        <v>0.0206</v>
       </c>
       <c r="D94">
-        <v>0.0399</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0586</v>
+        <v>0.0583</v>
       </c>
       <c r="C95">
-        <v>0.0223</v>
+        <v>0.0222</v>
       </c>
       <c r="D95">
-        <v>0.0363</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0578</v>
+        <v>0.0575</v>
       </c>
       <c r="C96">
-        <v>0.024</v>
+        <v>0.0239</v>
       </c>
       <c r="D96">
-        <v>0.0338</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.058</v>
+        <v>0.0577</v>
       </c>
       <c r="C97">
-        <v>0.0261</v>
+        <v>0.026</v>
       </c>
       <c r="D97">
-        <v>0.0318</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.0591</v>
+        <v>0.0589</v>
       </c>
       <c r="C98">
-        <v>0.0288</v>
+        <v>0.0287</v>
       </c>
       <c r="D98">
-        <v>0.0303</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0609</v>
+        <v>0.0607</v>
       </c>
       <c r="C99">
         <v>0.0318</v>
       </c>
       <c r="D99">
-        <v>0.0291</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.063</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="C100">
-        <v>0.0351</v>
+        <v>0.035</v>
       </c>
       <c r="D100">
-        <v>0.0279</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.0633</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C101">
         <v>0.0369</v>
       </c>
       <c r="D101">
-        <v>0.0264</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.063</v>
+        <v>0.0629</v>
       </c>
       <c r="C102">
         <v>0.038</v>
       </c>
       <c r="D102">
-        <v>0.025</v>
+        <v>0.0249</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.0626</v>
+        <v>0.0625</v>
       </c>
       <c r="C103">
-        <v>0.0389</v>
+        <v>0.0388</v>
       </c>
       <c r="D103">
-        <v>0.0237</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2592,7 +2592,7 @@
         <v>0.0626</v>
       </c>
       <c r="C104">
-        <v>0.0403</v>
+        <v>0.0402</v>
       </c>
       <c r="D104">
         <v>0.0224</v>
@@ -2631,7 +2631,7 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.0588</v>
+        <v>0.0589</v>
       </c>
       <c r="C107">
         <v>0.0407</v>
@@ -2645,7 +2645,7 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.0571</v>
+        <v>0.0572</v>
       </c>
       <c r="C108">
         <v>0.0415</v>
@@ -2659,7 +2659,7 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.0539</v>
+        <v>0.054</v>
       </c>
       <c r="C109">
         <v>0.0405</v>
@@ -2673,7 +2673,7 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.0515</v>
+        <v>0.0516</v>
       </c>
       <c r="C110">
         <v>0.0396</v>
@@ -2687,7 +2687,7 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.0493</v>
+        <v>0.0494</v>
       </c>
       <c r="C111">
         <v>0.0386</v>
@@ -2701,7 +2701,7 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.0471</v>
+        <v>0.0472</v>
       </c>
       <c r="C112">
         <v>0.0374</v>
@@ -2715,10 +2715,10 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.0448</v>
+        <v>0.0449</v>
       </c>
       <c r="C113">
-        <v>0.036</v>
+        <v>0.0361</v>
       </c>
       <c r="D113">
         <v>0.008800000000000001</v>
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.0455</v>
+        <v>0.0456</v>
       </c>
       <c r="C114">
         <v>0.0367</v>
       </c>
       <c r="D114">
-        <v>0.008800000000000001</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.0443</v>
+        <v>0.0444</v>
       </c>
       <c r="C115">
-        <v>0.0356</v>
+        <v>0.0357</v>
       </c>
       <c r="D115">
-        <v>0.0086</v>
+        <v>0.008699999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2757,10 +2757,10 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.0429</v>
+        <v>0.043</v>
       </c>
       <c r="C116">
-        <v>0.0347</v>
+        <v>0.0348</v>
       </c>
       <c r="D116">
         <v>0.008200000000000001</v>
@@ -2785,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.0433</v>
+        <v>0.0434</v>
       </c>
       <c r="C118">
         <v>0.0351</v>
@@ -2799,7 +2799,7 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.0454</v>
+        <v>0.0455</v>
       </c>
       <c r="C119">
         <v>0.0364</v>
@@ -2819,7 +2819,7 @@
         <v>0.037</v>
       </c>
       <c r="D120">
-        <v>0.0102</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
       <c r="C121">
-        <v>0.0391</v>
+        <v>0.039</v>
       </c>
       <c r="D121">
         <v>0.0118</v>
@@ -2844,10 +2844,10 @@
         <v>0.0557</v>
       </c>
       <c r="C122">
-        <v>0.042</v>
+        <v>0.0419</v>
       </c>
       <c r="D122">
-        <v>0.0137</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2858,10 +2858,10 @@
         <v>0.0591</v>
       </c>
       <c r="C123">
-        <v>0.0438</v>
+        <v>0.0437</v>
       </c>
       <c r="D123">
-        <v>0.0153</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2886,10 +2886,10 @@
         <v>0.067</v>
       </c>
       <c r="C125">
-        <v>0.0474</v>
+        <v>0.0473</v>
       </c>
       <c r="D125">
-        <v>0.0196</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
       <c r="C126">
         <v>0.0481</v>
       </c>
       <c r="D126">
-        <v>0.0217</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2914,10 +2914,10 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="C127">
-        <v>0.0492</v>
+        <v>0.0491</v>
       </c>
       <c r="D127">
-        <v>0.0237</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.0735</v>
+        <v>0.0736</v>
       </c>
       <c r="C128">
         <v>0.0479</v>
       </c>
       <c r="D128">
-        <v>0.0256</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2942,10 +2942,10 @@
         <v>0.07820000000000001</v>
       </c>
       <c r="C129">
-        <v>0.0503</v>
+        <v>0.0502</v>
       </c>
       <c r="D129">
-        <v>0.0279</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2959,7 +2959,7 @@
         <v>0.0527</v>
       </c>
       <c r="D130">
-        <v>0.0303</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.0886</v>
+        <v>0.0887</v>
       </c>
       <c r="C131">
-        <v>0.0555</v>
+        <v>0.0554</v>
       </c>
       <c r="D131">
-        <v>0.0331</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.094</v>
+        <v>0.0941</v>
       </c>
       <c r="C132">
         <v>0.0576</v>
       </c>
       <c r="D132">
-        <v>0.0363</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1004</v>
+        <v>0.1005</v>
       </c>
       <c r="C133">
-        <v>0.0605</v>
+        <v>0.0604</v>
       </c>
       <c r="D133">
-        <v>0.0399</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.104</v>
+        <v>0.1041</v>
       </c>
       <c r="C134">
         <v>0.0603</v>
       </c>
       <c r="D134">
-        <v>0.0436</v>
+        <v>0.0438</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.1079</v>
+        <v>0.108</v>
       </c>
       <c r="C135">
-        <v>0.0608</v>
+        <v>0.0607</v>
       </c>
       <c r="D135">
-        <v>0.0471</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1113</v>
+        <v>0.1114</v>
       </c>
       <c r="C136">
-        <v>0.0611</v>
+        <v>0.061</v>
       </c>
       <c r="D136">
-        <v>0.0502</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1148</v>
+        <v>0.1149</v>
       </c>
       <c r="C137">
-        <v>0.0617</v>
+        <v>0.0616</v>
       </c>
       <c r="D137">
-        <v>0.0531</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1147</v>
+        <v>0.1148</v>
       </c>
       <c r="C138">
         <v>0.06</v>
       </c>
       <c r="D138">
-        <v>0.0547</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1141</v>
+        <v>0.1142</v>
       </c>
       <c r="C139">
-        <v>0.0574</v>
+        <v>0.0573</v>
       </c>
       <c r="D139">
-        <v>0.0567</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1144</v>
+        <v>0.1145</v>
       </c>
       <c r="C140">
         <v>0.0555</v>
       </c>
       <c r="D140">
-        <v>0.0588</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1145</v>
+        <v>0.1146</v>
       </c>
       <c r="C141">
-        <v>0.0537</v>
+        <v>0.0536</v>
       </c>
       <c r="D141">
-        <v>0.0608</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1144</v>
+        <v>0.1145</v>
       </c>
       <c r="C142">
-        <v>0.0515</v>
+        <v>0.0514</v>
       </c>
       <c r="D142">
-        <v>0.0629</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1134</v>
+        <v>0.1135</v>
       </c>
       <c r="C143">
-        <v>0.0489</v>
+        <v>0.0488</v>
       </c>
       <c r="D143">
-        <v>0.0645</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.1129</v>
+        <v>0.113</v>
       </c>
       <c r="C144">
-        <v>0.0468</v>
+        <v>0.0467</v>
       </c>
       <c r="D144">
-        <v>0.06610000000000001</v>
+        <v>0.0663</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1135</v>
+        <v>0.1136</v>
       </c>
       <c r="C145">
-        <v>0.0458</v>
+        <v>0.0457</v>
       </c>
       <c r="D145">
-        <v>0.0677</v>
+        <v>0.0679</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.1139</v>
+        <v>0.114</v>
       </c>
       <c r="C146">
         <v>0.0448</v>
       </c>
       <c r="D146">
-        <v>0.06909999999999999</v>
+        <v>0.0693</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1154</v>
+        <v>0.1155</v>
       </c>
       <c r="C147">
-        <v>0.045</v>
+        <v>0.0449</v>
       </c>
       <c r="D147">
-        <v>0.07049999999999999</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1178</v>
+        <v>0.1179</v>
       </c>
       <c r="C148">
         <v>0.0459</v>
       </c>
       <c r="D148">
-        <v>0.0718</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1174</v>
+        <v>0.1175</v>
       </c>
       <c r="C149">
         <v>0.045</v>
       </c>
       <c r="D149">
-        <v>0.07240000000000001</v>
+        <v>0.0725</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1166</v>
+        <v>0.1167</v>
       </c>
       <c r="C150">
-        <v>0.0441</v>
+        <v>0.044</v>
       </c>
       <c r="D150">
-        <v>0.0725</v>
+        <v>0.0727</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3250,10 +3250,10 @@
         <v>0.1156</v>
       </c>
       <c r="C151">
-        <v>0.0434</v>
+        <v>0.0433</v>
       </c>
       <c r="D151">
-        <v>0.0722</v>
+        <v>0.07240000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1172</v>
+        <v>0.1173</v>
       </c>
       <c r="C152">
-        <v>0.0427</v>
+        <v>0.0426</v>
       </c>
       <c r="D152">
-        <v>0.0745</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="C153">
         <v>0.0418</v>
       </c>
       <c r="D153">
-        <v>0.07630000000000001</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3292,10 +3292,10 @@
         <v>0.1198</v>
       </c>
       <c r="C154">
-        <v>0.0429</v>
+        <v>0.0428</v>
       </c>
       <c r="D154">
-        <v>0.07679999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1211</v>
+        <v>0.1212</v>
       </c>
       <c r="C155">
-        <v>0.044</v>
+        <v>0.0439</v>
       </c>
       <c r="D155">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.122</v>
+        <v>0.1221</v>
       </c>
       <c r="C156">
-        <v>0.0448</v>
+        <v>0.0447</v>
       </c>
       <c r="D156">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3334,10 +3334,10 @@
         <v>0.1217</v>
       </c>
       <c r="C157">
-        <v>0.045</v>
+        <v>0.0449</v>
       </c>
       <c r="D157">
-        <v>0.0767</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1211</v>
+        <v>0.1212</v>
       </c>
       <c r="C158">
-        <v>0.0449</v>
+        <v>0.0448</v>
       </c>
       <c r="D158">
-        <v>0.0762</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1204</v>
+        <v>0.1205</v>
       </c>
       <c r="C159">
         <v>0.0455</v>
       </c>
       <c r="D159">
-        <v>0.07489999999999999</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1187</v>
+        <v>0.1188</v>
       </c>
       <c r="C160">
-        <v>0.0457</v>
+        <v>0.0456</v>
       </c>
       <c r="D160">
-        <v>0.073</v>
+        <v>0.0732</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1176</v>
+        <v>0.1177</v>
       </c>
       <c r="C161">
-        <v>0.0462</v>
+        <v>0.0461</v>
       </c>
       <c r="D161">
-        <v>0.07149999999999999</v>
+        <v>0.0716</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.1179</v>
+        <v>0.118</v>
       </c>
       <c r="C162">
-        <v>0.0481</v>
+        <v>0.048</v>
       </c>
       <c r="D162">
-        <v>0.0698</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1193</v>
+        <v>0.1194</v>
       </c>
       <c r="C163">
-        <v>0.0511</v>
+        <v>0.051</v>
       </c>
       <c r="D163">
-        <v>0.0683</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1181</v>
+        <v>0.1182</v>
       </c>
       <c r="C164">
         <v>0.052</v>
       </c>
       <c r="D164">
-        <v>0.06610000000000001</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,13 +3443,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.1169</v>
+        <v>0.117</v>
       </c>
       <c r="C165">
         <v>0.0531</v>
       </c>
       <c r="D165">
-        <v>0.0638</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3457,13 +3457,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1157</v>
+        <v>0.1158</v>
       </c>
       <c r="C166">
-        <v>0.0541</v>
+        <v>0.054</v>
       </c>
       <c r="D166">
-        <v>0.0616</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3474,10 +3474,10 @@
         <v>0.1141</v>
       </c>
       <c r="C167">
-        <v>0.0548</v>
+        <v>0.0547</v>
       </c>
       <c r="D167">
-        <v>0.0593</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3485,13 +3485,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.1129</v>
+        <v>0.113</v>
       </c>
       <c r="C168">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="D168">
-        <v>0.0569</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3502,10 +3502,10 @@
         <v>0.1127</v>
       </c>
       <c r="C169">
-        <v>0.0578</v>
+        <v>0.0577</v>
       </c>
       <c r="D169">
-        <v>0.0549</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3516,10 +3516,10 @@
         <v>0.1125</v>
       </c>
       <c r="C170">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
       <c r="D170">
-        <v>0.053</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,10 +3530,10 @@
         <v>0.1129</v>
       </c>
       <c r="C171">
-        <v>0.0619</v>
+        <v>0.0618</v>
       </c>
       <c r="D171">
-        <v>0.051</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3544,10 +3544,10 @@
         <v>0.1098</v>
       </c>
       <c r="C172">
-        <v>0.064</v>
+        <v>0.0639</v>
       </c>
       <c r="D172">
-        <v>0.0458</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3558,10 +3558,10 @@
         <v>0.1059</v>
       </c>
       <c r="C173">
-        <v>0.06510000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="D173">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3572,10 +3572,10 @@
         <v>0.1028</v>
       </c>
       <c r="C174">
-        <v>0.0668</v>
+        <v>0.0667</v>
       </c>
       <c r="D174">
-        <v>0.036</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3586,10 +3586,10 @@
         <v>0.1031</v>
       </c>
       <c r="C175">
-        <v>0.0707</v>
+        <v>0.0706</v>
       </c>
       <c r="D175">
-        <v>0.0324</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1039</v>
+        <v>0.1038</v>
       </c>
       <c r="C176">
-        <v>0.0746</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="D176">
-        <v>0.0293</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3614,7 +3614,7 @@
         <v>0.1045</v>
       </c>
       <c r="C177">
-        <v>0.0772</v>
+        <v>0.0771</v>
       </c>
       <c r="D177">
         <v>0.0273</v>
@@ -3628,10 +3628,10 @@
         <v>0.1065</v>
       </c>
       <c r="C178">
-        <v>0.0805</v>
+        <v>0.0804</v>
       </c>
       <c r="D178">
-        <v>0.026</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,10 +3639,10 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1087</v>
+        <v>0.1086</v>
       </c>
       <c r="C179">
-        <v>0.0837</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="D179">
         <v>0.025</v>
@@ -3656,7 +3656,7 @@
         <v>0.1114</v>
       </c>
       <c r="C180">
-        <v>0.08690000000000001</v>
+        <v>0.0868</v>
       </c>
       <c r="D180">
         <v>0.0245</v>
@@ -3673,7 +3673,7 @@
         <v>0.0892</v>
       </c>
       <c r="D181">
-        <v>0.0236</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3684,10 +3684,10 @@
         <v>0.1144</v>
       </c>
       <c r="C182">
-        <v>0.0917</v>
+        <v>0.0916</v>
       </c>
       <c r="D182">
-        <v>0.0227</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3698,7 +3698,7 @@
         <v>0.1163</v>
       </c>
       <c r="C183">
-        <v>0.09420000000000001</v>
+        <v>0.0941</v>
       </c>
       <c r="D183">
         <v>0.0222</v>
@@ -3709,10 +3709,10 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1194</v>
+        <v>0.1193</v>
       </c>
       <c r="C184">
-        <v>0.0973</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="D184">
         <v>0.0221</v>
@@ -3726,10 +3726,10 @@
         <v>0.1233</v>
       </c>
       <c r="C185">
-        <v>0.1011</v>
+        <v>0.101</v>
       </c>
       <c r="D185">
-        <v>0.0222</v>
+        <v>0.0223</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3740,10 +3740,10 @@
         <v>0.1284</v>
       </c>
       <c r="C186">
-        <v>0.1053</v>
+        <v>0.1051</v>
       </c>
       <c r="D186">
-        <v>0.0231</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1332</v>
+        <v>0.1331</v>
       </c>
       <c r="C187">
-        <v>0.1086</v>
+        <v>0.1085</v>
       </c>
       <c r="D187">
-        <v>0.0246</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3768,10 +3768,10 @@
         <v>0.1382</v>
       </c>
       <c r="C188">
-        <v>0.1118</v>
+        <v>0.1117</v>
       </c>
       <c r="D188">
-        <v>0.0264</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3782,10 +3782,10 @@
         <v>0.143</v>
       </c>
       <c r="C189">
-        <v>0.1149</v>
+        <v>0.1148</v>
       </c>
       <c r="D189">
-        <v>0.0281</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3796,10 +3796,10 @@
         <v>0.148</v>
       </c>
       <c r="C190">
-        <v>0.1181</v>
+        <v>0.118</v>
       </c>
       <c r="D190">
-        <v>0.0299</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3810,10 +3810,10 @@
         <v>0.152</v>
       </c>
       <c r="C191">
-        <v>0.1202</v>
+        <v>0.1201</v>
       </c>
       <c r="D191">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3824,10 +3824,10 @@
         <v>0.1563</v>
       </c>
       <c r="C192">
-        <v>0.1224</v>
+        <v>0.1223</v>
       </c>
       <c r="D192">
-        <v>0.0339</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3838,10 +3838,10 @@
         <v>0.1613</v>
       </c>
       <c r="C193">
-        <v>0.1253</v>
+        <v>0.1252</v>
       </c>
       <c r="D193">
-        <v>0.036</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3852,10 +3852,10 @@
         <v>0.1648</v>
       </c>
       <c r="C194">
-        <v>0.1267</v>
+        <v>0.1266</v>
       </c>
       <c r="D194">
-        <v>0.0381</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3866,10 +3866,10 @@
         <v>0.1657</v>
       </c>
       <c r="C195">
-        <v>0.1262</v>
+        <v>0.1261</v>
       </c>
       <c r="D195">
-        <v>0.0395</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3880,10 +3880,10 @@
         <v>0.1646</v>
       </c>
       <c r="C196">
-        <v>0.1238</v>
+        <v>0.1237</v>
       </c>
       <c r="D196">
-        <v>0.0408</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1628</v>
+        <v>0.1627</v>
       </c>
       <c r="C197">
-        <v>0.1216</v>
+        <v>0.1215</v>
       </c>
       <c r="D197">
-        <v>0.0411</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1618</v>
+        <v>0.1617</v>
       </c>
       <c r="C198">
-        <v>0.1206</v>
+        <v>0.1205</v>
       </c>
       <c r="D198">
-        <v>0.0412</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1606</v>
+        <v>0.1605</v>
       </c>
       <c r="C199">
-        <v>0.1194</v>
+        <v>0.1192</v>
       </c>
       <c r="D199">
-        <v>0.0412</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3936,10 +3936,10 @@
         <v>0.1591</v>
       </c>
       <c r="C200">
-        <v>0.1183</v>
+        <v>0.1182</v>
       </c>
       <c r="D200">
-        <v>0.0408</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3950,10 +3950,10 @@
         <v>0.1597</v>
       </c>
       <c r="C201">
-        <v>0.1181</v>
+        <v>0.1179</v>
       </c>
       <c r="D201">
-        <v>0.0416</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.1593</v>
+        <v>0.1592</v>
       </c>
       <c r="C202">
-        <v>0.1169</v>
+        <v>0.1168</v>
       </c>
       <c r="D202">
-        <v>0.0424</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3978,10 +3978,10 @@
         <v>0.1589</v>
       </c>
       <c r="C203">
-        <v>0.1159</v>
+        <v>0.1158</v>
       </c>
       <c r="D203">
-        <v>0.0429</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3992,10 +3992,10 @@
         <v>0.1583</v>
       </c>
       <c r="C204">
-        <v>0.1148</v>
+        <v>0.1147</v>
       </c>
       <c r="D204">
-        <v>0.0435</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.1574</v>
+        <v>0.1575</v>
       </c>
       <c r="C205">
-        <v>0.1135</v>
+        <v>0.1133</v>
       </c>
       <c r="D205">
-        <v>0.044</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.1556</v>
+        <v>0.1557</v>
       </c>
       <c r="C206">
-        <v>0.1119</v>
+        <v>0.1118</v>
       </c>
       <c r="D206">
-        <v>0.0437</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4034,10 +4034,10 @@
         <v>0.1536</v>
       </c>
       <c r="C207">
-        <v>0.1104</v>
+        <v>0.1103</v>
       </c>
       <c r="D207">
-        <v>0.0431</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4048,10 +4048,10 @@
         <v>0.1516</v>
       </c>
       <c r="C208">
-        <v>0.1091</v>
+        <v>0.1089</v>
       </c>
       <c r="D208">
-        <v>0.0425</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4062,10 +4062,10 @@
         <v>0.1479</v>
       </c>
       <c r="C209">
-        <v>0.106</v>
+        <v>0.1059</v>
       </c>
       <c r="D209">
-        <v>0.0419</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4076,10 +4076,10 @@
         <v>0.144</v>
       </c>
       <c r="C210">
-        <v>0.1028</v>
+        <v>0.1026</v>
       </c>
       <c r="D210">
-        <v>0.0412</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.1403</v>
+        <v>0.1404</v>
       </c>
       <c r="C211">
-        <v>0.0998</v>
+        <v>0.0997</v>
       </c>
       <c r="D211">
-        <v>0.0405</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4104,10 +4104,10 @@
         <v>0.1379</v>
       </c>
       <c r="C212">
-        <v>0.0974</v>
+        <v>0.0973</v>
       </c>
       <c r="D212">
-        <v>0.0405</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.1366</v>
+        <v>0.1367</v>
       </c>
       <c r="C213">
-        <v>0.0958</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="D213">
-        <v>0.0408</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4132,10 +4132,10 @@
         <v>0.1347</v>
       </c>
       <c r="C214">
-        <v>0.0935</v>
+        <v>0.0934</v>
       </c>
       <c r="D214">
-        <v>0.0412</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.134</v>
+        <v>0.1341</v>
       </c>
       <c r="C215">
-        <v>0.0921</v>
+        <v>0.092</v>
       </c>
       <c r="D215">
-        <v>0.042</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.1367</v>
+        <v>0.1368</v>
       </c>
       <c r="C216">
-        <v>0.09320000000000001</v>
+        <v>0.0931</v>
       </c>
       <c r="D216">
-        <v>0.0435</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.1419</v>
+        <v>0.142</v>
       </c>
       <c r="C217">
-        <v>0.096</v>
+        <v>0.0959</v>
       </c>
       <c r="D217">
-        <v>0.046</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.1462</v>
+        <v>0.1463</v>
       </c>
       <c r="C218">
-        <v>0.0973</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="D218">
-        <v>0.0489</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.1509</v>
+        <v>0.151</v>
       </c>
       <c r="C219">
-        <v>0.0988</v>
+        <v>0.0987</v>
       </c>
       <c r="D219">
-        <v>0.0521</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.1553</v>
+        <v>0.1554</v>
       </c>
       <c r="C220">
-        <v>0.0997</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="D220">
-        <v>0.0556</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.1589</v>
+        <v>0.1591</v>
       </c>
       <c r="C221">
-        <v>0.1007</v>
+        <v>0.1006</v>
       </c>
       <c r="D221">
-        <v>0.0582</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.164</v>
+        <v>0.1641</v>
       </c>
       <c r="C222">
-        <v>0.1019</v>
+        <v>0.1018</v>
       </c>
       <c r="D222">
-        <v>0.0621</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.1694</v>
+        <v>0.1696</v>
       </c>
       <c r="C223">
-        <v>0.1032</v>
+        <v>0.1031</v>
       </c>
       <c r="D223">
-        <v>0.06619999999999999</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.1745</v>
+        <v>0.1746</v>
       </c>
       <c r="C224">
-        <v>0.1036</v>
+        <v>0.1035</v>
       </c>
       <c r="D224">
-        <v>0.0709</v>
+        <v>0.0712</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.1819</v>
+        <v>0.1821</v>
       </c>
       <c r="C225">
-        <v>0.1053</v>
+        <v>0.1052</v>
       </c>
       <c r="D225">
-        <v>0.0766</v>
+        <v>0.07679999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.1896</v>
+        <v>0.1897</v>
       </c>
       <c r="C226">
-        <v>0.1073</v>
+        <v>0.1072</v>
       </c>
       <c r="D226">
-        <v>0.0823</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.1986</v>
+        <v>0.1988</v>
       </c>
       <c r="C227">
-        <v>0.1103</v>
+        <v>0.1102</v>
       </c>
       <c r="D227">
-        <v>0.0883</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2079</v>
+        <v>0.2081</v>
       </c>
       <c r="C228">
-        <v>0.1138</v>
+        <v>0.1137</v>
       </c>
       <c r="D228">
-        <v>0.0941</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.2179</v>
+        <v>0.218</v>
       </c>
       <c r="C229">
-        <v>0.118</v>
+        <v>0.1179</v>
       </c>
       <c r="D229">
-        <v>0.0998</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2281</v>
+        <v>0.2283</v>
       </c>
       <c r="C230">
-        <v>0.1227</v>
+        <v>0.1226</v>
       </c>
       <c r="D230">
-        <v>0.1054</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2396</v>
+        <v>0.2397</v>
       </c>
       <c r="C231">
-        <v>0.1288</v>
+        <v>0.1287</v>
       </c>
       <c r="D231">
-        <v>0.1108</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.25</v>
+        <v>0.2502</v>
       </c>
       <c r="C232">
-        <v>0.1346</v>
+        <v>0.1345</v>
       </c>
       <c r="D232">
-        <v>0.1154</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2602</v>
+        <v>0.2604</v>
       </c>
       <c r="C233">
-        <v>0.1406</v>
+        <v>0.1405</v>
       </c>
       <c r="D233">
-        <v>0.1196</v>
+        <v>0.1199</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2697</v>
+        <v>0.2699</v>
       </c>
       <c r="C234">
-        <v>0.1463</v>
+        <v>0.1462</v>
       </c>
       <c r="D234">
-        <v>0.1234</v>
+        <v>0.1237</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.2789</v>
+        <v>0.279</v>
       </c>
       <c r="C235">
-        <v>0.1521</v>
+        <v>0.152</v>
       </c>
       <c r="D235">
-        <v>0.1268</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2875</v>
+        <v>0.2877</v>
       </c>
       <c r="C236">
-        <v>0.1571</v>
+        <v>0.157</v>
       </c>
       <c r="D236">
-        <v>0.1304</v>
+        <v>0.1307</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2941</v>
+        <v>0.2943</v>
       </c>
       <c r="C237">
-        <v>0.161</v>
+        <v>0.1609</v>
       </c>
       <c r="D237">
-        <v>0.1331</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.3009</v>
+        <v>0.301</v>
       </c>
       <c r="C238">
-        <v>0.1659</v>
+        <v>0.1658</v>
       </c>
       <c r="D238">
-        <v>0.135</v>
+        <v>0.1353</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3067</v>
+        <v>0.3069</v>
       </c>
       <c r="C239">
         <v>0.1698</v>
       </c>
       <c r="D239">
-        <v>0.1368</v>
+        <v>0.1371</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3161</v>
+        <v>0.3163</v>
       </c>
       <c r="C240">
-        <v>0.1751</v>
+        <v>0.175</v>
       </c>
       <c r="D240">
-        <v>0.141</v>
+        <v>0.1413</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3247</v>
+        <v>0.3249</v>
       </c>
       <c r="C241">
-        <v>0.18</v>
+        <v>0.1799</v>
       </c>
       <c r="D241">
-        <v>0.1447</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3311</v>
+        <v>0.3313</v>
       </c>
       <c r="C242">
-        <v>0.184</v>
+        <v>0.1839</v>
       </c>
       <c r="D242">
-        <v>0.1472</v>
+        <v>0.1475</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3373</v>
+        <v>0.3375</v>
       </c>
       <c r="C243">
         <v>0.188</v>
       </c>
       <c r="D243">
-        <v>0.1493</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3434</v>
+        <v>0.3436</v>
       </c>
       <c r="C244">
-        <v>0.1925</v>
+        <v>0.1924</v>
       </c>
       <c r="D244">
-        <v>0.1509</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3464</v>
+        <v>0.3467</v>
       </c>
       <c r="C245">
         <v>0.195</v>
       </c>
       <c r="D245">
-        <v>0.1514</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3486</v>
+        <v>0.3488</v>
       </c>
       <c r="C246">
-        <v>0.1967</v>
+        <v>0.1966</v>
       </c>
       <c r="D246">
-        <v>0.1519</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3495</v>
+        <v>0.3497</v>
       </c>
       <c r="C247">
-        <v>0.1972</v>
+        <v>0.1971</v>
       </c>
       <c r="D247">
-        <v>0.1523</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3492</v>
+        <v>0.3494</v>
       </c>
       <c r="C248">
         <v>0.1964</v>
       </c>
       <c r="D248">
-        <v>0.1527</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3494</v>
+        <v>0.3496</v>
       </c>
       <c r="C249">
         <v>0.1962</v>
       </c>
       <c r="D249">
-        <v>0.1532</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3496</v>
+        <v>0.3498</v>
       </c>
       <c r="C250">
-        <v>0.1959</v>
+        <v>0.1958</v>
       </c>
       <c r="D250">
-        <v>0.1537</v>
+        <v>0.1539</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3503</v>
+        <v>0.3505</v>
       </c>
       <c r="C251">
-        <v>0.1945</v>
+        <v>0.1944</v>
       </c>
       <c r="D251">
-        <v>0.1558</v>
+        <v>0.1561</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.351</v>
+        <v>0.3512</v>
       </c>
       <c r="C252">
         <v>0.1928</v>
       </c>
       <c r="D252">
-        <v>0.1581</v>
+        <v>0.1584</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2009 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2009 - Diaria.xlsx
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6382</v>
+        <v>0.6385</v>
       </c>
       <c r="C2">
-        <v>0.2567</v>
+        <v>0.257</v>
       </c>
       <c r="D2">
         <v>0.3815</v>
@@ -1175,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.6294999999999999</v>
+        <v>0.6298</v>
       </c>
       <c r="C3">
-        <v>0.2474</v>
+        <v>0.2477</v>
       </c>
       <c r="D3">
         <v>0.3821</v>
@@ -1189,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6264999999999999</v>
+        <v>0.6268</v>
       </c>
       <c r="C4">
-        <v>0.2437</v>
+        <v>0.244</v>
       </c>
       <c r="D4">
         <v>0.3828</v>
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.6172</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C5">
-        <v>0.2338</v>
+        <v>0.2341</v>
       </c>
       <c r="D5">
-        <v>0.3834</v>
+        <v>0.3833</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6171</v>
+        <v>0.6172</v>
       </c>
       <c r="C6">
-        <v>0.232</v>
+        <v>0.2322</v>
       </c>
       <c r="D6">
-        <v>0.3851</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1234,10 +1234,10 @@
         <v>0.615</v>
       </c>
       <c r="C7">
-        <v>0.2286</v>
+        <v>0.2288</v>
       </c>
       <c r="D7">
-        <v>0.3864</v>
+        <v>0.3863</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1248,10 +1248,10 @@
         <v>0.6136</v>
       </c>
       <c r="C8">
-        <v>0.2253</v>
+        <v>0.2255</v>
       </c>
       <c r="D8">
-        <v>0.3883</v>
+        <v>0.3881</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1262,10 +1262,10 @@
         <v>0.6153999999999999</v>
       </c>
       <c r="C9">
-        <v>0.2247</v>
+        <v>0.2248</v>
       </c>
       <c r="D9">
-        <v>0.3908</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.6176</v>
+        <v>0.6175</v>
       </c>
       <c r="C10">
-        <v>0.2248</v>
+        <v>0.2249</v>
       </c>
       <c r="D10">
-        <v>0.3928</v>
+        <v>0.3926</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.6194</v>
+        <v>0.6193</v>
       </c>
       <c r="C11">
-        <v>0.2246</v>
+        <v>0.2247</v>
       </c>
       <c r="D11">
-        <v>0.3948</v>
+        <v>0.3946</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.6217</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="C12">
         <v>0.2253</v>
       </c>
       <c r="D12">
-        <v>0.3964</v>
+        <v>0.3962</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.6254999999999999</v>
+        <v>0.6253</v>
       </c>
       <c r="C13">
         <v>0.2286</v>
       </c>
       <c r="D13">
-        <v>0.3969</v>
+        <v>0.3966</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.6293</v>
+        <v>0.6291</v>
       </c>
       <c r="C14">
         <v>0.2314</v>
       </c>
       <c r="D14">
-        <v>0.3979</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.631</v>
+        <v>0.6308</v>
       </c>
       <c r="C15">
         <v>0.2323</v>
       </c>
       <c r="D15">
-        <v>0.3987</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.6307</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="C16">
         <v>0.2318</v>
       </c>
       <c r="D16">
-        <v>0.3989</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.6315</v>
+        <v>0.6313</v>
       </c>
       <c r="C17">
         <v>0.2326</v>
       </c>
       <c r="D17">
-        <v>0.3988</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.633</v>
+        <v>0.6328</v>
       </c>
       <c r="C18">
-        <v>0.2342</v>
+        <v>0.2341</v>
       </c>
       <c r="D18">
-        <v>0.3988</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.6323</v>
+        <v>0.6321</v>
       </c>
       <c r="C19">
-        <v>0.2334</v>
+        <v>0.2333</v>
       </c>
       <c r="D19">
-        <v>0.3989</v>
+        <v>0.3988</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1413,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.6331</v>
+        <v>0.6329</v>
       </c>
       <c r="C20">
-        <v>0.234</v>
+        <v>0.2339</v>
       </c>
       <c r="D20">
         <v>0.399</v>
@@ -1427,10 +1427,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.6353</v>
+        <v>0.6351</v>
       </c>
       <c r="C21">
-        <v>0.2362</v>
+        <v>0.2361</v>
       </c>
       <c r="D21">
         <v>0.3991</v>
@@ -1441,10 +1441,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.6375999999999999</v>
+        <v>0.6374</v>
       </c>
       <c r="C22">
-        <v>0.2386</v>
+        <v>0.2385</v>
       </c>
       <c r="D22">
         <v>0.3989</v>
@@ -1455,10 +1455,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.6391</v>
+        <v>0.639</v>
       </c>
       <c r="C23">
-        <v>0.2409</v>
+        <v>0.2408</v>
       </c>
       <c r="D23">
         <v>0.3982</v>
@@ -1469,10 +1469,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.6374</v>
+        <v>0.6373</v>
       </c>
       <c r="C24">
-        <v>0.2389</v>
+        <v>0.2388</v>
       </c>
       <c r="D24">
         <v>0.3985</v>
@@ -1483,13 +1483,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.6424</v>
+        <v>0.6421</v>
       </c>
       <c r="C25">
-        <v>0.2421</v>
+        <v>0.2419</v>
       </c>
       <c r="D25">
-        <v>0.4003</v>
+        <v>0.4002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1497,10 +1497,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.6398</v>
+        <v>0.6395999999999999</v>
       </c>
       <c r="C26">
-        <v>0.2391</v>
+        <v>0.2389</v>
       </c>
       <c r="D26">
         <v>0.4007</v>
@@ -1511,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.6385</v>
+        <v>0.6382</v>
       </c>
       <c r="C27">
-        <v>0.2374</v>
+        <v>0.2372</v>
       </c>
       <c r="D27">
-        <v>0.4011</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1525,10 +1525,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.6348</v>
+        <v>0.6346000000000001</v>
       </c>
       <c r="C28">
-        <v>0.2342</v>
+        <v>0.234</v>
       </c>
       <c r="D28">
         <v>0.4006</v>
@@ -1539,10 +1539,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.6292</v>
+        <v>0.6289</v>
       </c>
       <c r="C29">
-        <v>0.2299</v>
+        <v>0.2297</v>
       </c>
       <c r="D29">
         <v>0.3993</v>
@@ -1553,10 +1553,10 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.621</v>
+        <v>0.6208</v>
       </c>
       <c r="C30">
-        <v>0.2233</v>
+        <v>0.2231</v>
       </c>
       <c r="D30">
         <v>0.3977</v>
@@ -1567,13 +1567,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.6135</v>
+        <v>0.6133999999999999</v>
       </c>
       <c r="C31">
-        <v>0.2174</v>
+        <v>0.2172</v>
       </c>
       <c r="D31">
-        <v>0.3961</v>
+        <v>0.3962</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.6026</v>
+        <v>0.6024</v>
       </c>
       <c r="C32">
-        <v>0.211</v>
+        <v>0.2108</v>
       </c>
       <c r="D32">
-        <v>0.3916</v>
+        <v>0.3917</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.5964</v>
+        <v>0.5963000000000001</v>
       </c>
       <c r="C33">
-        <v>0.2077</v>
+        <v>0.2074</v>
       </c>
       <c r="D33">
-        <v>0.3887</v>
+        <v>0.3888</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.5881999999999999</v>
+        <v>0.5881</v>
       </c>
       <c r="C34">
-        <v>0.203</v>
+        <v>0.2027</v>
       </c>
       <c r="D34">
-        <v>0.3853</v>
+        <v>0.3854</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.5818</v>
+        <v>0.5817</v>
       </c>
       <c r="C35">
-        <v>0.2003</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
-        <v>0.3816</v>
+        <v>0.3817</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1640,10 +1640,10 @@
         <v>0.5769</v>
       </c>
       <c r="C36">
-        <v>0.1989</v>
+        <v>0.1986</v>
       </c>
       <c r="D36">
-        <v>0.3781</v>
+        <v>0.3782</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.5724</v>
+        <v>0.5723</v>
       </c>
       <c r="C37">
-        <v>0.1979</v>
+        <v>0.1976</v>
       </c>
       <c r="D37">
-        <v>0.3745</v>
+        <v>0.3747</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.5719</v>
+        <v>0.5718</v>
       </c>
       <c r="C38">
-        <v>0.2004</v>
+        <v>0.2001</v>
       </c>
       <c r="D38">
-        <v>0.3715</v>
+        <v>0.3716</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.5669</v>
+        <v>0.5668</v>
       </c>
       <c r="C39">
-        <v>0.199</v>
+        <v>0.1987</v>
       </c>
       <c r="D39">
-        <v>0.3679</v>
+        <v>0.3681</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.5666</v>
+        <v>0.5664</v>
       </c>
       <c r="C40">
-        <v>0.2008</v>
+        <v>0.2005</v>
       </c>
       <c r="D40">
-        <v>0.3658</v>
+        <v>0.3659</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.5623</v>
+        <v>0.5621</v>
       </c>
       <c r="C41">
-        <v>0.1996</v>
+        <v>0.1993</v>
       </c>
       <c r="D41">
-        <v>0.3627</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.5562</v>
+        <v>0.556</v>
       </c>
       <c r="C42">
-        <v>0.1968</v>
+        <v>0.1965</v>
       </c>
       <c r="D42">
-        <v>0.3594</v>
+        <v>0.3595</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.5535</v>
+        <v>0.5533</v>
       </c>
       <c r="C43">
-        <v>0.1975</v>
+        <v>0.1972</v>
       </c>
       <c r="D43">
-        <v>0.356</v>
+        <v>0.3561</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.5417</v>
+        <v>0.5416</v>
       </c>
       <c r="C44">
-        <v>0.1914</v>
+        <v>0.1911</v>
       </c>
       <c r="D44">
-        <v>0.3503</v>
+        <v>0.3505</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.5285</v>
+        <v>0.5284</v>
       </c>
       <c r="C45">
-        <v>0.1855</v>
+        <v>0.1852</v>
       </c>
       <c r="D45">
-        <v>0.3429</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1780,10 +1780,10 @@
         <v>0.5171</v>
       </c>
       <c r="C46">
-        <v>0.1819</v>
+        <v>0.1816</v>
       </c>
       <c r="D46">
-        <v>0.3351</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.5059</v>
+        <v>0.506</v>
       </c>
       <c r="C47">
-        <v>0.1783</v>
+        <v>0.1781</v>
       </c>
       <c r="D47">
-        <v>0.3275</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.4939</v>
+        <v>0.4942</v>
       </c>
       <c r="C48">
-        <v>0.1743</v>
+        <v>0.174</v>
       </c>
       <c r="D48">
-        <v>0.3197</v>
+        <v>0.3202</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.4821</v>
+        <v>0.4823</v>
       </c>
       <c r="C49">
-        <v>0.17</v>
+        <v>0.1697</v>
       </c>
       <c r="D49">
-        <v>0.3121</v>
+        <v>0.3126</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.4716</v>
+        <v>0.4719</v>
       </c>
       <c r="C50">
-        <v>0.167</v>
+        <v>0.1668</v>
       </c>
       <c r="D50">
-        <v>0.3047</v>
+        <v>0.3052</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.4583</v>
+        <v>0.4586</v>
       </c>
       <c r="C51">
-        <v>0.1618</v>
+        <v>0.1616</v>
       </c>
       <c r="D51">
-        <v>0.2965</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.4469</v>
+        <v>0.4473</v>
       </c>
       <c r="C52">
-        <v>0.1568</v>
+        <v>0.1566</v>
       </c>
       <c r="D52">
-        <v>0.2901</v>
+        <v>0.2906</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.4297</v>
+        <v>0.4301</v>
       </c>
       <c r="C53">
-        <v>0.1478</v>
+        <v>0.1476</v>
       </c>
       <c r="D53">
-        <v>0.2819</v>
+        <v>0.2824</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.4176</v>
+        <v>0.4179</v>
       </c>
       <c r="C54">
-        <v>0.1409</v>
+        <v>0.1408</v>
       </c>
       <c r="D54">
-        <v>0.2767</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.4088</v>
+        <v>0.4089</v>
       </c>
       <c r="C55">
-        <v>0.1324</v>
+        <v>0.1323</v>
       </c>
       <c r="D55">
-        <v>0.2764</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>0.4043</v>
       </c>
       <c r="C56">
-        <v>0.127</v>
+        <v>0.1269</v>
       </c>
       <c r="D56">
-        <v>0.2773</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>0.399</v>
       </c>
       <c r="C57">
-        <v>0.1217</v>
+        <v>0.1216</v>
       </c>
       <c r="D57">
         <v>0.2774</v>
@@ -1945,7 +1945,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.3913</v>
+        <v>0.3912</v>
       </c>
       <c r="C58">
         <v>0.1139</v>
@@ -1959,13 +1959,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.3858</v>
+        <v>0.3857</v>
       </c>
       <c r="C59">
-        <v>0.1092</v>
+        <v>0.1091</v>
       </c>
       <c r="D59">
-        <v>0.2766</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.3765</v>
+        <v>0.3764</v>
       </c>
       <c r="C60">
         <v>0.1026</v>
       </c>
       <c r="D60">
-        <v>0.2739</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2001,10 +2001,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3627</v>
+        <v>0.3628</v>
       </c>
       <c r="C62">
-        <v>0.095</v>
+        <v>0.0951</v>
       </c>
       <c r="D62">
         <v>0.2677</v>
@@ -2015,7 +2015,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3534</v>
+        <v>0.3535</v>
       </c>
       <c r="C63">
         <v>0.08939999999999999</v>
@@ -2029,13 +2029,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3461</v>
+        <v>0.3463</v>
       </c>
       <c r="C64">
-        <v>0.0861</v>
+        <v>0.0862</v>
       </c>
       <c r="D64">
-        <v>0.26</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3365</v>
+        <v>0.3367</v>
       </c>
       <c r="C65">
-        <v>0.08110000000000001</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="D65">
-        <v>0.2554</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.3251</v>
+        <v>0.3255</v>
       </c>
       <c r="C66">
         <v>0.0752</v>
       </c>
       <c r="D66">
-        <v>0.25</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.3137</v>
+        <v>0.3141</v>
       </c>
       <c r="C67">
-        <v>0.0693</v>
+        <v>0.0694</v>
       </c>
       <c r="D67">
-        <v>0.2444</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.3035</v>
+        <v>0.304</v>
       </c>
       <c r="C68">
-        <v>0.064</v>
+        <v>0.0641</v>
       </c>
       <c r="D68">
-        <v>0.2395</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.2917</v>
+        <v>0.2923</v>
       </c>
       <c r="C69">
-        <v>0.0578</v>
+        <v>0.0579</v>
       </c>
       <c r="D69">
-        <v>0.2338</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.283</v>
+        <v>0.2838</v>
       </c>
       <c r="C70">
-        <v>0.0539</v>
+        <v>0.054</v>
       </c>
       <c r="D70">
-        <v>0.2291</v>
+        <v>0.2298</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.2744</v>
+        <v>0.2752</v>
       </c>
       <c r="C71">
-        <v>0.0498</v>
+        <v>0.0499</v>
       </c>
       <c r="D71">
-        <v>0.2246</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.2682</v>
+        <v>0.2691</v>
       </c>
       <c r="C72">
         <v>0.0475</v>
       </c>
       <c r="D72">
-        <v>0.2207</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2611</v>
+        <v>0.2621</v>
       </c>
       <c r="C73">
-        <v>0.045</v>
+        <v>0.0451</v>
       </c>
       <c r="D73">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.2514</v>
+        <v>0.2526</v>
       </c>
       <c r="C74">
-        <v>0.0426</v>
+        <v>0.0427</v>
       </c>
       <c r="D74">
-        <v>0.2088</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.2386</v>
+        <v>0.24</v>
       </c>
       <c r="C75">
-        <v>0.0421</v>
+        <v>0.0422</v>
       </c>
       <c r="D75">
-        <v>0.1965</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.2204</v>
+        <v>0.2221</v>
       </c>
       <c r="C76">
-        <v>0.0378</v>
+        <v>0.0379</v>
       </c>
       <c r="D76">
-        <v>0.1825</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.2034</v>
+        <v>0.2052</v>
       </c>
       <c r="C77">
         <v>0.0336</v>
       </c>
       <c r="D77">
-        <v>0.1698</v>
+        <v>0.1716</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.184</v>
+        <v>0.186</v>
       </c>
       <c r="C78">
-        <v>0.0277</v>
+        <v>0.0278</v>
       </c>
       <c r="D78">
-        <v>0.1563</v>
+        <v>0.1582</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1679</v>
+        <v>0.1701</v>
       </c>
       <c r="C79">
-        <v>0.0243</v>
+        <v>0.0244</v>
       </c>
       <c r="D79">
-        <v>0.1436</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1514</v>
+        <v>0.1536</v>
       </c>
       <c r="C80">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="D80">
-        <v>0.1315</v>
+        <v>0.1337</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1354</v>
+        <v>0.1377</v>
       </c>
       <c r="C81">
-        <v>0.0154</v>
+        <v>0.0155</v>
       </c>
       <c r="D81">
-        <v>0.12</v>
+        <v>0.1223</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1215</v>
+        <v>0.1239</v>
       </c>
       <c r="C82">
-        <v>0.0124</v>
+        <v>0.0125</v>
       </c>
       <c r="D82">
-        <v>0.1091</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1083</v>
+        <v>0.1107</v>
       </c>
       <c r="C83">
-        <v>0.008999999999999999</v>
+        <v>0.0091</v>
       </c>
       <c r="D83">
-        <v>0.0993</v>
+        <v>0.1016</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1002</v>
+        <v>0.1026</v>
       </c>
       <c r="C84">
-        <v>0.0092</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="D84">
-        <v>0.09089999999999999</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.09429999999999999</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="C85">
-        <v>0.0107</v>
+        <v>0.0108</v>
       </c>
       <c r="D85">
-        <v>0.08359999999999999</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.0892</v>
+        <v>0.0916</v>
       </c>
       <c r="C86">
-        <v>0.0119</v>
+        <v>0.0121</v>
       </c>
       <c r="D86">
-        <v>0.07729999999999999</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.0852</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C87">
-        <v>0.0134</v>
+        <v>0.0135</v>
       </c>
       <c r="D87">
-        <v>0.0718</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.0824</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="C88">
-        <v>0.0152</v>
+        <v>0.0154</v>
       </c>
       <c r="D88">
-        <v>0.0672</v>
+        <v>0.0692</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.0803</v>
+        <v>0.0824</v>
       </c>
       <c r="C89">
-        <v>0.017</v>
+        <v>0.0171</v>
       </c>
       <c r="D89">
-        <v>0.0633</v>
+        <v>0.06519999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.0751</v>
+        <v>0.077</v>
       </c>
       <c r="C90">
-        <v>0.0167</v>
+        <v>0.0168</v>
       </c>
       <c r="D90">
-        <v>0.0584</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.07099999999999999</v>
+        <v>0.0728</v>
       </c>
       <c r="C91">
-        <v>0.0173</v>
+        <v>0.0174</v>
       </c>
       <c r="D91">
-        <v>0.0537</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0672</v>
+        <v>0.0689</v>
       </c>
       <c r="C92">
-        <v>0.0185</v>
+        <v>0.0186</v>
       </c>
       <c r="D92">
-        <v>0.0487</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.0638</v>
+        <v>0.0655</v>
       </c>
       <c r="C93">
-        <v>0.0197</v>
+        <v>0.0198</v>
       </c>
       <c r="D93">
-        <v>0.0441</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.0603</v>
+        <v>0.0619</v>
       </c>
       <c r="C94">
-        <v>0.0206</v>
+        <v>0.0207</v>
       </c>
       <c r="D94">
-        <v>0.0397</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.0583</v>
+        <v>0.0598</v>
       </c>
       <c r="C95">
-        <v>0.0222</v>
+        <v>0.0224</v>
       </c>
       <c r="D95">
-        <v>0.0361</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.0575</v>
+        <v>0.0588</v>
       </c>
       <c r="C96">
-        <v>0.0239</v>
+        <v>0.0241</v>
       </c>
       <c r="D96">
-        <v>0.0336</v>
+        <v>0.0348</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0577</v>
+        <v>0.0589</v>
       </c>
       <c r="C97">
-        <v>0.026</v>
+        <v>0.0262</v>
       </c>
       <c r="D97">
-        <v>0.0317</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.0589</v>
+        <v>0.0599</v>
       </c>
       <c r="C98">
-        <v>0.0287</v>
+        <v>0.0288</v>
       </c>
       <c r="D98">
-        <v>0.0302</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.0607</v>
+        <v>0.0617</v>
       </c>
       <c r="C99">
-        <v>0.0318</v>
+        <v>0.0319</v>
       </c>
       <c r="D99">
-        <v>0.029</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.06279999999999999</v>
+        <v>0.0636</v>
       </c>
       <c r="C100">
-        <v>0.035</v>
+        <v>0.0352</v>
       </c>
       <c r="D100">
-        <v>0.0278</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.06320000000000001</v>
+        <v>0.0639</v>
       </c>
       <c r="C101">
-        <v>0.0369</v>
+        <v>0.037</v>
       </c>
       <c r="D101">
-        <v>0.0263</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.0629</v>
+        <v>0.0635</v>
       </c>
       <c r="C102">
-        <v>0.038</v>
+        <v>0.0381</v>
       </c>
       <c r="D102">
-        <v>0.0249</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.0625</v>
+        <v>0.063</v>
       </c>
       <c r="C103">
-        <v>0.0388</v>
+        <v>0.039</v>
       </c>
       <c r="D103">
-        <v>0.0236</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.0626</v>
+        <v>0.063</v>
       </c>
       <c r="C104">
-        <v>0.0402</v>
+        <v>0.0404</v>
       </c>
       <c r="D104">
-        <v>0.0224</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.0609</v>
+        <v>0.0612</v>
       </c>
       <c r="C105">
-        <v>0.04</v>
+        <v>0.0402</v>
       </c>
       <c r="D105">
-        <v>0.0208</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.0603</v>
+        <v>0.0606</v>
       </c>
       <c r="C106">
-        <v>0.0408</v>
+        <v>0.0409</v>
       </c>
       <c r="D106">
-        <v>0.0195</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.0589</v>
+        <v>0.0591</v>
       </c>
       <c r="C107">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
       <c r="D107">
-        <v>0.0182</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.0572</v>
+        <v>0.0574</v>
       </c>
       <c r="C108">
-        <v>0.0415</v>
+        <v>0.0416</v>
       </c>
       <c r="D108">
-        <v>0.0157</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.054</v>
+        <v>0.0542</v>
       </c>
       <c r="C109">
-        <v>0.0405</v>
+        <v>0.0407</v>
       </c>
       <c r="D109">
-        <v>0.0135</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2673,10 +2673,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.0516</v>
+        <v>0.0518</v>
       </c>
       <c r="C110">
-        <v>0.0396</v>
+        <v>0.0397</v>
       </c>
       <c r="D110">
         <v>0.012</v>
@@ -2687,13 +2687,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.0494</v>
+        <v>0.0496</v>
       </c>
       <c r="C111">
-        <v>0.0386</v>
+        <v>0.0387</v>
       </c>
       <c r="D111">
-        <v>0.0108</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2701,10 +2701,10 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.0472</v>
+        <v>0.0473</v>
       </c>
       <c r="C112">
-        <v>0.0374</v>
+        <v>0.0376</v>
       </c>
       <c r="D112">
         <v>0.0097</v>
@@ -2715,10 +2715,10 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.0449</v>
+        <v>0.045</v>
       </c>
       <c r="C113">
-        <v>0.0361</v>
+        <v>0.0362</v>
       </c>
       <c r="D113">
         <v>0.008800000000000001</v>
@@ -2729,13 +2729,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.0456</v>
+        <v>0.0457</v>
       </c>
       <c r="C114">
-        <v>0.0367</v>
+        <v>0.0368</v>
       </c>
       <c r="D114">
-        <v>0.0089</v>
+        <v>0.008800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2746,10 +2746,10 @@
         <v>0.0444</v>
       </c>
       <c r="C115">
-        <v>0.0357</v>
+        <v>0.0358</v>
       </c>
       <c r="D115">
-        <v>0.008699999999999999</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2760,7 +2760,7 @@
         <v>0.043</v>
       </c>
       <c r="C116">
-        <v>0.0348</v>
+        <v>0.0349</v>
       </c>
       <c r="D116">
         <v>0.008200000000000001</v>
@@ -2771,10 +2771,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.0416</v>
+        <v>0.0417</v>
       </c>
       <c r="C117">
-        <v>0.0339</v>
+        <v>0.034</v>
       </c>
       <c r="D117">
         <v>0.0077</v>
@@ -2788,7 +2788,7 @@
         <v>0.0434</v>
       </c>
       <c r="C118">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="D118">
         <v>0.008200000000000001</v>
@@ -2805,7 +2805,7 @@
         <v>0.0364</v>
       </c>
       <c r="D119">
-        <v>0.0091</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.0473</v>
+        <v>0.0472</v>
       </c>
       <c r="C120">
         <v>0.037</v>
       </c>
       <c r="D120">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.0509</v>
+        <v>0.0507</v>
       </c>
       <c r="C121">
         <v>0.039</v>
       </c>
       <c r="D121">
-        <v>0.0118</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.0557</v>
+        <v>0.0555</v>
       </c>
       <c r="C122">
         <v>0.0419</v>
       </c>
       <c r="D122">
-        <v>0.0138</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.0591</v>
+        <v>0.0589</v>
       </c>
       <c r="C123">
         <v>0.0437</v>
       </c>
       <c r="D123">
-        <v>0.0154</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.0636</v>
+        <v>0.0633</v>
       </c>
       <c r="C124">
-        <v>0.0461</v>
+        <v>0.046</v>
       </c>
       <c r="D124">
-        <v>0.0175</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.067</v>
+        <v>0.0667</v>
       </c>
       <c r="C125">
-        <v>0.0473</v>
+        <v>0.0472</v>
       </c>
       <c r="D125">
-        <v>0.0197</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.0699</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="C126">
-        <v>0.0481</v>
+        <v>0.048</v>
       </c>
       <c r="D126">
-        <v>0.0218</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.07290000000000001</v>
+        <v>0.0725</v>
       </c>
       <c r="C127">
-        <v>0.0491</v>
+        <v>0.049</v>
       </c>
       <c r="D127">
-        <v>0.0238</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.0736</v>
+        <v>0.073</v>
       </c>
       <c r="C128">
-        <v>0.0479</v>
+        <v>0.0477</v>
       </c>
       <c r="D128">
-        <v>0.0257</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.07820000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="C129">
-        <v>0.0502</v>
+        <v>0.05</v>
       </c>
       <c r="D129">
-        <v>0.028</v>
+        <v>0.0277</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.083</v>
+        <v>0.0824</v>
       </c>
       <c r="C130">
-        <v>0.0527</v>
+        <v>0.0524</v>
       </c>
       <c r="D130">
-        <v>0.0304</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.0887</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C131">
-        <v>0.0554</v>
+        <v>0.0552</v>
       </c>
       <c r="D131">
-        <v>0.0333</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.0941</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="C132">
-        <v>0.0576</v>
+        <v>0.0573</v>
       </c>
       <c r="D132">
-        <v>0.0365</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.1005</v>
+        <v>0.0997</v>
       </c>
       <c r="C133">
-        <v>0.0604</v>
+        <v>0.0602</v>
       </c>
       <c r="D133">
-        <v>0.04</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.1041</v>
+        <v>0.1032</v>
       </c>
       <c r="C134">
-        <v>0.0603</v>
+        <v>0.06</v>
       </c>
       <c r="D134">
-        <v>0.0438</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="C135">
-        <v>0.0607</v>
+        <v>0.0604</v>
       </c>
       <c r="D135">
-        <v>0.0473</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.1114</v>
+        <v>0.1105</v>
       </c>
       <c r="C136">
-        <v>0.061</v>
+        <v>0.0607</v>
       </c>
       <c r="D136">
-        <v>0.0504</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.1149</v>
+        <v>0.1139</v>
       </c>
       <c r="C137">
-        <v>0.0616</v>
+        <v>0.0613</v>
       </c>
       <c r="D137">
-        <v>0.0532</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.1148</v>
+        <v>0.1139</v>
       </c>
       <c r="C138">
-        <v>0.06</v>
+        <v>0.0597</v>
       </c>
       <c r="D138">
-        <v>0.0549</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.1142</v>
+        <v>0.1132</v>
       </c>
       <c r="C139">
-        <v>0.0573</v>
+        <v>0.057</v>
       </c>
       <c r="D139">
-        <v>0.0569</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.1145</v>
+        <v>0.1135</v>
       </c>
       <c r="C140">
-        <v>0.0555</v>
+        <v>0.0552</v>
       </c>
       <c r="D140">
-        <v>0.059</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.1146</v>
+        <v>0.1136</v>
       </c>
       <c r="C141">
-        <v>0.0536</v>
+        <v>0.0533</v>
       </c>
       <c r="D141">
-        <v>0.061</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.1145</v>
+        <v>0.1135</v>
       </c>
       <c r="C142">
-        <v>0.0514</v>
+        <v>0.0512</v>
       </c>
       <c r="D142">
-        <v>0.0631</v>
+        <v>0.0623</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.1135</v>
+        <v>0.1125</v>
       </c>
       <c r="C143">
-        <v>0.0488</v>
+        <v>0.0485</v>
       </c>
       <c r="D143">
-        <v>0.06469999999999999</v>
+        <v>0.0639</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="C144">
-        <v>0.0467</v>
+        <v>0.0465</v>
       </c>
       <c r="D144">
-        <v>0.0663</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.1136</v>
+        <v>0.1127</v>
       </c>
       <c r="C145">
-        <v>0.0457</v>
+        <v>0.0455</v>
       </c>
       <c r="D145">
-        <v>0.0679</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.114</v>
+        <v>0.1131</v>
       </c>
       <c r="C146">
-        <v>0.0448</v>
+        <v>0.0445</v>
       </c>
       <c r="D146">
-        <v>0.0693</v>
+        <v>0.06859999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.1155</v>
+        <v>0.1146</v>
       </c>
       <c r="C147">
-        <v>0.0449</v>
+        <v>0.0446</v>
       </c>
       <c r="D147">
-        <v>0.0706</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.1179</v>
+        <v>0.117</v>
       </c>
       <c r="C148">
-        <v>0.0459</v>
+        <v>0.0456</v>
       </c>
       <c r="D148">
-        <v>0.07199999999999999</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.1175</v>
+        <v>0.1167</v>
       </c>
       <c r="C149">
-        <v>0.045</v>
+        <v>0.0447</v>
       </c>
       <c r="D149">
-        <v>0.0725</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.1167</v>
+        <v>0.116</v>
       </c>
       <c r="C150">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
       <c r="D150">
-        <v>0.0727</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.1156</v>
+        <v>0.1149</v>
       </c>
       <c r="C151">
-        <v>0.0433</v>
+        <v>0.0431</v>
       </c>
       <c r="D151">
-        <v>0.07240000000000001</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.1173</v>
+        <v>0.1166</v>
       </c>
       <c r="C152">
-        <v>0.0426</v>
+        <v>0.0425</v>
       </c>
       <c r="D152">
-        <v>0.0747</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.1182</v>
+        <v>0.1175</v>
       </c>
       <c r="C153">
-        <v>0.0418</v>
+        <v>0.0416</v>
       </c>
       <c r="D153">
-        <v>0.0765</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.1198</v>
+        <v>0.1192</v>
       </c>
       <c r="C154">
-        <v>0.0428</v>
+        <v>0.0427</v>
       </c>
       <c r="D154">
-        <v>0.077</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.1212</v>
+        <v>0.1206</v>
       </c>
       <c r="C155">
-        <v>0.0439</v>
+        <v>0.0437</v>
       </c>
       <c r="D155">
-        <v>0.07729999999999999</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.1221</v>
+        <v>0.1215</v>
       </c>
       <c r="C156">
-        <v>0.0447</v>
+        <v>0.0446</v>
       </c>
       <c r="D156">
-        <v>0.07729999999999999</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3331,13 +3331,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.1217</v>
+        <v>0.1212</v>
       </c>
       <c r="C157">
-        <v>0.0449</v>
+        <v>0.0447</v>
       </c>
       <c r="D157">
-        <v>0.0769</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3345,13 +3345,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.1212</v>
+        <v>0.1206</v>
       </c>
       <c r="C158">
-        <v>0.0448</v>
+        <v>0.0447</v>
       </c>
       <c r="D158">
-        <v>0.07630000000000001</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3359,13 +3359,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.1205</v>
+        <v>0.12</v>
       </c>
       <c r="C159">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="D159">
-        <v>0.075</v>
+        <v>0.0747</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3373,13 +3373,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.1188</v>
+        <v>0.1184</v>
       </c>
       <c r="C160">
-        <v>0.0456</v>
+        <v>0.0455</v>
       </c>
       <c r="D160">
-        <v>0.0732</v>
+        <v>0.07290000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3387,13 +3387,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.1177</v>
+        <v>0.1174</v>
       </c>
       <c r="C161">
-        <v>0.0461</v>
+        <v>0.046</v>
       </c>
       <c r="D161">
-        <v>0.0716</v>
+        <v>0.07140000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3401,13 +3401,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.118</v>
+        <v>0.1177</v>
       </c>
       <c r="C162">
-        <v>0.048</v>
+        <v>0.0479</v>
       </c>
       <c r="D162">
-        <v>0.0699</v>
+        <v>0.0698</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3415,13 +3415,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.1194</v>
+        <v>0.1191</v>
       </c>
       <c r="C163">
-        <v>0.051</v>
+        <v>0.0508</v>
       </c>
       <c r="D163">
-        <v>0.0684</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.1182</v>
+        <v>0.118</v>
       </c>
       <c r="C164">
-        <v>0.052</v>
+        <v>0.0518</v>
       </c>
       <c r="D164">
-        <v>0.06619999999999999</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3443,10 +3443,10 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.117</v>
+        <v>0.1168</v>
       </c>
       <c r="C165">
-        <v>0.0531</v>
+        <v>0.053</v>
       </c>
       <c r="D165">
         <v>0.0639</v>
@@ -3457,10 +3457,10 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.1158</v>
+        <v>0.1157</v>
       </c>
       <c r="C166">
-        <v>0.054</v>
+        <v>0.0539</v>
       </c>
       <c r="D166">
         <v>0.0618</v>
@@ -3491,7 +3491,7 @@
         <v>0.0559</v>
       </c>
       <c r="D168">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3499,13 +3499,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.1127</v>
+        <v>0.1128</v>
       </c>
       <c r="C169">
         <v>0.0577</v>
       </c>
       <c r="D169">
-        <v>0.055</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3513,13 +3513,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.1125</v>
+        <v>0.1126</v>
       </c>
       <c r="C170">
         <v>0.0594</v>
       </c>
       <c r="D170">
-        <v>0.0531</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3530,10 +3530,10 @@
         <v>0.1129</v>
       </c>
       <c r="C171">
-        <v>0.0618</v>
+        <v>0.0617</v>
       </c>
       <c r="D171">
-        <v>0.0511</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3541,13 +3541,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.1098</v>
+        <v>0.11</v>
       </c>
       <c r="C172">
         <v>0.0639</v>
       </c>
       <c r="D172">
-        <v>0.0459</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3555,13 +3555,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.1059</v>
+        <v>0.1061</v>
       </c>
       <c r="C173">
         <v>0.065</v>
       </c>
       <c r="D173">
-        <v>0.0408</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3569,13 +3569,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.1028</v>
+        <v>0.103</v>
       </c>
       <c r="C174">
         <v>0.0667</v>
       </c>
       <c r="D174">
-        <v>0.0361</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3583,13 +3583,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.1031</v>
+        <v>0.1033</v>
       </c>
       <c r="C175">
         <v>0.0706</v>
       </c>
       <c r="D175">
-        <v>0.0325</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3597,13 +3597,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.1038</v>
+        <v>0.1041</v>
       </c>
       <c r="C176">
         <v>0.07439999999999999</v>
       </c>
       <c r="D176">
-        <v>0.0294</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3611,13 +3611,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.1045</v>
+        <v>0.1047</v>
       </c>
       <c r="C177">
         <v>0.0771</v>
       </c>
       <c r="D177">
-        <v>0.0273</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3625,13 +3625,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.1065</v>
+        <v>0.1066</v>
       </c>
       <c r="C178">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="D178">
-        <v>0.0261</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3639,13 +3639,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.1086</v>
+        <v>0.1087</v>
       </c>
       <c r="C179">
-        <v>0.08359999999999999</v>
+        <v>0.0835</v>
       </c>
       <c r="D179">
-        <v>0.025</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3653,13 +3653,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.1114</v>
+        <v>0.1113</v>
       </c>
       <c r="C180">
         <v>0.0868</v>
       </c>
       <c r="D180">
-        <v>0.0245</v>
+        <v>0.0246</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3667,10 +3667,10 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.1128</v>
+        <v>0.1127</v>
       </c>
       <c r="C181">
-        <v>0.0892</v>
+        <v>0.0891</v>
       </c>
       <c r="D181">
         <v>0.0237</v>
@@ -3681,13 +3681,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.1144</v>
+        <v>0.1143</v>
       </c>
       <c r="C182">
-        <v>0.0916</v>
+        <v>0.0915</v>
       </c>
       <c r="D182">
-        <v>0.0228</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3695,13 +3695,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.1163</v>
+        <v>0.1161</v>
       </c>
       <c r="C183">
-        <v>0.0941</v>
+        <v>0.094</v>
       </c>
       <c r="D183">
-        <v>0.0222</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3709,13 +3709,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.1193</v>
+        <v>0.1191</v>
       </c>
       <c r="C184">
-        <v>0.09719999999999999</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="D184">
-        <v>0.0221</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3723,13 +3723,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.1233</v>
+        <v>0.123</v>
       </c>
       <c r="C185">
-        <v>0.101</v>
+        <v>0.1009</v>
       </c>
       <c r="D185">
-        <v>0.0223</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3737,13 +3737,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.1284</v>
+        <v>0.1279</v>
       </c>
       <c r="C186">
-        <v>0.1051</v>
+        <v>0.105</v>
       </c>
       <c r="D186">
-        <v>0.0232</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3751,13 +3751,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.1331</v>
+        <v>0.1326</v>
       </c>
       <c r="C187">
-        <v>0.1085</v>
+        <v>0.1083</v>
       </c>
       <c r="D187">
-        <v>0.0247</v>
+        <v>0.0244</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3765,13 +3765,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.1382</v>
+        <v>0.1376</v>
       </c>
       <c r="C188">
-        <v>0.1117</v>
+        <v>0.1115</v>
       </c>
       <c r="D188">
-        <v>0.0265</v>
+        <v>0.0261</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3779,13 +3779,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.143</v>
+        <v>0.1423</v>
       </c>
       <c r="C189">
-        <v>0.1148</v>
+        <v>0.1146</v>
       </c>
       <c r="D189">
-        <v>0.0282</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3793,13 +3793,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.148</v>
+        <v>0.1473</v>
       </c>
       <c r="C190">
-        <v>0.118</v>
+        <v>0.1177</v>
       </c>
       <c r="D190">
-        <v>0.03</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3807,13 +3807,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.152</v>
+        <v>0.1513</v>
       </c>
       <c r="C191">
-        <v>0.1201</v>
+        <v>0.1198</v>
       </c>
       <c r="D191">
-        <v>0.0319</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3821,13 +3821,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.1563</v>
+        <v>0.1555</v>
       </c>
       <c r="C192">
-        <v>0.1223</v>
+        <v>0.122</v>
       </c>
       <c r="D192">
-        <v>0.034</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3835,13 +3835,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.1613</v>
+        <v>0.1604</v>
       </c>
       <c r="C193">
-        <v>0.1252</v>
+        <v>0.1249</v>
       </c>
       <c r="D193">
-        <v>0.0361</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3849,13 +3849,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.1648</v>
+        <v>0.1639</v>
       </c>
       <c r="C194">
-        <v>0.1266</v>
+        <v>0.1263</v>
       </c>
       <c r="D194">
-        <v>0.0382</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3863,13 +3863,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.1657</v>
+        <v>0.1649</v>
       </c>
       <c r="C195">
-        <v>0.1261</v>
+        <v>0.1257</v>
       </c>
       <c r="D195">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3877,13 +3877,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.1646</v>
+        <v>0.1637</v>
       </c>
       <c r="C196">
-        <v>0.1237</v>
+        <v>0.1233</v>
       </c>
       <c r="D196">
-        <v>0.0409</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3891,13 +3891,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.1627</v>
+        <v>0.1618</v>
       </c>
       <c r="C197">
-        <v>0.1215</v>
+        <v>0.1212</v>
       </c>
       <c r="D197">
-        <v>0.0412</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3905,13 +3905,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.1617</v>
+        <v>0.1608</v>
       </c>
       <c r="C198">
-        <v>0.1205</v>
+        <v>0.1201</v>
       </c>
       <c r="D198">
-        <v>0.0413</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3919,13 +3919,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.1605</v>
+        <v>0.1597</v>
       </c>
       <c r="C199">
-        <v>0.1192</v>
+        <v>0.1189</v>
       </c>
       <c r="D199">
-        <v>0.0413</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3933,13 +3933,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.1591</v>
+        <v>0.1582</v>
       </c>
       <c r="C200">
-        <v>0.1182</v>
+        <v>0.1178</v>
       </c>
       <c r="D200">
-        <v>0.0409</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3947,13 +3947,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.1597</v>
+        <v>0.1588</v>
       </c>
       <c r="C201">
-        <v>0.1179</v>
+        <v>0.1176</v>
       </c>
       <c r="D201">
-        <v>0.0417</v>
+        <v>0.0412</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3961,13 +3961,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.1592</v>
+        <v>0.1583</v>
       </c>
       <c r="C202">
-        <v>0.1168</v>
+        <v>0.1164</v>
       </c>
       <c r="D202">
-        <v>0.0425</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3975,13 +3975,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.1589</v>
+        <v>0.158</v>
       </c>
       <c r="C203">
-        <v>0.1158</v>
+        <v>0.1155</v>
       </c>
       <c r="D203">
-        <v>0.0431</v>
+        <v>0.0425</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3989,13 +3989,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.1583</v>
+        <v>0.1574</v>
       </c>
       <c r="C204">
-        <v>0.1147</v>
+        <v>0.1144</v>
       </c>
       <c r="D204">
-        <v>0.0436</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4003,13 +4003,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.1575</v>
+        <v>0.1565</v>
       </c>
       <c r="C205">
-        <v>0.1133</v>
+        <v>0.113</v>
       </c>
       <c r="D205">
-        <v>0.0441</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4017,13 +4017,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.1557</v>
+        <v>0.1547</v>
       </c>
       <c r="C206">
-        <v>0.1118</v>
+        <v>0.1114</v>
       </c>
       <c r="D206">
-        <v>0.0439</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4031,13 +4031,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.1536</v>
+        <v>0.1526</v>
       </c>
       <c r="C207">
-        <v>0.1103</v>
+        <v>0.1099</v>
       </c>
       <c r="D207">
-        <v>0.0433</v>
+        <v>0.0427</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4045,13 +4045,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.1516</v>
+        <v>0.1506</v>
       </c>
       <c r="C208">
-        <v>0.1089</v>
+        <v>0.1086</v>
       </c>
       <c r="D208">
-        <v>0.0427</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4059,13 +4059,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.1479</v>
+        <v>0.1469</v>
       </c>
       <c r="C209">
-        <v>0.1059</v>
+        <v>0.1055</v>
       </c>
       <c r="D209">
-        <v>0.042</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4073,13 +4073,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="C210">
-        <v>0.1026</v>
+        <v>0.1023</v>
       </c>
       <c r="D210">
-        <v>0.0414</v>
+        <v>0.0407</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4087,13 +4087,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.1404</v>
+        <v>0.1394</v>
       </c>
       <c r="C211">
-        <v>0.0997</v>
+        <v>0.0993</v>
       </c>
       <c r="D211">
-        <v>0.0407</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4101,13 +4101,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.1379</v>
+        <v>0.1369</v>
       </c>
       <c r="C212">
-        <v>0.0973</v>
+        <v>0.0969</v>
       </c>
       <c r="D212">
-        <v>0.0407</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4115,13 +4115,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.1367</v>
+        <v>0.1356</v>
       </c>
       <c r="C213">
-        <v>0.09569999999999999</v>
+        <v>0.0953</v>
       </c>
       <c r="D213">
-        <v>0.041</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4129,13 +4129,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.1347</v>
+        <v>0.1337</v>
       </c>
       <c r="C214">
-        <v>0.0934</v>
+        <v>0.093</v>
       </c>
       <c r="D214">
-        <v>0.0414</v>
+        <v>0.0406</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4143,13 +4143,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.1341</v>
+        <v>0.133</v>
       </c>
       <c r="C215">
-        <v>0.092</v>
+        <v>0.0916</v>
       </c>
       <c r="D215">
-        <v>0.0422</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4157,13 +4157,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.1368</v>
+        <v>0.1356</v>
       </c>
       <c r="C216">
-        <v>0.0931</v>
+        <v>0.0927</v>
       </c>
       <c r="D216">
-        <v>0.0437</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4171,13 +4171,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.142</v>
+        <v>0.1409</v>
       </c>
       <c r="C217">
-        <v>0.0959</v>
+        <v>0.0955</v>
       </c>
       <c r="D217">
-        <v>0.0462</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4185,13 +4185,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.1463</v>
+        <v>0.1451</v>
       </c>
       <c r="C218">
-        <v>0.09719999999999999</v>
+        <v>0.0968</v>
       </c>
       <c r="D218">
-        <v>0.0491</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4199,13 +4199,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.151</v>
+        <v>0.1498</v>
       </c>
       <c r="C219">
-        <v>0.0987</v>
+        <v>0.0983</v>
       </c>
       <c r="D219">
-        <v>0.0523</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4213,13 +4213,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.1554</v>
+        <v>0.1542</v>
       </c>
       <c r="C220">
-        <v>0.09959999999999999</v>
+        <v>0.0992</v>
       </c>
       <c r="D220">
-        <v>0.0558</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4227,13 +4227,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.1591</v>
+        <v>0.1578</v>
       </c>
       <c r="C221">
-        <v>0.1006</v>
+        <v>0.1002</v>
       </c>
       <c r="D221">
-        <v>0.0585</v>
+        <v>0.0576</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4241,13 +4241,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.1641</v>
+        <v>0.1628</v>
       </c>
       <c r="C222">
-        <v>0.1018</v>
+        <v>0.1014</v>
       </c>
       <c r="D222">
-        <v>0.0623</v>
+        <v>0.0615</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4255,13 +4255,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.1696</v>
+        <v>0.1683</v>
       </c>
       <c r="C223">
-        <v>0.1031</v>
+        <v>0.1027</v>
       </c>
       <c r="D223">
-        <v>0.0664</v>
+        <v>0.06560000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4269,13 +4269,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.1746</v>
+        <v>0.1734</v>
       </c>
       <c r="C224">
-        <v>0.1035</v>
+        <v>0.1031</v>
       </c>
       <c r="D224">
-        <v>0.0712</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4283,13 +4283,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.1821</v>
+        <v>0.1808</v>
       </c>
       <c r="C225">
-        <v>0.1052</v>
+        <v>0.1048</v>
       </c>
       <c r="D225">
-        <v>0.07679999999999999</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4297,13 +4297,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.1897</v>
+        <v>0.1884</v>
       </c>
       <c r="C226">
-        <v>0.1072</v>
+        <v>0.1068</v>
       </c>
       <c r="D226">
-        <v>0.08260000000000001</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4311,13 +4311,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.1988</v>
+        <v>0.1975</v>
       </c>
       <c r="C227">
-        <v>0.1102</v>
+        <v>0.1098</v>
       </c>
       <c r="D227">
-        <v>0.0886</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4325,13 +4325,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.2081</v>
+        <v>0.2068</v>
       </c>
       <c r="C228">
-        <v>0.1137</v>
+        <v>0.1133</v>
       </c>
       <c r="D228">
-        <v>0.0944</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4339,13 +4339,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.218</v>
+        <v>0.2167</v>
       </c>
       <c r="C229">
-        <v>0.1179</v>
+        <v>0.1175</v>
       </c>
       <c r="D229">
-        <v>0.1001</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4353,13 +4353,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.2283</v>
+        <v>0.227</v>
       </c>
       <c r="C230">
-        <v>0.1226</v>
+        <v>0.1222</v>
       </c>
       <c r="D230">
-        <v>0.1057</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4367,13 +4367,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.2397</v>
+        <v>0.2385</v>
       </c>
       <c r="C231">
-        <v>0.1287</v>
+        <v>0.1283</v>
       </c>
       <c r="D231">
-        <v>0.111</v>
+        <v>0.1102</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4381,13 +4381,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.2502</v>
+        <v>0.2489</v>
       </c>
       <c r="C232">
-        <v>0.1345</v>
+        <v>0.1341</v>
       </c>
       <c r="D232">
-        <v>0.1157</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4395,13 +4395,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.2604</v>
+        <v>0.2591</v>
       </c>
       <c r="C233">
-        <v>0.1405</v>
+        <v>0.1401</v>
       </c>
       <c r="D233">
-        <v>0.1199</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4409,13 +4409,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.2699</v>
+        <v>0.2687</v>
       </c>
       <c r="C234">
-        <v>0.1462</v>
+        <v>0.1458</v>
       </c>
       <c r="D234">
-        <v>0.1237</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4423,13 +4423,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.279</v>
+        <v>0.2779</v>
       </c>
       <c r="C235">
-        <v>0.152</v>
+        <v>0.1516</v>
       </c>
       <c r="D235">
-        <v>0.1271</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4437,13 +4437,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.2877</v>
+        <v>0.2866</v>
       </c>
       <c r="C236">
-        <v>0.157</v>
+        <v>0.1566</v>
       </c>
       <c r="D236">
-        <v>0.1307</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4451,13 +4451,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.2943</v>
+        <v>0.2932</v>
       </c>
       <c r="C237">
-        <v>0.1609</v>
+        <v>0.1606</v>
       </c>
       <c r="D237">
-        <v>0.1333</v>
+        <v>0.1326</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4465,13 +4465,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="C238">
-        <v>0.1658</v>
+        <v>0.1655</v>
       </c>
       <c r="D238">
-        <v>0.1353</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4479,13 +4479,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.3069</v>
+        <v>0.3058</v>
       </c>
       <c r="C239">
-        <v>0.1698</v>
+        <v>0.1695</v>
       </c>
       <c r="D239">
-        <v>0.1371</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4493,13 +4493,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.3163</v>
+        <v>0.3153</v>
       </c>
       <c r="C240">
-        <v>0.175</v>
+        <v>0.1747</v>
       </c>
       <c r="D240">
-        <v>0.1413</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4507,13 +4507,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.3249</v>
+        <v>0.3239</v>
       </c>
       <c r="C241">
-        <v>0.1799</v>
+        <v>0.1796</v>
       </c>
       <c r="D241">
-        <v>0.145</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4521,13 +4521,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.3313</v>
+        <v>0.3303</v>
       </c>
       <c r="C242">
-        <v>0.1839</v>
+        <v>0.1836</v>
       </c>
       <c r="D242">
-        <v>0.1475</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4535,13 +4535,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.3375</v>
+        <v>0.3365</v>
       </c>
       <c r="C243">
-        <v>0.188</v>
+        <v>0.1877</v>
       </c>
       <c r="D243">
-        <v>0.1496</v>
+        <v>0.1488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4549,13 +4549,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.3436</v>
+        <v>0.3426</v>
       </c>
       <c r="C244">
-        <v>0.1924</v>
+        <v>0.1922</v>
       </c>
       <c r="D244">
-        <v>0.1511</v>
+        <v>0.1504</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4563,13 +4563,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.3467</v>
+        <v>0.3457</v>
       </c>
       <c r="C245">
-        <v>0.195</v>
+        <v>0.1947</v>
       </c>
       <c r="D245">
-        <v>0.1517</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4577,13 +4577,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.3488</v>
+        <v>0.3479</v>
       </c>
       <c r="C246">
-        <v>0.1966</v>
+        <v>0.1964</v>
       </c>
       <c r="D246">
-        <v>0.1522</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4591,13 +4591,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.3497</v>
+        <v>0.3488</v>
       </c>
       <c r="C247">
-        <v>0.1971</v>
+        <v>0.1969</v>
       </c>
       <c r="D247">
-        <v>0.1526</v>
+        <v>0.1519</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4605,13 +4605,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.3494</v>
+        <v>0.3485</v>
       </c>
       <c r="C248">
-        <v>0.1964</v>
+        <v>0.1962</v>
       </c>
       <c r="D248">
-        <v>0.153</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4619,13 +4619,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.3496</v>
+        <v>0.3488</v>
       </c>
       <c r="C249">
-        <v>0.1962</v>
+        <v>0.196</v>
       </c>
       <c r="D249">
-        <v>0.1534</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4633,13 +4633,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.3498</v>
+        <v>0.349</v>
       </c>
       <c r="C250">
-        <v>0.1958</v>
+        <v>0.1956</v>
       </c>
       <c r="D250">
-        <v>0.1539</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4647,13 +4647,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.3505</v>
+        <v>0.3497</v>
       </c>
       <c r="C251">
-        <v>0.1944</v>
+        <v>0.1942</v>
       </c>
       <c r="D251">
-        <v>0.1561</v>
+        <v>0.1555</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4661,13 +4661,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.3512</v>
+        <v>0.3504</v>
       </c>
       <c r="C252">
-        <v>0.1928</v>
+        <v>0.1926</v>
       </c>
       <c r="D252">
-        <v>0.1584</v>
+        <v>0.1578</v>
       </c>
     </row>
   </sheetData>
